--- a/RL.xlsx
+++ b/RL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1C1CC5-9A20-4668-8B96-89624C713769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333F3490-8134-4A3F-9B3F-B85DBBA56D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{964FB9B6-5A0B-4BED-B971-24C834B20146}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{964FB9B6-5A0B-4BED-B971-24C834B20146}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="303">
   <si>
     <t>Ralph Lauren</t>
   </si>
@@ -920,6 +920,33 @@
   </si>
   <si>
     <t>Other Growth</t>
+  </si>
+  <si>
+    <t>North America Stores</t>
+  </si>
+  <si>
+    <t>Europe Stores</t>
+  </si>
+  <si>
+    <t>Asia Stores</t>
+  </si>
+  <si>
+    <t>RL Stores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oultets </t>
+  </si>
+  <si>
+    <t>Total Stores</t>
+  </si>
+  <si>
+    <t>Concessions</t>
+  </si>
+  <si>
+    <t>Licensed Partner Stores</t>
+  </si>
+  <si>
+    <t>Store Growth</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1030,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1041,6 +1068,18 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1434,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB65CDE8-C26A-4808-A8C2-0F2D976889B8}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1499,7 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>279.5</v>
+        <v>276.11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1472,7 +1511,7 @@
         <v>61.764215</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1485,7 +1524,7 @@
       </c>
       <c r="H4" s="3">
         <f>H3*H2</f>
-        <v>17263.0980925</v>
+        <v>17053.71740365</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1497,11 +1536,11 @@
         <v>12</v>
       </c>
       <c r="H5" s="3">
-        <f>1940.2+203</f>
-        <v>2143.1999999999998</v>
+        <f>1992.5+160.5</f>
+        <v>2153</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1515,11 +1554,11 @@
         <v>11</v>
       </c>
       <c r="H6" s="3">
-        <f>399.5+742.6</f>
-        <v>1142.0999999999999</v>
+        <f>2133.7+399.7</f>
+        <v>2533.3999999999996</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1528,7 +1567,7 @@
       </c>
       <c r="H7" s="3">
         <f>H4+H5-H6</f>
-        <v>18264.198092500003</v>
+        <v>16673.317403649999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1787,13 +1826,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DECD0C8-AF9F-4DAB-A92B-C0DC872AC0C1}">
-  <dimension ref="A1:Z125"/>
+  <dimension ref="A1:Z135"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1842,7 @@
     <col min="12" max="18" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -1815,7 +1854,7 @@
       <c r="Q1"/>
       <c r="R1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
         <v>277</v>
       </c>
@@ -1863,1494 +1902,1347 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12">
+        <v>239</v>
+      </c>
+      <c r="R3" s="12">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12">
+        <v>103</v>
+      </c>
+      <c r="R4" s="12">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12">
+        <v>231</v>
+      </c>
+      <c r="R5" s="12">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12">
+        <v>232</v>
+      </c>
+      <c r="R6" s="12">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12">
+        <v>332</v>
+      </c>
+      <c r="R7" s="12">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23">
+        <f t="shared" ref="P8:Q8" si="0">+P6+P7</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
+        <f t="shared" si="0"/>
+        <v>564</v>
+      </c>
+      <c r="R8" s="23">
+        <f>+R6+R7</f>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25">
+        <v>699</v>
+      </c>
+      <c r="R9" s="25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25">
+        <v>100</v>
+      </c>
+      <c r="R10" s="25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
         <v>933.3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19">
+      <c r="F12" s="19">
+        <v>667.7</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19">
         <v>997.7</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19">
-        <v>521.5</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19">
-        <v>604.4</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19">
-        <v>446.4</v>
-      </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19">
-        <v>506.7</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>289</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19">
-        <v>1415.8</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19">
-        <v>1581.8</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
-        <v>3747.8</v>
-      </c>
-      <c r="M7" s="3">
-        <v>3740.9</v>
-      </c>
-      <c r="N7" s="3">
-        <v>2779.8</v>
-      </c>
-      <c r="O7" s="3">
-        <v>3941.5</v>
-      </c>
-      <c r="P7" s="3">
-        <v>4053.1</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>4351</v>
-      </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19">
-        <v>485.4</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19">
-        <v>527</v>
-      </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3">
-        <v>2392.5</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2250.8000000000002</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1498.6</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2127.3000000000002</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2233.3000000000002</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2134.1</v>
-      </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19">
-        <v>34.700000000000003</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
-        <v>172.7</v>
-      </c>
-      <c r="M9" s="3">
-        <v>168.1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>122.4</v>
-      </c>
-      <c r="O9" s="3">
-        <v>149.69999999999999</v>
-      </c>
-      <c r="P9" s="3">
-        <v>157.19999999999999</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>146.30000000000001</v>
-      </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20">
-        <v>1934</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20">
-        <v>2143.5</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20">
-        <v>6313</v>
-      </c>
-      <c r="M10" s="20">
-        <v>6159.8</v>
-      </c>
-      <c r="N10" s="20">
-        <v>4400.8</v>
-      </c>
-      <c r="O10" s="20">
-        <v>6218.5</v>
-      </c>
-      <c r="P10" s="20">
-        <v>6443.6</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>6631.4</v>
-      </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19">
-        <v>648</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19">
-        <v>677.4</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19">
-        <v>2427</v>
-      </c>
-      <c r="M11" s="19">
-        <v>2506.5</v>
-      </c>
-      <c r="N11" s="19">
-        <v>1539.4</v>
-      </c>
-      <c r="O11" s="19">
-        <v>2071</v>
-      </c>
-      <c r="P11" s="19">
-        <v>2277.8000000000002</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>2199.6</v>
-      </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="19">
-        <f t="shared" ref="C12:D12" si="0">+C10-C11</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
-        <f>+E10-E11</f>
-        <v>1286</v>
-      </c>
-      <c r="F12" s="19">
-        <f t="shared" ref="F12:J12" si="1">+F10-F11</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="19">
-        <f t="shared" si="1"/>
-        <v>1466.1</v>
-      </c>
       <c r="J12" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>704.7</v>
       </c>
       <c r="K12" s="19"/>
-      <c r="L12" s="19">
-        <f t="shared" ref="L12:P12" si="2">L10-L11</f>
-        <v>3886</v>
-      </c>
-      <c r="M12" s="19">
-        <f t="shared" si="2"/>
-        <v>3653.3</v>
-      </c>
-      <c r="N12" s="19">
-        <f t="shared" si="2"/>
-        <v>2861.4</v>
-      </c>
-      <c r="O12" s="19">
-        <f t="shared" si="2"/>
-        <v>4147.5</v>
-      </c>
-      <c r="P12" s="19">
-        <f t="shared" si="2"/>
-        <v>4165.8</v>
-      </c>
-      <c r="Q12" s="19">
-        <f>Q10-Q11</f>
-        <v>4431.7999999999993</v>
-      </c>
-      <c r="R12" s="19"/>
+      <c r="Q12" s="3">
+        <v>2905.5</v>
+      </c>
+      <c r="R12" s="3">
+        <v>3050.1</v>
+      </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19">
-        <v>967.6</v>
-      </c>
-      <c r="F13" s="19"/>
+        <v>521.5</v>
+      </c>
+      <c r="F13" s="19">
+        <v>469.2</v>
+      </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="19">
-        <v>1064.2</v>
-      </c>
-      <c r="J13" s="19"/>
+        <v>604.4</v>
+      </c>
+      <c r="J13" s="19">
+        <v>525.5</v>
+      </c>
       <c r="K13" s="19"/>
-      <c r="L13" s="19">
-        <v>3168.3</v>
-      </c>
-      <c r="M13" s="19">
-        <v>3237.5</v>
-      </c>
-      <c r="N13" s="19">
-        <v>2638.5</v>
-      </c>
-      <c r="O13" s="19">
-        <v>3305.6</v>
-      </c>
-      <c r="P13" s="19">
-        <v>3408.9</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>3600.5</v>
-      </c>
-      <c r="R13" s="19"/>
+      <c r="Q13" s="3">
+        <v>1968</v>
+      </c>
+      <c r="R13" s="3">
+        <v>2174.9</v>
+      </c>
       <c r="S13" s="19"/>
       <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19"/>
+        <v>446.4</v>
+      </c>
+      <c r="F14" s="19">
+        <v>394.3</v>
+      </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19">
-        <v>0</v>
-      </c>
-      <c r="J14" s="19"/>
+        <v>506.7</v>
+      </c>
+      <c r="J14" s="19">
+        <v>431.6</v>
+      </c>
       <c r="K14" s="19"/>
-      <c r="L14" s="19">
-        <v>25.8</v>
-      </c>
-      <c r="M14" s="19">
-        <v>31.6</v>
-      </c>
-      <c r="N14" s="19">
-        <v>96</v>
-      </c>
-      <c r="O14" s="19">
-        <v>21.3</v>
-      </c>
-      <c r="P14" s="19">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>0</v>
-      </c>
-      <c r="R14" s="19"/>
+      <c r="Q14" s="3">
+        <v>1566.6</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1709.4</v>
+      </c>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19">
-        <v>0.7</v>
-      </c>
-      <c r="F15" s="19"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F15" s="19">
+        <v>36.700000000000003</v>
+      </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19">
-        <v>12.2</v>
-      </c>
-      <c r="J15" s="19"/>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="J15" s="19">
+        <v>35.5</v>
+      </c>
       <c r="K15" s="19"/>
-      <c r="L15" s="19">
-        <v>130.1</v>
-      </c>
-      <c r="M15" s="19">
-        <v>67.2</v>
-      </c>
-      <c r="N15" s="19">
-        <v>170.5</v>
-      </c>
-      <c r="O15" s="19">
-        <v>22.2</v>
-      </c>
-      <c r="P15" s="19">
-        <v>43</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="R15" s="19"/>
+      <c r="Q15" s="3">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="R15" s="3">
+        <v>144.6</v>
+      </c>
       <c r="S15" s="19"/>
       <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="19">
-        <f t="shared" ref="C16:J16" si="3">SUM(C13:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="19">
-        <f t="shared" si="3"/>
-        <v>968.30000000000007</v>
+        <v>1415.8</v>
       </c>
       <c r="F16" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <v>951.1</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="19">
-        <f t="shared" si="3"/>
-        <v>1076.4000000000001</v>
+        <v>1581.8</v>
       </c>
       <c r="J16" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19">
-        <f t="shared" ref="L16:P16" si="4">SUM(L13:L15)</f>
-        <v>3324.2000000000003</v>
-      </c>
-      <c r="M16" s="19">
-        <f t="shared" si="4"/>
-        <v>3336.2999999999997</v>
-      </c>
-      <c r="N16" s="19">
-        <f t="shared" si="4"/>
-        <v>2905</v>
-      </c>
-      <c r="O16" s="19">
-        <f t="shared" si="4"/>
-        <v>3349.1</v>
-      </c>
-      <c r="P16" s="19">
-        <f t="shared" si="4"/>
-        <v>3461.6</v>
-      </c>
-      <c r="Q16" s="19">
-        <f>SUM(Q13:Q15)</f>
-        <v>3675.4</v>
-      </c>
-      <c r="R16" s="19"/>
+        <v>1509.3</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>3747.8</v>
+      </c>
+      <c r="M16" s="3">
+        <v>3740.9</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2779.8</v>
+      </c>
+      <c r="O16" s="3">
+        <v>3941.5</v>
+      </c>
+      <c r="P16" s="3">
+        <v>4053.1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>4351</v>
+      </c>
+      <c r="R16" s="3">
+        <v>4770.1000000000004</v>
+      </c>
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="19">
-        <f t="shared" ref="C17:J17" si="5">C12-C16</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="19">
-        <f t="shared" si="5"/>
-        <v>317.69999999999993</v>
+        <v>485.4</v>
       </c>
       <c r="F17" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>580.1</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="19">
-        <f t="shared" si="5"/>
-        <v>389.69999999999982</v>
+        <v>527</v>
       </c>
       <c r="J17" s="19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19">
-        <f t="shared" ref="L17:P17" si="6">L12-L16</f>
-        <v>561.79999999999973</v>
-      </c>
-      <c r="M17" s="19">
-        <f t="shared" si="6"/>
-        <v>317.00000000000045</v>
-      </c>
-      <c r="N17" s="19">
-        <f t="shared" si="6"/>
-        <v>-43.599999999999909</v>
-      </c>
-      <c r="O17" s="19">
-        <f t="shared" si="6"/>
-        <v>798.40000000000009</v>
-      </c>
-      <c r="P17" s="19">
-        <f t="shared" si="6"/>
-        <v>704.20000000000027</v>
-      </c>
-      <c r="Q17" s="19">
-        <f>Q12-Q16</f>
-        <v>756.39999999999918</v>
-      </c>
-      <c r="R17" s="19"/>
+        <v>602.5</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>2392.5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2250.8000000000002</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1498.6</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2127.3000000000002</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2233.3000000000002</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>2134.1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2164.3000000000002</v>
+      </c>
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19">
-        <v>10.6</v>
-      </c>
-      <c r="F18" s="19"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F18" s="19">
+        <v>36.700000000000003</v>
+      </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19">
-        <v>11.6</v>
-      </c>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19">
-        <v>20.7</v>
-      </c>
-      <c r="M18" s="19">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="N18" s="19">
-        <v>48.5</v>
-      </c>
-      <c r="O18" s="19">
-        <v>54</v>
-      </c>
-      <c r="P18" s="19">
-        <v>40.4</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>42.2</v>
-      </c>
-      <c r="R18" s="19"/>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="J18" s="19">
+        <v>35.5</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>172.7</v>
+      </c>
+      <c r="M18" s="3">
+        <v>168.1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>122.4</v>
+      </c>
+      <c r="O18" s="3">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="P18" s="3">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="R18" s="3">
+        <v>144.6</v>
+      </c>
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19">
-        <v>20.7</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19">
-        <v>17.8</v>
-      </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19">
-        <v>40.799999999999997</v>
-      </c>
-      <c r="M19" s="19">
-        <v>34.4</v>
-      </c>
-      <c r="N19" s="19">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="O19" s="19">
-        <v>5.5</v>
-      </c>
-      <c r="P19" s="19">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>73</v>
-      </c>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20">
+        <v>1934</v>
+      </c>
+      <c r="F19" s="20">
+        <v>1567.9</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20">
+        <v>2143.5</v>
+      </c>
+      <c r="J19" s="20">
+        <v>1697.3</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20">
+        <v>6313</v>
+      </c>
+      <c r="M19" s="20">
+        <v>6159.8</v>
+      </c>
+      <c r="N19" s="20">
+        <v>4400.8</v>
+      </c>
+      <c r="O19" s="20">
+        <v>6218.5</v>
+      </c>
+      <c r="P19" s="20">
+        <v>6443.6</v>
+      </c>
+      <c r="Q19" s="20">
+        <v>6631.4</v>
+      </c>
+      <c r="R19" s="20">
+        <v>7079</v>
+      </c>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19">
-        <v>2</v>
-      </c>
-      <c r="F20" s="19"/>
+        <v>648</v>
+      </c>
+      <c r="F20" s="19">
+        <v>524.20000000000005</v>
+      </c>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
       <c r="I20" s="19">
-        <v>-12.2</v>
-      </c>
-      <c r="J20" s="19"/>
+        <v>677.4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>532</v>
+      </c>
       <c r="K20" s="19"/>
       <c r="L20" s="19">
-        <v>0.6</v>
+        <v>2427</v>
       </c>
       <c r="M20" s="19">
-        <v>-7.4</v>
+        <v>2506.5</v>
       </c>
       <c r="N20" s="19">
-        <v>7.6</v>
+        <v>1539.4</v>
       </c>
       <c r="O20" s="19">
-        <v>4.7</v>
+        <v>2071</v>
       </c>
       <c r="P20" s="19">
-        <v>-4.0999999999999996</v>
+        <v>2277.8000000000002</v>
       </c>
       <c r="Q20" s="19">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="R20" s="19"/>
+        <v>2199.6</v>
+      </c>
+      <c r="R20" s="19">
+        <v>2226.1</v>
+      </c>
       <c r="S20" s="19"/>
       <c r="T20" s="19"/>
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C21" s="19">
-        <f t="shared" ref="C21:J21" si="7">C17-C18+C19+C20</f>
+        <f t="shared" ref="C21:D21" si="1">+C19-C20</f>
         <v>0</v>
       </c>
       <c r="D21" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E21" s="19">
-        <f t="shared" si="7"/>
-        <v>329.7999999999999</v>
+        <f>+E19-E20</f>
+        <v>1286</v>
       </c>
       <c r="F21" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F21:J21" si="2">+F19-F20</f>
+        <v>1043.7</v>
+      </c>
+      <c r="G21" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G21" s="19">
-        <f t="shared" si="7"/>
+      <c r="H21" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H21" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="I21" s="19">
-        <f t="shared" si="7"/>
-        <v>383.69999999999982</v>
+        <f t="shared" si="2"/>
+        <v>1466.1</v>
       </c>
       <c r="J21" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1165.3</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="19">
-        <f t="shared" ref="L21:P21" si="8">L17-L18+L19+L20</f>
-        <v>582.49999999999966</v>
+        <f t="shared" ref="L21:P21" si="3">L19-L20</f>
+        <v>3886</v>
       </c>
       <c r="M21" s="19">
-        <f t="shared" si="8"/>
-        <v>326.40000000000043</v>
+        <f t="shared" si="3"/>
+        <v>3653.3</v>
       </c>
       <c r="N21" s="19">
-        <f t="shared" si="8"/>
-        <v>-74.799999999999912</v>
+        <f t="shared" si="3"/>
+        <v>2861.4</v>
       </c>
       <c r="O21" s="19">
-        <f t="shared" si="8"/>
-        <v>754.60000000000014</v>
+        <f t="shared" si="3"/>
+        <v>4147.5</v>
       </c>
       <c r="P21" s="19">
-        <f t="shared" si="8"/>
-        <v>691.90000000000032</v>
+        <f t="shared" si="3"/>
+        <v>4165.8</v>
       </c>
       <c r="Q21" s="19">
-        <f>Q17-Q18+Q19+Q20</f>
-        <v>777.39999999999918</v>
-      </c>
-      <c r="R21" s="19"/>
+        <f>Q19-Q20</f>
+        <v>4431.7999999999993</v>
+      </c>
+      <c r="R21" s="19">
+        <f>R19-R20</f>
+        <v>4852.8999999999996</v>
+      </c>
       <c r="S21" s="19"/>
       <c r="T21" s="19"/>
       <c r="U21" s="19"/>
       <c r="V21" s="19"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19">
-        <v>53.2</v>
-      </c>
-      <c r="F22" s="19"/>
+        <v>967.6</v>
+      </c>
+      <c r="F22" s="19">
+        <v>906.6</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19">
-        <v>86.3</v>
-      </c>
-      <c r="J22" s="19"/>
+        <v>1064.2</v>
+      </c>
+      <c r="J22" s="19">
+        <v>990.5</v>
+      </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19">
-        <v>151.6</v>
+        <v>3168.3</v>
       </c>
       <c r="M22" s="19">
-        <v>-57.9</v>
+        <v>3237.5</v>
       </c>
       <c r="N22" s="19">
-        <v>46.3</v>
+        <v>2638.5</v>
       </c>
       <c r="O22" s="19">
-        <v>154.5</v>
+        <v>3305.6</v>
       </c>
       <c r="P22" s="19">
-        <v>169.2</v>
+        <v>3408.9</v>
       </c>
       <c r="Q22" s="19">
-        <v>131.1</v>
-      </c>
-      <c r="R22" s="19"/>
+        <v>3600.5</v>
+      </c>
+      <c r="R22" s="19">
+        <v>3863</v>
+      </c>
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="19">
-        <f t="shared" ref="C23:J23" si="9">C21-C22</f>
+        <v>78</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19">
         <v>0</v>
       </c>
-      <c r="D23" s="19">
-        <f t="shared" si="9"/>
+      <c r="F23" s="19">
         <v>0</v>
       </c>
-      <c r="E23" s="19">
-        <f t="shared" si="9"/>
-        <v>276.59999999999991</v>
-      </c>
-      <c r="F23" s="19">
-        <f t="shared" si="9"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19">
         <v>0</v>
       </c>
-      <c r="G23" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="19">
-        <f t="shared" si="9"/>
-        <v>297.39999999999981</v>
-      </c>
       <c r="J23" s="19">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="19">
-        <f t="shared" ref="L23:P23" si="10">L21-L22</f>
-        <v>430.89999999999964</v>
+        <v>25.8</v>
       </c>
       <c r="M23" s="19">
-        <f t="shared" si="10"/>
-        <v>384.30000000000041</v>
+        <v>31.6</v>
       </c>
       <c r="N23" s="19">
-        <f t="shared" si="10"/>
-        <v>-121.09999999999991</v>
+        <v>96</v>
       </c>
       <c r="O23" s="19">
-        <f t="shared" si="10"/>
-        <v>600.10000000000014</v>
+        <v>21.3</v>
       </c>
       <c r="P23" s="19">
-        <f t="shared" si="10"/>
-        <v>522.70000000000027</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Q23" s="19">
-        <f>Q21-Q22</f>
-        <v>646.29999999999916</v>
-      </c>
-      <c r="R23" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="19">
+        <v>0.8</v>
+      </c>
       <c r="S23" s="19"/>
       <c r="T23" s="19"/>
       <c r="U23" s="19"/>
       <c r="V23" s="19"/>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="F24" s="19">
+        <v>29.3</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="I24" s="19">
+        <v>12.2</v>
+      </c>
+      <c r="J24" s="19">
+        <v>19</v>
+      </c>
       <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="19"/>
+      <c r="L24" s="19">
+        <v>130.1</v>
+      </c>
+      <c r="M24" s="19">
+        <v>67.2</v>
+      </c>
+      <c r="N24" s="19">
+        <v>170.5</v>
+      </c>
+      <c r="O24" s="19">
+        <v>22.2</v>
+      </c>
+      <c r="P24" s="19">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="R24" s="19">
+        <v>57</v>
+      </c>
       <c r="S24" s="19"/>
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="21" t="e">
-        <f t="shared" ref="C25:H25" si="11">+C23/C26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="21" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="21">
-        <f t="shared" si="11"/>
-        <v>4.2553846153846138</v>
-      </c>
-      <c r="F25" s="21" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="21" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="21" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="21">
-        <f>+I23/I26</f>
-        <v>4.7583999999999973</v>
-      </c>
-      <c r="J25" s="21" t="e">
-        <f t="shared" ref="J25" si="12">+J23/J26</f>
-        <v>#DIV/0!</v>
+        <v>80</v>
+      </c>
+      <c r="C25" s="19">
+        <f t="shared" ref="C25:J25" si="4">SUM(C22:C24)</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <f t="shared" si="4"/>
+        <v>968.30000000000007</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="4"/>
+        <v>935.9</v>
+      </c>
+      <c r="G25" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
+        <f t="shared" si="4"/>
+        <v>1076.4000000000001</v>
+      </c>
+      <c r="J25" s="19">
+        <f t="shared" si="4"/>
+        <v>1010.3</v>
       </c>
       <c r="K25" s="19"/>
       <c r="L25" s="19">
-        <f t="shared" ref="L25:Q25" si="13">L23/L26</f>
-        <v>5.5191935752436772</v>
+        <f t="shared" ref="L25:P25" si="5">SUM(L22:L24)</f>
+        <v>3324.2000000000003</v>
       </c>
       <c r="M25" s="19">
-        <f t="shared" si="13"/>
-        <v>5.2892357240183383</v>
+        <f t="shared" si="5"/>
+        <v>3336.2999999999997</v>
       </c>
       <c r="N25" s="19">
-        <f t="shared" si="13"/>
-        <v>-1.6559325046833751</v>
+        <f t="shared" si="5"/>
+        <v>2905</v>
       </c>
       <c r="O25" s="19">
-        <f t="shared" si="13"/>
-        <v>8.5636817695326446</v>
+        <f t="shared" si="5"/>
+        <v>3349.1</v>
       </c>
       <c r="P25" s="19">
-        <f t="shared" si="13"/>
-        <v>7.9918659409210493</v>
+        <f t="shared" si="5"/>
+        <v>3461.6</v>
       </c>
       <c r="Q25" s="19">
-        <f t="shared" si="13"/>
-        <v>10.4639879256945</v>
-      </c>
-      <c r="R25" s="19"/>
+        <f>SUM(Q22:Q24)</f>
+        <v>3675.4</v>
+      </c>
+      <c r="R25" s="19">
+        <f>SUM(R22:R24)</f>
+        <v>3920.8</v>
+      </c>
       <c r="S25" s="19"/>
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+        <v>81</v>
+      </c>
+      <c r="C26" s="19">
+        <f t="shared" ref="C26:J26" si="6">C21-C25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="E26" s="19">
-        <v>65</v>
-      </c>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
+        <f t="shared" si="6"/>
+        <v>317.69999999999993</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="6"/>
+        <v>107.80000000000007</v>
+      </c>
+      <c r="G26" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="I26" s="19">
-        <v>62.5</v>
-      </c>
-      <c r="J26" s="19"/>
+        <f t="shared" si="6"/>
+        <v>389.69999999999982</v>
+      </c>
+      <c r="J26" s="19">
+        <f t="shared" si="6"/>
+        <v>155</v>
+      </c>
       <c r="K26" s="19"/>
       <c r="L26" s="19">
-        <f>52.192+25.881</f>
-        <v>78.073000000000008</v>
+        <f t="shared" ref="L26:P26" si="7">L21-L25</f>
+        <v>561.79999999999973</v>
       </c>
       <c r="M26" s="19">
-        <f>47.777+24.88^1</f>
-        <v>72.656999999999996</v>
+        <f t="shared" si="7"/>
+        <v>317.00000000000045</v>
       </c>
       <c r="N26" s="19">
-        <f>48.25+24.881</f>
-        <v>73.131</v>
+        <f t="shared" si="7"/>
+        <v>-43.599999999999909</v>
       </c>
       <c r="O26" s="19">
-        <f>45.194+24.881</f>
-        <v>70.075000000000003</v>
+        <f t="shared" si="7"/>
+        <v>798.40000000000009</v>
       </c>
       <c r="P26" s="19">
-        <f>40.523+24.881</f>
-        <v>65.403999999999996</v>
+        <f t="shared" si="7"/>
+        <v>704.20000000000027</v>
       </c>
       <c r="Q26" s="19">
-        <f>Main!H3</f>
-        <v>61.764215</v>
-      </c>
-      <c r="R26" s="19"/>
+        <f>Q21-Q25</f>
+        <v>756.39999999999918</v>
+      </c>
+      <c r="R26" s="19">
+        <f>R21-R25</f>
+        <v>932.09999999999945</v>
+      </c>
       <c r="S26" s="19"/>
       <c r="T26" s="19"/>
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="E27" s="19">
+        <v>10.6</v>
+      </c>
+      <c r="F27" s="19">
+        <v>11.6</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="I27" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="J27" s="19">
+        <v>10.199999999999999</v>
+      </c>
       <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
+      <c r="L27" s="19">
+        <v>20.7</v>
+      </c>
+      <c r="M27" s="19">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N27" s="19">
+        <v>48.5</v>
+      </c>
+      <c r="O27" s="19">
+        <v>54</v>
+      </c>
+      <c r="P27" s="19">
+        <v>40.4</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>42.2</v>
+      </c>
+      <c r="R27" s="19">
+        <v>44.1</v>
+      </c>
       <c r="S27" s="19"/>
       <c r="T27" s="19"/>
       <c r="U27" s="19"/>
       <c r="V27" s="19"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>290</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="10" t="e">
-        <f t="shared" ref="G28:G31" si="14">+G3/C3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="10" t="e">
-        <f t="shared" ref="H28:H32" si="15">+H3/D3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="10">
-        <f t="shared" ref="I28:I32" si="16">+I3/E3-1</f>
-        <v>6.9002464373727701E-2</v>
-      </c>
-      <c r="J28" s="10" t="e">
-        <f t="shared" ref="J28:J32" si="17">+J3/F3-1</f>
-        <v>#DIV/0!</v>
+        <v>83</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19">
+        <v>20.7</v>
+      </c>
+      <c r="F28" s="19">
+        <v>20.8</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19">
+        <v>17.8</v>
+      </c>
+      <c r="J28" s="19">
+        <v>18.2</v>
       </c>
       <c r="K28" s="19"/>
-      <c r="L28" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M28" s="7" t="e">
-        <f t="shared" ref="M28:Q31" si="18">M3/L3-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R28" s="19"/>
+      <c r="L28" s="19">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="M28" s="19">
+        <v>34.4</v>
+      </c>
+      <c r="N28" s="19">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O28" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="P28" s="19">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>73</v>
+      </c>
+      <c r="R28" s="19">
+        <v>74</v>
+      </c>
       <c r="S28" s="19"/>
       <c r="T28" s="19"/>
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>291</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="10" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="10">
-        <f t="shared" si="16"/>
-        <v>0.1589645254074783</v>
-      </c>
-      <c r="J29" s="10" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>84</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19">
+        <v>2</v>
+      </c>
+      <c r="F29" s="19">
+        <v>-5.5</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19">
+        <v>-12.2</v>
+      </c>
+      <c r="J29" s="19">
+        <v>-0.7</v>
       </c>
       <c r="K29" s="19"/>
-      <c r="L29" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M29" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29" s="19"/>
+      <c r="L29" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="M29" s="19">
+        <v>-7.4</v>
+      </c>
+      <c r="N29" s="19">
+        <v>7.6</v>
+      </c>
+      <c r="O29" s="19">
+        <v>4.7</v>
+      </c>
+      <c r="P29" s="19">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="R29" s="19">
+        <v>-11.3</v>
+      </c>
       <c r="S29" s="19"/>
       <c r="T29" s="19"/>
       <c r="U29" s="19"/>
       <c r="V29" s="19"/>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>292</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="10" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="10">
-        <f t="shared" si="16"/>
-        <v>0.13508064516129026</v>
-      </c>
-      <c r="J30" s="10" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>85</v>
+      </c>
+      <c r="C30" s="19">
+        <f t="shared" ref="C30:J30" si="8">C26-C27+C28+C29</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <f t="shared" si="8"/>
+        <v>329.7999999999999</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="8"/>
+        <v>111.50000000000007</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" si="8"/>
+        <v>383.69999999999982</v>
+      </c>
+      <c r="J30" s="19">
+        <f t="shared" si="8"/>
+        <v>162.30000000000001</v>
       </c>
       <c r="K30" s="19"/>
-      <c r="L30" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M30" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N30" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P30" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R30" s="19"/>
+      <c r="L30" s="19">
+        <f t="shared" ref="L30:P30" si="9">L26-L27+L28+L29</f>
+        <v>582.49999999999966</v>
+      </c>
+      <c r="M30" s="19">
+        <f t="shared" si="9"/>
+        <v>326.40000000000043</v>
+      </c>
+      <c r="N30" s="19">
+        <f t="shared" si="9"/>
+        <v>-74.799999999999912</v>
+      </c>
+      <c r="O30" s="19">
+        <f t="shared" si="9"/>
+        <v>754.60000000000014</v>
+      </c>
+      <c r="P30" s="19">
+        <f t="shared" si="9"/>
+        <v>691.90000000000032</v>
+      </c>
+      <c r="Q30" s="19">
+        <f>Q26-Q27+Q28+Q29</f>
+        <v>777.39999999999918</v>
+      </c>
+      <c r="R30" s="19">
+        <f>R26-R27+R28+R29</f>
+        <v>950.69999999999948</v>
+      </c>
       <c r="S30" s="19"/>
       <c r="T30" s="19"/>
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>293</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="10" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I31" s="10">
-        <f t="shared" si="16"/>
-        <v>5.7926829268292845E-2</v>
-      </c>
-      <c r="J31" s="10" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>86</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19">
+        <v>53.2</v>
+      </c>
+      <c r="F31" s="19">
+        <v>20.8</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19">
+        <v>86.3</v>
+      </c>
+      <c r="J31" s="19">
+        <v>33.299999999999997</v>
       </c>
       <c r="K31" s="19"/>
-      <c r="L31" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M31" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N31" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R31" s="19"/>
+      <c r="L31" s="19">
+        <v>151.6</v>
+      </c>
+      <c r="M31" s="19">
+        <v>-57.9</v>
+      </c>
+      <c r="N31" s="19">
+        <v>46.3</v>
+      </c>
+      <c r="O31" s="19">
+        <v>154.5</v>
+      </c>
+      <c r="P31" s="19">
+        <v>169.2</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>131.1</v>
+      </c>
+      <c r="R31" s="19">
+        <v>207.8</v>
+      </c>
       <c r="S31" s="19"/>
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
       <c r="V31" s="19"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="10" t="e">
-        <f t="shared" ref="G32:H35" si="19">+G7/C7-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="10" t="e">
-        <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I32" s="10">
-        <f t="shared" si="16"/>
-        <v>0.11724819889814952</v>
-      </c>
-      <c r="J32" s="10" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
+        <v>87</v>
+      </c>
+      <c r="C32" s="19">
+        <f t="shared" ref="C32:J32" si="10">C30-C31</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="19">
+        <f t="shared" si="10"/>
+        <v>276.59999999999991</v>
+      </c>
+      <c r="F32" s="19">
+        <f t="shared" si="10"/>
+        <v>90.700000000000074</v>
+      </c>
+      <c r="G32" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="19">
+        <f t="shared" si="10"/>
+        <v>297.39999999999981</v>
+      </c>
+      <c r="J32" s="19">
+        <f t="shared" si="10"/>
+        <v>129</v>
       </c>
       <c r="K32" s="19"/>
-      <c r="L32" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M32" s="7">
-        <f>M7/L7-1</f>
-        <v>-1.8410801003255761E-3</v>
-      </c>
-      <c r="N32" s="7">
-        <f t="shared" ref="N32:Q32" si="20">N7/M7-1</f>
-        <v>-0.25691678473094703</v>
-      </c>
-      <c r="O32" s="7">
-        <f t="shared" si="20"/>
-        <v>0.41790776314842781</v>
-      </c>
-      <c r="P32" s="7">
-        <f t="shared" si="20"/>
-        <v>2.831409361918058E-2</v>
-      </c>
-      <c r="Q32" s="7">
-        <f t="shared" si="20"/>
-        <v>7.3499296834521832E-2</v>
-      </c>
-      <c r="R32" s="19"/>
+      <c r="L32" s="19">
+        <f t="shared" ref="L32:P32" si="11">L30-L31</f>
+        <v>430.89999999999964</v>
+      </c>
+      <c r="M32" s="19">
+        <f t="shared" si="11"/>
+        <v>384.30000000000041</v>
+      </c>
+      <c r="N32" s="19">
+        <f t="shared" si="11"/>
+        <v>-121.09999999999991</v>
+      </c>
+      <c r="O32" s="19">
+        <f t="shared" si="11"/>
+        <v>600.10000000000014</v>
+      </c>
+      <c r="P32" s="19">
+        <f t="shared" si="11"/>
+        <v>522.70000000000027</v>
+      </c>
+      <c r="Q32" s="19">
+        <f>Q30-Q31</f>
+        <v>646.29999999999916</v>
+      </c>
+      <c r="R32" s="19">
+        <f>R30-R31</f>
+        <v>742.89999999999941</v>
+      </c>
       <c r="S32" s="19"/>
       <c r="T32" s="19"/>
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>284</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="10" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I33" s="10">
-        <f t="shared" ref="I33:J35" si="21">+I8/E8-1</f>
-        <v>8.5702513391017865E-2</v>
-      </c>
-      <c r="J33" s="10" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
       <c r="K33" s="19"/>
-      <c r="L33" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M33" s="7">
-        <f>M8/L8-1</f>
-        <v>-5.9226750261232919E-2</v>
-      </c>
-      <c r="N33" s="7">
-        <f t="shared" ref="N33:P35" si="22">N8/M8-1</f>
-        <v>-0.33419228718677818</v>
-      </c>
-      <c r="O33" s="7">
-        <f t="shared" si="22"/>
-        <v>0.41952488989723768</v>
-      </c>
-      <c r="P33" s="7">
-        <f t="shared" si="22"/>
-        <v>4.9828421003149437E-2</v>
-      </c>
-      <c r="Q33" s="7">
-        <f t="shared" ref="Q33:Q34" si="23">Q8/P8-1</f>
-        <v>-4.4418573411543538E-2</v>
-      </c>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
       <c r="R33" s="19"/>
       <c r="S33" s="19"/>
       <c r="T33" s="19"/>
       <c r="U33" s="19"/>
       <c r="V33" s="19"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>285</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="10" t="e">
-        <f t="shared" si="19"/>
+        <v>89</v>
+      </c>
+      <c r="C34" s="21" t="e">
+        <f t="shared" ref="C34:H34" si="12">+C32/C35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="10" t="e">
-        <f t="shared" si="19"/>
+      <c r="D34" s="21" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="10">
-        <f t="shared" si="21"/>
-        <v>5.7926829268292845E-2</v>
-      </c>
-      <c r="J34" s="10" t="e">
-        <f t="shared" si="21"/>
+      <c r="E34" s="21">
+        <f t="shared" si="12"/>
+        <v>4.2553846153846138</v>
+      </c>
+      <c r="F34" s="21" t="e">
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="G34" s="21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="21" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="21">
+        <f>+I32/I35</f>
+        <v>4.7583999999999973</v>
+      </c>
+      <c r="J34" s="21" t="e">
+        <f t="shared" ref="J34" si="13">+J32/J35</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K34" s="19"/>
-      <c r="L34" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M34" s="7">
-        <f>M9/L9-1</f>
-        <v>-2.6635784597567991E-2</v>
-      </c>
-      <c r="N34" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.27186198691255203</v>
-      </c>
-      <c r="O34" s="7">
-        <f t="shared" si="22"/>
-        <v>0.22303921568627438</v>
-      </c>
-      <c r="P34" s="7">
-        <f t="shared" si="22"/>
-        <v>5.0100200400801542E-2</v>
-      </c>
-      <c r="Q34" s="7">
-        <f t="shared" si="23"/>
-        <v>-6.9338422391857391E-2</v>
+      <c r="L34" s="19">
+        <f t="shared" ref="L34:Q34" si="14">L32/L35</f>
+        <v>5.5191935752436772</v>
+      </c>
+      <c r="M34" s="19">
+        <f t="shared" si="14"/>
+        <v>5.2892357240183383</v>
+      </c>
+      <c r="N34" s="19">
+        <f t="shared" si="14"/>
+        <v>-1.6559325046833751</v>
+      </c>
+      <c r="O34" s="19">
+        <f t="shared" si="14"/>
+        <v>8.5636817695326446</v>
+      </c>
+      <c r="P34" s="19">
+        <f t="shared" si="14"/>
+        <v>7.9918659409210493</v>
+      </c>
+      <c r="Q34" s="19">
+        <f t="shared" si="14"/>
+        <v>10.4639879256945</v>
       </c>
       <c r="R34" s="19"/>
       <c r="S34" s="19"/>
@@ -3358,2097 +3250,2673 @@
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19">
+        <v>65</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19">
+        <v>62.5</v>
+      </c>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19">
+        <f>52.192+25.881</f>
+        <v>78.073000000000008</v>
+      </c>
+      <c r="M35" s="19">
+        <f>47.777+24.88^1</f>
+        <v>72.656999999999996</v>
+      </c>
+      <c r="N35" s="19">
+        <f>48.25+24.881</f>
+        <v>73.131</v>
+      </c>
+      <c r="O35" s="19">
+        <f>45.194+24.881</f>
+        <v>70.075000000000003</v>
+      </c>
+      <c r="P35" s="19">
+        <f>40.523+24.881</f>
+        <v>65.403999999999996</v>
+      </c>
+      <c r="Q35" s="19">
+        <f>Main!H3</f>
+        <v>61.764215</v>
+      </c>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="7" t="e">
+        <f t="shared" ref="P37:R37" si="15">+P8/O8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="7" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="7">
+        <f>+R8/Q8-1</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="10" t="e">
+        <f>+G12/C12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="10" t="e">
+        <f>+H12/D12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I38" s="10">
+        <f>+I12/E12-1</f>
+        <v>6.9002464373727701E-2</v>
+      </c>
+      <c r="J38" s="10">
+        <f>+J12/F12-1</f>
+        <v>5.541410813239489E-2</v>
+      </c>
+      <c r="K38" s="19"/>
+      <c r="L38" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M38" s="7" t="e">
+        <f>M12/L12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N38" s="7" t="e">
+        <f>N12/M12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O38" s="7" t="e">
+        <f>O12/N12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P38" s="7" t="e">
+        <f>P12/O12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q38" s="7" t="e">
+        <f>Q12/P12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38" s="7">
+        <f>R12/Q12-1</f>
+        <v>4.9767681982447076E-2</v>
+      </c>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="10" t="e">
+        <f>+G13/C13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="10" t="e">
+        <f>+H13/D13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I39" s="10">
+        <f>+I13/E13-1</f>
+        <v>0.1589645254074783</v>
+      </c>
+      <c r="J39" s="10">
+        <f>+J13/F13-1</f>
+        <v>0.11999147485080996</v>
+      </c>
+      <c r="K39" s="19"/>
+      <c r="L39" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M39" s="7" t="e">
+        <f>M13/L13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N39" s="7" t="e">
+        <f>N13/M13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O39" s="7" t="e">
+        <f>O13/N13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P39" s="7" t="e">
+        <f>P13/O13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q39" s="7" t="e">
+        <f>Q13/P13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R39" s="7">
+        <f>R13/Q13-1</f>
+        <v>0.1051321138211383</v>
+      </c>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="10" t="e">
+        <f>+G14/C14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="10" t="e">
+        <f>+H14/D14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" s="10">
+        <f>+I14/E14-1</f>
+        <v>0.13508064516129026</v>
+      </c>
+      <c r="J40" s="10">
+        <f>+J14/F14-1</f>
+        <v>9.4598021810804012E-2</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M40" s="7" t="e">
+        <f>M14/L14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" s="7" t="e">
+        <f>N14/M14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" s="7" t="e">
+        <f>O14/N14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P40" s="7" t="e">
+        <f>P14/O14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q40" s="7" t="e">
+        <f>Q14/P14-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R40" s="7">
+        <f>R14/Q14-1</f>
+        <v>9.1152815013404886E-2</v>
+      </c>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>293</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G41" s="10" t="e">
+        <f>+G15/C15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="10" t="e">
+        <f>+H15/D15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" s="10">
+        <f>+I15/E15-1</f>
+        <v>5.7926829268292845E-2</v>
+      </c>
+      <c r="J41" s="10">
+        <f>+J15/F15-1</f>
+        <v>-3.2697547683923744E-2</v>
+      </c>
+      <c r="K41" s="19"/>
+      <c r="L41" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M41" s="7" t="e">
+        <f>M15/L15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="7" t="e">
+        <f>N15/M15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" s="7" t="e">
+        <f>O15/N15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P41" s="7" t="e">
+        <f>P15/O15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q41" s="7" t="e">
+        <f>Q15/P15-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" s="7">
+        <f>R15/Q15-1</f>
+        <v>-1.1619958988380197E-2</v>
+      </c>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G42" s="10" t="e">
+        <f>+G16/C16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="10" t="e">
+        <f>+H16/D16-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I42" s="10">
+        <f>+I16/E16-1</f>
+        <v>0.11724819889814952</v>
+      </c>
+      <c r="J42" s="10">
+        <f>+J16/F16-1</f>
+        <v>0.58689937966565031</v>
+      </c>
+      <c r="K42" s="19"/>
+      <c r="L42" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M42" s="7">
+        <f>M16/L16-1</f>
+        <v>-1.8410801003255761E-3</v>
+      </c>
+      <c r="N42" s="7">
+        <f t="shared" ref="N42:R42" si="16">N16/M16-1</f>
+        <v>-0.25691678473094703</v>
+      </c>
+      <c r="O42" s="7">
+        <f t="shared" si="16"/>
+        <v>0.41790776314842781</v>
+      </c>
+      <c r="P42" s="7">
+        <f t="shared" si="16"/>
+        <v>2.831409361918058E-2</v>
+      </c>
+      <c r="Q42" s="7">
+        <f t="shared" si="16"/>
+        <v>7.3499296834521832E-2</v>
+      </c>
+      <c r="R42" s="7">
+        <f t="shared" si="16"/>
+        <v>9.632268444035863E-2</v>
+      </c>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>284</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" s="10" t="e">
+        <f>+G17/C17-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="10" t="e">
+        <f>+H17/D17-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="10">
+        <f>+I17/E17-1</f>
+        <v>8.5702513391017865E-2</v>
+      </c>
+      <c r="J43" s="10">
+        <f>+J17/F17-1</f>
+        <v>3.8614032063437387E-2</v>
+      </c>
+      <c r="K43" s="19"/>
+      <c r="L43" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M43" s="7">
+        <f>M17/L17-1</f>
+        <v>-5.9226750261232919E-2</v>
+      </c>
+      <c r="N43" s="7">
+        <f>N17/M17-1</f>
+        <v>-0.33419228718677818</v>
+      </c>
+      <c r="O43" s="7">
+        <f>O17/N17-1</f>
+        <v>0.41952488989723768</v>
+      </c>
+      <c r="P43" s="7">
+        <f>P17/O17-1</f>
+        <v>4.9828421003149437E-2</v>
+      </c>
+      <c r="Q43" s="7">
+        <f>Q17/P17-1</f>
+        <v>-4.4418573411543538E-2</v>
+      </c>
+      <c r="R43" s="7">
+        <f>R17/Q17-1</f>
+        <v>1.4151164425284746E-2</v>
+      </c>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="10" t="e">
+        <f>+G18/C18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="10" t="e">
+        <f>+H18/D18-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I44" s="10">
+        <f>+I18/E18-1</f>
+        <v>5.7926829268292845E-2</v>
+      </c>
+      <c r="J44" s="10">
+        <f>+J18/F18-1</f>
+        <v>-3.2697547683923744E-2</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="M44" s="7">
+        <f>M18/L18-1</f>
+        <v>-2.6635784597567991E-2</v>
+      </c>
+      <c r="N44" s="7">
+        <f>N18/M18-1</f>
+        <v>-0.27186198691255203</v>
+      </c>
+      <c r="O44" s="7">
+        <f>O18/N18-1</f>
+        <v>0.22303921568627438</v>
+      </c>
+      <c r="P44" s="7">
+        <f>P18/O18-1</f>
+        <v>5.0100200400801542E-2</v>
+      </c>
+      <c r="Q44" s="7">
+        <f>Q18/P18-1</f>
+        <v>-6.9338422391857391E-2</v>
+      </c>
+      <c r="R44" s="7">
+        <f>R18/Q18-1</f>
+        <v>-1.1619958988380197E-2</v>
+      </c>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C45" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D45" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E45" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F45" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="G35" s="10" t="e">
-        <f t="shared" si="19"/>
+      <c r="G45" s="27" t="e">
+        <f>+G19/C19-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="10" t="e">
-        <f t="shared" si="19"/>
+      <c r="H45" s="27" t="e">
+        <f>+H19/D19-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I45" s="27">
+        <f>+I19/E19-1</f>
+        <v>0.1083247156153051</v>
+      </c>
+      <c r="J45" s="27">
+        <f>+J19/F19-1</f>
+        <v>8.2530773646278366E-2</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="M45" s="28">
+        <f>M19/L19-1</f>
+        <v>-2.4267384761603061E-2</v>
+      </c>
+      <c r="N45" s="28">
+        <f>N19/M19-1</f>
+        <v>-0.28556121952011426</v>
+      </c>
+      <c r="O45" s="28">
+        <f>O19/N19-1</f>
+        <v>0.413038538447555</v>
+      </c>
+      <c r="P45" s="28">
+        <f>P19/O19-1</f>
+        <v>3.6198440138297094E-2</v>
+      </c>
+      <c r="Q45" s="28">
+        <f>Q19/P19-1</f>
+        <v>2.9145198336333555E-2</v>
+      </c>
+      <c r="R45" s="28">
+        <f>R19/Q19-1</f>
+        <v>6.7497059444461271E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="7" t="e">
+        <f t="shared" ref="C46:J46" si="17">C21/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D46" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="17"/>
+        <v>0.66494312306101344</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="17"/>
+        <v>0.66566745328145926</v>
+      </c>
+      <c r="G46" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="7" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" si="17"/>
+        <v>0.68397480755773266</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="17"/>
+        <v>0.68656100866081426</v>
+      </c>
+      <c r="L46" s="7">
+        <f t="shared" ref="L46:Q46" si="18">L21/L19</f>
+        <v>0.61555520354823379</v>
+      </c>
+      <c r="M46" s="7">
+        <f t="shared" si="18"/>
+        <v>0.59308743790382801</v>
+      </c>
+      <c r="N46" s="7">
+        <f t="shared" si="18"/>
+        <v>0.65019996364297394</v>
+      </c>
+      <c r="O46" s="7">
+        <f t="shared" si="18"/>
+        <v>0.66696148588887993</v>
+      </c>
+      <c r="P46" s="7">
+        <f t="shared" si="18"/>
+        <v>0.64650195542864242</v>
+      </c>
+      <c r="Q46" s="7">
+        <f t="shared" si="18"/>
+        <v>0.66830533522333135</v>
+      </c>
+      <c r="R46" s="7">
+        <f t="shared" ref="R46" si="19">R21/R19</f>
+        <v>0.68553468003955353</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="7" t="e">
+        <f t="shared" ref="C47:J47" si="20">C26/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D47" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="20"/>
+        <v>0.16427094105480866</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="20"/>
+        <v>6.8754384845972363E-2</v>
+      </c>
+      <c r="G47" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="7" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="20"/>
+        <v>0.18180545836249118</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="20"/>
+        <v>9.1321510634537209E-2</v>
+      </c>
+      <c r="L47" s="7">
+        <f t="shared" ref="L47:Q47" si="21">L26/L19</f>
+        <v>8.8990971012197009E-2</v>
+      </c>
+      <c r="M47" s="7">
         <f t="shared" si="21"/>
-        <v>0.1083247156153051</v>
-      </c>
-      <c r="J35" s="10" t="e">
+        <v>5.1462709828241249E-2</v>
+      </c>
+      <c r="N47" s="7">
         <f t="shared" si="21"/>
+        <v>-9.9072895837120315E-3</v>
+      </c>
+      <c r="O47" s="7">
+        <f t="shared" si="21"/>
+        <v>0.12839109109913968</v>
+      </c>
+      <c r="P47" s="7">
+        <f t="shared" si="21"/>
+        <v>0.10928673412378177</v>
+      </c>
+      <c r="Q47" s="7">
+        <f t="shared" si="21"/>
+        <v>0.11406339536146201</v>
+      </c>
+      <c r="R47" s="7">
+        <f t="shared" ref="R47" si="22">R26/R19</f>
+        <v>0.13167113999152416</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="7" t="e">
+        <f t="shared" ref="C48:J48" si="23">C32/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L35" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M35" s="7">
-        <f>M10/L10-1</f>
-        <v>-2.4267384761603061E-2</v>
-      </c>
-      <c r="N35" s="7">
-        <f t="shared" si="22"/>
-        <v>-0.28556121952011426</v>
-      </c>
-      <c r="O35" s="7">
-        <f t="shared" si="22"/>
-        <v>0.413038538447555</v>
-      </c>
-      <c r="P35" s="7">
-        <f t="shared" si="22"/>
-        <v>3.6198440138297094E-2</v>
-      </c>
-      <c r="Q35" s="7">
-        <f>Q10/P10-1</f>
-        <v>2.9145198336333555E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="7" t="e">
-        <f t="shared" ref="C36:J36" si="24">C12/C10</f>
+      <c r="D48" s="7" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D36" s="7" t="e">
+      <c r="E48" s="7">
+        <f t="shared" si="23"/>
+        <v>0.1430196483971044</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="23"/>
+        <v>5.7848077045730001E-2</v>
+      </c>
+      <c r="G48" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" s="7" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I48" s="7">
+        <f t="shared" si="23"/>
+        <v>0.13874504315372047</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="23"/>
+        <v>7.6003063689389028E-2</v>
+      </c>
+      <c r="L48" s="7">
+        <f t="shared" ref="L48:Q48" si="24">L32/L19</f>
+        <v>6.8255979724378205E-2</v>
+      </c>
+      <c r="M48" s="7">
         <f t="shared" si="24"/>
+        <v>6.2388389233416733E-2</v>
+      </c>
+      <c r="N48" s="7">
+        <f t="shared" si="24"/>
+        <v>-2.7517724050172675E-2</v>
+      </c>
+      <c r="O48" s="7">
+        <f t="shared" si="24"/>
+        <v>9.6502371954651459E-2</v>
+      </c>
+      <c r="P48" s="7">
+        <f t="shared" si="24"/>
+        <v>8.1119250108634966E-2</v>
+      </c>
+      <c r="Q48" s="7">
+        <f t="shared" si="24"/>
+        <v>9.7460566396235973E-2</v>
+      </c>
+      <c r="R48" s="7">
+        <f t="shared" ref="R48" si="25">R32/R19</f>
+        <v>0.10494420115835562</v>
+      </c>
+      <c r="U48" s="17"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="7" t="e">
+        <f t="shared" ref="C49:J49" si="26">C31/C32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E36" s="7">
-        <f t="shared" si="24"/>
-        <v>0.66494312306101344</v>
-      </c>
-      <c r="F36" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H36" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I36" s="7">
-        <f t="shared" si="24"/>
-        <v>0.68397480755773266</v>
-      </c>
-      <c r="J36" s="7" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L36" s="7">
-        <f t="shared" ref="L36:Q36" si="25">L12/L10</f>
-        <v>0.61555520354823379</v>
-      </c>
-      <c r="M36" s="7">
-        <f t="shared" si="25"/>
-        <v>0.59308743790382801</v>
-      </c>
-      <c r="N36" s="7">
-        <f t="shared" si="25"/>
-        <v>0.65019996364297394</v>
-      </c>
-      <c r="O36" s="7">
-        <f t="shared" si="25"/>
-        <v>0.66696148588887993</v>
-      </c>
-      <c r="P36" s="7">
-        <f t="shared" si="25"/>
-        <v>0.64650195542864242</v>
-      </c>
-      <c r="Q36" s="7">
-        <f t="shared" si="25"/>
-        <v>0.66830533522333135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="7" t="e">
-        <f t="shared" ref="C37:J37" si="26">C17/C10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D37" s="7" t="e">
+      <c r="D49" s="7" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E49" s="7">
         <f t="shared" si="26"/>
-        <v>0.16427094105480866</v>
-      </c>
-      <c r="F37" s="7" t="e">
+        <v>0.19233550253073037</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="26"/>
+        <v>0.22932745314222694</v>
+      </c>
+      <c r="G49" s="7" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="7" t="e">
+      <c r="H49" s="7" t="e">
         <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="7" t="e">
+      <c r="I49" s="7">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I37" s="7">
+        <v>0.29018157363819791</v>
+      </c>
+      <c r="J49" s="7">
         <f t="shared" si="26"/>
-        <v>0.18180545836249118</v>
-      </c>
-      <c r="J37" s="7" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L37" s="7">
-        <f t="shared" ref="L37:Q37" si="27">L17/L10</f>
-        <v>8.8990971012197009E-2</v>
-      </c>
-      <c r="M37" s="7">
+        <v>0.25813953488372093</v>
+      </c>
+      <c r="L49" s="7">
+        <f t="shared" ref="L49:Q49" si="27">L31/L32</f>
+        <v>0.35182176839173851</v>
+      </c>
+      <c r="M49" s="7">
         <f t="shared" si="27"/>
-        <v>5.1462709828241249E-2</v>
-      </c>
-      <c r="N37" s="7">
+        <v>-0.15066354410616689</v>
+      </c>
+      <c r="N49" s="7">
         <f t="shared" si="27"/>
-        <v>-9.9072895837120315E-3</v>
-      </c>
-      <c r="O37" s="7">
+        <v>-0.38232865400495486</v>
+      </c>
+      <c r="O49" s="7">
         <f t="shared" si="27"/>
-        <v>0.12839109109913968</v>
-      </c>
-      <c r="P37" s="7">
+        <v>0.2574570904849191</v>
+      </c>
+      <c r="P49" s="7">
         <f t="shared" si="27"/>
-        <v>0.10928673412378177</v>
-      </c>
-      <c r="Q37" s="7">
+        <v>0.32370384541802161</v>
+      </c>
+      <c r="Q49" s="7">
         <f t="shared" si="27"/>
-        <v>0.11406339536146201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="7" t="e">
-        <f t="shared" ref="C38:J38" si="28">C23/C10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D38" s="7" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E38" s="7">
-        <f t="shared" si="28"/>
-        <v>0.1430196483971044</v>
-      </c>
-      <c r="F38" s="7" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="7" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H38" s="7" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I38" s="7">
-        <f t="shared" si="28"/>
-        <v>0.13874504315372047</v>
-      </c>
-      <c r="J38" s="7" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L38" s="7">
-        <f t="shared" ref="L38:Q38" si="29">L23/L10</f>
-        <v>6.8255979724378205E-2</v>
-      </c>
-      <c r="M38" s="7">
+        <v>0.20284697508896823</v>
+      </c>
+      <c r="R49" s="7">
+        <f t="shared" ref="R49" si="28">R31/R32</f>
+        <v>0.27971463184816286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="L54" s="3">
+        <v>584.1</v>
+      </c>
+      <c r="M54" s="3">
+        <v>1620.4</v>
+      </c>
+      <c r="N54" s="3">
+        <v>2579</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1863.8</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1529.3</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1662.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="L55" s="3">
+        <v>1403.4</v>
+      </c>
+      <c r="M55" s="3">
+        <v>495.9</v>
+      </c>
+      <c r="N55" s="3">
+        <v>197.5</v>
+      </c>
+      <c r="O55" s="3">
+        <v>734.6</v>
+      </c>
+      <c r="P55" s="3">
+        <v>36.4</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>98</v>
+      </c>
+      <c r="L56" s="3">
+        <v>398.1</v>
+      </c>
+      <c r="M56" s="3">
+        <v>277.10000000000002</v>
+      </c>
+      <c r="N56" s="3">
+        <v>451.5</v>
+      </c>
+      <c r="O56" s="3">
+        <v>405.4</v>
+      </c>
+      <c r="P56" s="3">
+        <v>447.7</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>446.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="L57" s="3">
+        <v>817.8</v>
+      </c>
+      <c r="M57" s="3">
+        <v>736.2</v>
+      </c>
+      <c r="N57" s="3">
+        <v>759</v>
+      </c>
+      <c r="O57" s="3">
+        <v>977.3</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1071.3</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>902.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>32.1</v>
+      </c>
+      <c r="M58" s="3">
+        <v>84.8</v>
+      </c>
+      <c r="N58" s="3">
+        <v>54.4</v>
+      </c>
+      <c r="O58" s="3">
+        <v>63.7</v>
+      </c>
+      <c r="P58" s="3">
+        <v>50.7</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+      <c r="L59" s="3">
+        <v>359.3</v>
+      </c>
+      <c r="M59" s="3">
+        <v>160.80000000000001</v>
+      </c>
+      <c r="N59" s="3">
+        <v>166.6</v>
+      </c>
+      <c r="O59" s="3">
+        <v>172.5</v>
+      </c>
+      <c r="P59" s="3">
+        <v>188.7</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L60" s="8">
+        <f t="shared" ref="L60:P60" si="29">SUM(L54:L59)</f>
+        <v>3594.7999999999997</v>
+      </c>
+      <c r="M60" s="8">
         <f t="shared" si="29"/>
-        <v>6.2388389233416733E-2</v>
-      </c>
-      <c r="N38" s="7">
+        <v>3375.2000000000007</v>
+      </c>
+      <c r="N60" s="8">
         <f t="shared" si="29"/>
-        <v>-2.7517724050172675E-2</v>
-      </c>
-      <c r="O38" s="7">
+        <v>4208</v>
+      </c>
+      <c r="O60" s="8">
         <f t="shared" si="29"/>
-        <v>9.6502371954651459E-2</v>
-      </c>
-      <c r="P38" s="7">
+        <v>4217.3</v>
+      </c>
+      <c r="P60" s="8">
         <f t="shared" si="29"/>
-        <v>8.1119250108634966E-2</v>
-      </c>
-      <c r="Q38" s="7">
-        <f t="shared" si="29"/>
-        <v>9.7460566396235973E-2</v>
-      </c>
-      <c r="U38" s="17"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="7" t="e">
-        <f t="shared" ref="C39:J39" si="30">C22/C23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D39" s="7" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" s="7">
-        <f t="shared" si="30"/>
-        <v>0.19233550253073037</v>
-      </c>
-      <c r="F39" s="7" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="7" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H39" s="7" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I39" s="7">
-        <f t="shared" si="30"/>
-        <v>0.29018157363819791</v>
-      </c>
-      <c r="J39" s="7" t="e">
-        <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L39" s="7">
-        <f t="shared" ref="L39:Q39" si="31">L22/L23</f>
-        <v>0.35182176839173851</v>
-      </c>
-      <c r="M39" s="7">
-        <f t="shared" si="31"/>
-        <v>-0.15066354410616689</v>
-      </c>
-      <c r="N39" s="7">
-        <f t="shared" si="31"/>
-        <v>-0.38232865400495486</v>
-      </c>
-      <c r="O39" s="7">
-        <f t="shared" si="31"/>
-        <v>0.2574570904849191</v>
-      </c>
-      <c r="P39" s="7">
-        <f t="shared" si="31"/>
-        <v>0.32370384541802161</v>
-      </c>
-      <c r="Q39" s="7">
-        <f t="shared" si="31"/>
-        <v>0.20284697508896823</v>
-      </c>
-      <c r="R39" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>96</v>
-      </c>
-      <c r="L44" s="3">
-        <v>584.1</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1620.4</v>
-      </c>
-      <c r="N44" s="3">
-        <v>2579</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1863.8</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1529.3</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1662.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1403.4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>495.9</v>
-      </c>
-      <c r="N45" s="3">
-        <v>197.5</v>
-      </c>
-      <c r="O45" s="3">
-        <v>734.6</v>
-      </c>
-      <c r="P45" s="3">
-        <v>36.4</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="L46" s="3">
-        <v>398.1</v>
-      </c>
-      <c r="M46" s="3">
-        <v>277.10000000000002</v>
-      </c>
-      <c r="N46" s="3">
-        <v>451.5</v>
-      </c>
-      <c r="O46" s="3">
-        <v>405.4</v>
-      </c>
-      <c r="P46" s="3">
-        <v>447.7</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>446.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>99</v>
-      </c>
-      <c r="L47" s="3">
-        <v>817.8</v>
-      </c>
-      <c r="M47" s="3">
-        <v>736.2</v>
-      </c>
-      <c r="N47" s="3">
-        <v>759</v>
-      </c>
-      <c r="O47" s="3">
-        <v>977.3</v>
-      </c>
-      <c r="P47" s="3">
-        <v>1071.3</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>902.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>32.1</v>
-      </c>
-      <c r="M48" s="3">
-        <v>84.8</v>
-      </c>
-      <c r="N48" s="3">
-        <v>54.4</v>
-      </c>
-      <c r="O48" s="3">
-        <v>63.7</v>
-      </c>
-      <c r="P48" s="3">
-        <v>50.7</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="L49" s="3">
-        <v>359.3</v>
-      </c>
-      <c r="M49" s="3">
-        <v>160.80000000000001</v>
-      </c>
-      <c r="N49" s="3">
-        <v>166.6</v>
-      </c>
-      <c r="O49" s="3">
-        <v>172.5</v>
-      </c>
-      <c r="P49" s="3">
-        <v>188.7</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>171.9</v>
-      </c>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L50" s="8">
-        <f t="shared" ref="L50:P50" si="32">SUM(L44:L49)</f>
-        <v>3594.7999999999997</v>
-      </c>
-      <c r="M50" s="8">
-        <f t="shared" si="32"/>
-        <v>3375.2000000000007</v>
-      </c>
-      <c r="N50" s="8">
-        <f t="shared" si="32"/>
-        <v>4208</v>
-      </c>
-      <c r="O50" s="8">
-        <f t="shared" si="32"/>
-        <v>4217.3</v>
-      </c>
-      <c r="P50" s="8">
-        <f t="shared" si="32"/>
         <v>3324.0999999999995</v>
       </c>
-      <c r="Q50" s="8">
-        <f>SUM(Q44:Q49)</f>
+      <c r="Q60" s="8">
+        <f>SUM(Q54:Q59)</f>
         <v>3359.7999999999997</v>
       </c>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>103</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L61" s="3">
         <v>1039.2</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M61" s="3">
         <v>979.5</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N61" s="3">
         <v>1014</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O61" s="3">
         <v>969.5</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P61" s="3">
         <v>955.5</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="Q61" s="3">
         <v>850.4</v>
       </c>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>104</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M62" s="3">
         <v>1511.6</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N62" s="3">
         <v>1239.5</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O62" s="3">
         <v>1111.3</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P62" s="3">
         <v>1134</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q62" s="3">
         <v>1014.6</v>
       </c>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>105</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L63" s="3">
         <v>67</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M63" s="3">
         <v>245.2</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N63" s="3">
         <v>283.89999999999998</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O63" s="3">
         <v>303.8</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P63" s="3">
         <v>255.1</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="Q63" s="3">
         <v>288.3</v>
       </c>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>106</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L64" s="3">
         <v>919.6</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M64" s="3">
         <v>915.5</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N64" s="3">
         <v>934.6</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O64" s="3">
         <v>908.7</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P64" s="3">
         <v>898.9</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q64" s="3">
         <v>888.1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>107</v>
-      </c>
-      <c r="L55" s="3">
-        <v>163.69999999999999</v>
-      </c>
-      <c r="M55" s="3">
-        <v>141</v>
-      </c>
-      <c r="N55" s="3">
-        <v>121.1</v>
-      </c>
-      <c r="O55" s="3">
-        <v>102.9</v>
-      </c>
-      <c r="P55" s="3">
-        <v>88.9</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>75.7</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>108</v>
-      </c>
-      <c r="L56" s="3">
-        <v>158.5</v>
-      </c>
-      <c r="M56" s="3">
-        <v>111.9</v>
-      </c>
-      <c r="N56" s="3">
-        <v>86.4</v>
-      </c>
-      <c r="O56" s="3">
-        <v>111.2</v>
-      </c>
-      <c r="P56" s="3">
-        <v>133</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>125.7</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L57" s="8">
-        <f t="shared" ref="L57:P57" si="33">SUM(L51:L56)</f>
-        <v>2348</v>
-      </c>
-      <c r="M57" s="8">
-        <f t="shared" si="33"/>
-        <v>3904.7</v>
-      </c>
-      <c r="N57" s="8">
-        <f t="shared" si="33"/>
-        <v>3679.5</v>
-      </c>
-      <c r="O57" s="8">
-        <f t="shared" si="33"/>
-        <v>3507.4</v>
-      </c>
-      <c r="P57" s="8">
-        <f t="shared" si="33"/>
-        <v>3465.4</v>
-      </c>
-      <c r="Q57" s="8">
-        <f>SUM(Q51:Q56)</f>
-        <v>3242.7999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L59" s="8">
-        <f t="shared" ref="L59:P59" si="34">L50+L57</f>
-        <v>5942.7999999999993</v>
-      </c>
-      <c r="M59" s="8">
-        <f t="shared" si="34"/>
-        <v>7279.9000000000005</v>
-      </c>
-      <c r="N59" s="8">
-        <f t="shared" si="34"/>
-        <v>7887.5</v>
-      </c>
-      <c r="O59" s="8">
-        <f t="shared" si="34"/>
-        <v>7724.7000000000007</v>
-      </c>
-      <c r="P59" s="8">
-        <f t="shared" si="34"/>
-        <v>6789.5</v>
-      </c>
-      <c r="Q59" s="8">
-        <f>Q50+Q57</f>
-        <v>6602.5999999999995</v>
-      </c>
-    </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>111</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>774.6</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>499.8</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>112</v>
-      </c>
-      <c r="L62" s="3">
-        <v>202.3</v>
-      </c>
-      <c r="M62" s="3">
-        <v>246.8</v>
-      </c>
-      <c r="N62" s="3">
-        <v>355.9</v>
-      </c>
-      <c r="O62" s="3">
-        <v>448.7</v>
-      </c>
-      <c r="P62" s="3">
-        <v>371.6</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>332.2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>113</v>
-      </c>
-      <c r="L63" s="3">
-        <v>29.4</v>
-      </c>
-      <c r="M63" s="3">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="N63" s="3">
-        <v>50.6</v>
-      </c>
-      <c r="O63" s="3">
-        <v>53.8</v>
-      </c>
-      <c r="P63" s="3">
-        <v>59.7</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>114</v>
-      </c>
-      <c r="L64" s="3">
-        <v>0</v>
-      </c>
-      <c r="M64" s="3">
-        <v>288.39999999999998</v>
-      </c>
-      <c r="N64" s="3">
-        <v>302.89999999999998</v>
-      </c>
-      <c r="O64" s="3">
-        <v>262</v>
-      </c>
-      <c r="P64" s="3">
-        <v>266.7</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>245.5</v>
       </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L65" s="3">
-        <v>968.4</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="M65" s="3">
-        <v>717.1</v>
+        <v>141</v>
       </c>
       <c r="N65" s="3">
-        <v>875.4</v>
+        <v>121.1</v>
       </c>
       <c r="O65" s="3">
-        <v>991.4</v>
+        <v>102.9</v>
       </c>
       <c r="P65" s="3">
-        <v>795.5</v>
+        <v>88.9</v>
       </c>
       <c r="Q65" s="3">
-        <v>809.7</v>
+        <v>75.7</v>
       </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L66" s="8">
-        <f t="shared" ref="L66:M66" si="35">SUM(L61:L65)</f>
-        <v>1200.0999999999999</v>
-      </c>
-      <c r="M66" s="8">
-        <f t="shared" si="35"/>
-        <v>2092</v>
-      </c>
-      <c r="N66" s="8">
-        <f>SUM(N61:N65)</f>
-        <v>1584.8</v>
-      </c>
-      <c r="O66" s="8">
-        <f t="shared" ref="O66:Q66" si="36">SUM(O61:O65)</f>
-        <v>2255.6999999999998</v>
-      </c>
-      <c r="P66" s="8">
-        <f t="shared" si="36"/>
-        <v>1493.5</v>
-      </c>
-      <c r="Q66" s="8">
-        <f t="shared" si="36"/>
-        <v>1467.2</v>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="L66" s="3">
+        <v>158.5</v>
+      </c>
+      <c r="M66" s="3">
+        <v>111.9</v>
+      </c>
+      <c r="N66" s="3">
+        <v>86.4</v>
+      </c>
+      <c r="O66" s="3">
+        <v>111.2</v>
+      </c>
+      <c r="P66" s="3">
+        <v>133</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>125.7</v>
       </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>117</v>
-      </c>
-      <c r="L67" s="3">
-        <v>689.1</v>
-      </c>
-      <c r="M67" s="3">
-        <v>396.4</v>
-      </c>
-      <c r="N67" s="3">
-        <v>1632.9</v>
-      </c>
-      <c r="O67" s="3">
-        <v>1136.5</v>
-      </c>
-      <c r="P67" s="3">
-        <v>1138.5</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>1140.5</v>
-      </c>
-      <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>118</v>
-      </c>
-      <c r="L68" s="3">
-        <v>0</v>
-      </c>
-      <c r="M68" s="3">
-        <v>0</v>
-      </c>
-      <c r="N68" s="3">
-        <v>0</v>
-      </c>
-      <c r="O68" s="3">
-        <v>341.6</v>
-      </c>
-      <c r="P68" s="3">
-        <v>315.3</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>256.10000000000002</v>
+      <c r="B67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L67" s="8">
+        <f t="shared" ref="L67:P67" si="30">SUM(L61:L66)</f>
+        <v>2348</v>
+      </c>
+      <c r="M67" s="8">
+        <f t="shared" si="30"/>
+        <v>3904.7</v>
+      </c>
+      <c r="N67" s="8">
+        <f t="shared" si="30"/>
+        <v>3679.5</v>
+      </c>
+      <c r="O67" s="8">
+        <f t="shared" si="30"/>
+        <v>3507.4</v>
+      </c>
+      <c r="P67" s="8">
+        <f t="shared" si="30"/>
+        <v>3465.4</v>
+      </c>
+      <c r="Q67" s="8">
+        <f>SUM(Q61:Q66)</f>
+        <v>3242.7999999999997</v>
       </c>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>119</v>
-      </c>
-      <c r="L69" s="3">
-        <v>0</v>
-      </c>
-      <c r="M69" s="3">
-        <v>1568.3</v>
-      </c>
-      <c r="N69" s="3">
-        <v>1294.5</v>
-      </c>
-      <c r="O69" s="3">
-        <v>1132.2</v>
-      </c>
-      <c r="P69" s="3">
-        <v>1141.0999999999999</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>120</v>
-      </c>
-      <c r="L70" s="3">
-        <v>146.69999999999999</v>
-      </c>
-      <c r="M70" s="3">
-        <v>132.69999999999999</v>
-      </c>
-      <c r="N70" s="3">
-        <v>118.7</v>
-      </c>
-      <c r="O70" s="3">
-        <v>98.9</v>
-      </c>
-      <c r="P70" s="3">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>42.2</v>
+      <c r="B69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L69" s="8">
+        <f t="shared" ref="L69:P69" si="31">L60+L67</f>
+        <v>5942.7999999999993</v>
+      </c>
+      <c r="M69" s="8">
+        <f t="shared" si="31"/>
+        <v>7279.9000000000005</v>
+      </c>
+      <c r="N69" s="8">
+        <f t="shared" si="31"/>
+        <v>7887.5</v>
+      </c>
+      <c r="O69" s="8">
+        <f t="shared" si="31"/>
+        <v>7724.7000000000007</v>
+      </c>
+      <c r="P69" s="8">
+        <f t="shared" si="31"/>
+        <v>6789.5</v>
+      </c>
+      <c r="Q69" s="8">
+        <f>Q60+Q67</f>
+        <v>6602.5999999999995</v>
       </c>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="L71" s="3">
-        <v>78.8</v>
+        <v>0</v>
       </c>
       <c r="M71" s="3">
-        <v>88.9</v>
+        <v>774.6</v>
       </c>
       <c r="N71" s="3">
-        <v>91.4</v>
+        <v>0</v>
       </c>
       <c r="O71" s="3">
-        <v>91.9</v>
+        <v>499.8</v>
       </c>
       <c r="P71" s="3">
-        <v>93.8</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="3">
-        <v>118.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="L72" s="3">
-        <v>540.9</v>
+        <v>202.3</v>
       </c>
       <c r="M72" s="3">
-        <v>308.5</v>
+        <v>246.8</v>
       </c>
       <c r="N72" s="3">
-        <v>560.79999999999995</v>
+        <v>355.9</v>
       </c>
       <c r="O72" s="3">
-        <v>131.9</v>
+        <v>448.7</v>
       </c>
       <c r="P72" s="3">
-        <v>100.9</v>
+        <v>371.6</v>
       </c>
       <c r="Q72" s="3">
-        <v>113.6</v>
+        <v>332.2</v>
       </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L73" s="8">
-        <f t="shared" ref="L73:P73" si="37">SUM(L67:L72)</f>
-        <v>1455.5</v>
-      </c>
-      <c r="M73" s="8">
-        <f t="shared" si="37"/>
-        <v>2494.7999999999997</v>
-      </c>
-      <c r="N73" s="8">
-        <f>SUM(N67:N72)</f>
-        <v>3698.3</v>
-      </c>
-      <c r="O73" s="8">
-        <f t="shared" si="37"/>
-        <v>2933.0000000000005</v>
-      </c>
-      <c r="P73" s="8">
-        <f t="shared" si="37"/>
-        <v>2865.5</v>
-      </c>
-      <c r="Q73" s="8">
-        <f>SUM(Q67:Q72)</f>
-        <v>2685.0999999999995</v>
+      <c r="B73" t="s">
+        <v>113</v>
+      </c>
+      <c r="L73" s="3">
+        <v>29.4</v>
+      </c>
+      <c r="M73" s="3">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="N73" s="3">
+        <v>50.6</v>
+      </c>
+      <c r="O73" s="3">
+        <v>53.8</v>
+      </c>
+      <c r="P73" s="3">
+        <v>59.7</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>114</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>288.39999999999998</v>
+      </c>
+      <c r="N74" s="3">
+        <v>302.89999999999998</v>
+      </c>
+      <c r="O74" s="3">
+        <v>262</v>
+      </c>
+      <c r="P74" s="3">
+        <v>266.7</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>245.5</v>
       </c>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B75" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L75" s="8">
-        <f t="shared" ref="L75:P75" si="38">L66+L73</f>
-        <v>2655.6</v>
-      </c>
-      <c r="M75" s="8">
-        <f t="shared" si="38"/>
-        <v>4586.7999999999993</v>
-      </c>
-      <c r="N75" s="8">
-        <f>N66+N73</f>
-        <v>5283.1</v>
-      </c>
-      <c r="O75" s="8">
-        <f t="shared" si="38"/>
-        <v>5188.7000000000007</v>
-      </c>
-      <c r="P75" s="8">
-        <f t="shared" si="38"/>
-        <v>4359</v>
-      </c>
-      <c r="Q75" s="8">
-        <f>Q66+Q73</f>
-        <v>4152.2999999999993</v>
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+      <c r="L75" s="3">
+        <v>968.4</v>
+      </c>
+      <c r="M75" s="3">
+        <v>717.1</v>
+      </c>
+      <c r="N75" s="3">
+        <v>875.4</v>
+      </c>
+      <c r="O75" s="3">
+        <v>991.4</v>
+      </c>
+      <c r="P75" s="3">
+        <v>795.5</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>809.7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L76" s="8">
+        <f t="shared" ref="L76:M76" si="32">SUM(L71:L75)</f>
+        <v>1200.0999999999999</v>
+      </c>
+      <c r="M76" s="8">
+        <f t="shared" si="32"/>
+        <v>2092</v>
+      </c>
+      <c r="N76" s="8">
+        <f>SUM(N71:N75)</f>
+        <v>1584.8</v>
+      </c>
+      <c r="O76" s="8">
+        <f t="shared" ref="O76:Q76" si="33">SUM(O71:O75)</f>
+        <v>2255.6999999999998</v>
+      </c>
+      <c r="P76" s="8">
+        <f t="shared" si="33"/>
+        <v>1493.5</v>
+      </c>
+      <c r="Q76" s="8">
+        <f t="shared" si="33"/>
+        <v>1467.2</v>
       </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L77" s="3">
-        <v>1</v>
+        <v>689.1</v>
       </c>
       <c r="M77" s="3">
-        <v>1</v>
+        <v>396.4</v>
       </c>
       <c r="N77" s="3">
-        <v>1</v>
+        <v>1632.9</v>
       </c>
       <c r="O77" s="3">
-        <v>1</v>
+        <v>1136.5</v>
       </c>
       <c r="P77" s="3">
-        <v>1</v>
+        <v>1138.5</v>
       </c>
       <c r="Q77" s="3">
-        <v>1.1000000000000001</v>
-      </c>
+        <v>1140.5</v>
+      </c>
+      <c r="S77" s="3"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L78" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M78" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N78" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O78" s="3">
-        <v>0.3</v>
+        <v>341.6</v>
       </c>
       <c r="P78" s="3">
-        <v>0.3</v>
+        <v>315.3</v>
       </c>
       <c r="Q78" s="3">
-        <v>0.2</v>
+        <v>256.10000000000002</v>
       </c>
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L79" s="3">
-        <v>2493.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="M79" s="3">
-        <v>2594.4</v>
+        <v>1568.3</v>
       </c>
       <c r="N79" s="3">
-        <v>2667.1</v>
+        <v>1294.5</v>
       </c>
       <c r="O79" s="3">
-        <v>2748.8</v>
+        <v>1132.2</v>
       </c>
       <c r="P79" s="3">
-        <v>2824.3</v>
+        <v>1141.0999999999999</v>
       </c>
       <c r="Q79" s="3">
-        <v>2923.8</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L80" s="3">
-        <v>5979.1</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="M80" s="3">
-        <v>5994</v>
+        <v>132.69999999999999</v>
       </c>
       <c r="N80" s="3">
-        <v>5872.9</v>
+        <v>118.7</v>
       </c>
       <c r="O80" s="3">
-        <v>6274.9</v>
+        <v>98.9</v>
       </c>
       <c r="P80" s="3">
-        <v>6598.2</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="Q80" s="3">
-        <v>7051.6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L81" s="3">
-        <v>-5083.6000000000004</v>
+        <v>78.8</v>
       </c>
       <c r="M81" s="3">
-        <v>-5778.4</v>
+        <v>88.9</v>
       </c>
       <c r="N81" s="3">
-        <v>-5816.1</v>
+        <v>91.4</v>
       </c>
       <c r="O81" s="3">
-        <v>-6308.7</v>
+        <v>91.9</v>
       </c>
       <c r="P81" s="3">
-        <v>-6797.3</v>
+        <v>93.8</v>
       </c>
       <c r="Q81" s="3">
-        <v>-7250.3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+        <v>118.7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L82" s="3">
-        <v>-103.4</v>
+        <v>540.9</v>
       </c>
       <c r="M82" s="3">
-        <v>-118.2</v>
+        <v>308.5</v>
       </c>
       <c r="N82" s="3">
-        <v>-120.8</v>
+        <v>560.79999999999995</v>
       </c>
       <c r="O82" s="3">
-        <v>-180.3</v>
+        <v>131.9</v>
       </c>
       <c r="P82" s="3">
-        <v>-196</v>
+        <v>100.9</v>
       </c>
       <c r="Q82" s="3">
-        <v>-276.10000000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+        <v>113.6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="L83" s="8">
-        <f t="shared" ref="L83:P83" si="39">SUM(L77:L82)</f>
-        <v>3287.2000000000003</v>
+        <f t="shared" ref="L83:P83" si="34">SUM(L77:L82)</f>
+        <v>1455.5</v>
       </c>
       <c r="M83" s="8">
-        <f t="shared" si="39"/>
-        <v>2693.1000000000013</v>
+        <f t="shared" si="34"/>
+        <v>2494.7999999999997</v>
       </c>
       <c r="N83" s="8">
-        <f t="shared" si="39"/>
-        <v>2604.3999999999987</v>
+        <f>SUM(N77:N82)</f>
+        <v>3698.3</v>
       </c>
       <c r="O83" s="8">
-        <f t="shared" si="39"/>
-        <v>2536</v>
+        <f t="shared" si="34"/>
+        <v>2933.0000000000005</v>
       </c>
       <c r="P83" s="8">
-        <f t="shared" si="39"/>
-        <v>2430.4999999999991</v>
+        <f t="shared" si="34"/>
+        <v>2865.5</v>
       </c>
       <c r="Q83" s="8">
         <f>SUM(Q77:Q82)</f>
+        <v>2685.0999999999995</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L85" s="8">
+        <f t="shared" ref="L85:P85" si="35">L76+L83</f>
+        <v>2655.6</v>
+      </c>
+      <c r="M85" s="8">
+        <f t="shared" si="35"/>
+        <v>4586.7999999999993</v>
+      </c>
+      <c r="N85" s="8">
+        <f>N76+N83</f>
+        <v>5283.1</v>
+      </c>
+      <c r="O85" s="8">
+        <f t="shared" si="35"/>
+        <v>5188.7000000000007</v>
+      </c>
+      <c r="P85" s="8">
+        <f t="shared" si="35"/>
+        <v>4359</v>
+      </c>
+      <c r="Q85" s="8">
+        <f>Q76+Q83</f>
+        <v>4152.2999999999993</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>125</v>
+      </c>
+      <c r="L87" s="3">
+        <v>1</v>
+      </c>
+      <c r="M87" s="3">
+        <v>1</v>
+      </c>
+      <c r="N87" s="3">
+        <v>1</v>
+      </c>
+      <c r="O87" s="3">
+        <v>1</v>
+      </c>
+      <c r="P87" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>126</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>127</v>
+      </c>
+      <c r="L89" s="3">
+        <v>2493.8000000000002</v>
+      </c>
+      <c r="M89" s="3">
+        <v>2594.4</v>
+      </c>
+      <c r="N89" s="3">
+        <v>2667.1</v>
+      </c>
+      <c r="O89" s="3">
+        <v>2748.8</v>
+      </c>
+      <c r="P89" s="3">
+        <v>2824.3</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>2923.8</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>128</v>
+      </c>
+      <c r="L90" s="3">
+        <v>5979.1</v>
+      </c>
+      <c r="M90" s="3">
+        <v>5994</v>
+      </c>
+      <c r="N90" s="3">
+        <v>5872.9</v>
+      </c>
+      <c r="O90" s="3">
+        <v>6274.9</v>
+      </c>
+      <c r="P90" s="3">
+        <v>6598.2</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>7051.6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>129</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-5083.6000000000004</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-5778.4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-5816.1</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-6308.7</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-6797.3</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-7250.3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>130</v>
+      </c>
+      <c r="L92" s="3">
+        <v>-103.4</v>
+      </c>
+      <c r="M92" s="3">
+        <v>-118.2</v>
+      </c>
+      <c r="N92" s="3">
+        <v>-120.8</v>
+      </c>
+      <c r="O92" s="3">
+        <v>-180.3</v>
+      </c>
+      <c r="P92" s="3">
+        <v>-196</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>-276.10000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L93" s="8">
+        <f t="shared" ref="L93:P93" si="36">SUM(L87:L92)</f>
+        <v>3287.2000000000003</v>
+      </c>
+      <c r="M93" s="8">
+        <f t="shared" si="36"/>
+        <v>2693.1000000000013</v>
+      </c>
+      <c r="N93" s="8">
+        <f t="shared" si="36"/>
+        <v>2604.3999999999987</v>
+      </c>
+      <c r="O93" s="8">
+        <f t="shared" si="36"/>
+        <v>2536</v>
+      </c>
+      <c r="P93" s="8">
+        <f t="shared" si="36"/>
+        <v>2430.4999999999991</v>
+      </c>
+      <c r="Q93" s="8">
+        <f>SUM(Q87:Q92)</f>
         <v>2450.3000000000006</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="8">
-        <f t="shared" ref="L85:O85" si="40">L83+L75</f>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="8">
+        <f t="shared" ref="L95:O95" si="37">L93+L85</f>
         <v>5942.8</v>
       </c>
-      <c r="M85" s="8">
-        <f t="shared" si="40"/>
+      <c r="M95" s="8">
+        <f t="shared" si="37"/>
         <v>7279.9000000000005</v>
       </c>
-      <c r="N85" s="8">
-        <f>N83+N75</f>
+      <c r="N95" s="8">
+        <f>N93+N85</f>
         <v>7887.4999999999991</v>
       </c>
-      <c r="O85" s="8">
-        <f t="shared" si="40"/>
+      <c r="O95" s="8">
+        <f t="shared" si="37"/>
         <v>7724.7000000000007</v>
       </c>
-      <c r="P85" s="8">
-        <f>P83+P75</f>
+      <c r="P95" s="8">
+        <f>P93+P85</f>
         <v>6789.4999999999991</v>
       </c>
-      <c r="Q85" s="8">
-        <f>Q83+Q75</f>
+      <c r="Q95" s="8">
+        <f>Q93+Q85</f>
         <v>6602.6</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B98" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>87</v>
       </c>
-      <c r="L90" s="3">
-        <f t="shared" ref="L90:Q90" si="41">L23</f>
+      <c r="L100" s="3">
+        <f t="shared" ref="L100:Q100" si="38">L32</f>
         <v>430.89999999999964</v>
       </c>
-      <c r="M90" s="3">
-        <f t="shared" si="41"/>
+      <c r="M100" s="3">
+        <f t="shared" si="38"/>
         <v>384.30000000000041</v>
       </c>
-      <c r="N90" s="3">
-        <f t="shared" si="41"/>
+      <c r="N100" s="3">
+        <f t="shared" si="38"/>
         <v>-121.09999999999991</v>
       </c>
-      <c r="O90" s="3">
-        <f t="shared" si="41"/>
+      <c r="O100" s="3">
+        <f t="shared" si="38"/>
         <v>600.10000000000014</v>
       </c>
-      <c r="P90" s="3">
-        <f t="shared" si="41"/>
+      <c r="P100" s="3">
+        <f t="shared" si="38"/>
         <v>522.70000000000027</v>
       </c>
-      <c r="Q90" s="3">
-        <f t="shared" si="41"/>
+      <c r="Q100" s="3">
+        <f t="shared" si="38"/>
         <v>646.29999999999916</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>134</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L101" s="3">
         <v>281.3</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M101" s="3">
         <v>269.5</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N101" s="3">
         <v>247.6</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O101" s="3">
         <v>229.7</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P101" s="3">
         <v>220.5</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q101" s="3">
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>135</v>
       </c>
-      <c r="L92" s="3">
+      <c r="L102" s="3">
         <v>8.5</v>
       </c>
-      <c r="M92" s="3">
+      <c r="M102" s="3">
         <v>-168.8</v>
       </c>
-      <c r="N92" s="3">
+      <c r="N102" s="3">
         <v>35.6</v>
       </c>
-      <c r="O92" s="3">
+      <c r="O102" s="3">
         <v>-46.1</v>
       </c>
-      <c r="P92" s="3">
+      <c r="P102" s="3">
         <v>3.9</v>
       </c>
-      <c r="Q92" s="3">
+      <c r="Q102" s="3">
         <v>-41.1</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>136</v>
       </c>
-      <c r="L93" s="3">
+      <c r="L103" s="3">
         <v>11.6</v>
       </c>
-      <c r="M93" s="3">
+      <c r="M103" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3">
+      <c r="N103" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3">
+      <c r="O103" s="3">
         <v>0</v>
       </c>
-      <c r="P93" s="3">
+      <c r="P103" s="3">
         <v>0</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="Q103" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>137</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L104" s="3">
         <v>88.6</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M104" s="3">
         <v>100.6</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N104" s="3">
         <v>72.7</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O104" s="3">
         <v>81.7</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P104" s="3">
         <v>75.5</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q104" s="3">
         <v>99.5</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>78</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L105" s="3">
         <v>25.8</v>
       </c>
-      <c r="M95" s="3">
+      <c r="M105" s="3">
         <v>38.700000000000003</v>
       </c>
-      <c r="N95" s="3">
+      <c r="N105" s="3">
         <v>96</v>
       </c>
-      <c r="O95" s="3">
+      <c r="O105" s="3">
         <v>21.3</v>
       </c>
-      <c r="P95" s="3">
+      <c r="P105" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="Q105" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>138</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L106" s="3">
         <v>0.4</v>
       </c>
-      <c r="M96" s="3">
+      <c r="M106" s="3">
         <v>58.7</v>
       </c>
-      <c r="N96" s="3">
+      <c r="N106" s="3">
         <v>-27.6</v>
       </c>
-      <c r="O96" s="3">
+      <c r="O106" s="3">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="P96" s="3">
+      <c r="P106" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="Q106" s="3">
         <v>7.3</v>
       </c>
     </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
         <v>139</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L107" s="3">
         <v>6.5</v>
       </c>
-      <c r="M97" s="3">
+      <c r="M107" s="3">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="N97" s="3">
+      <c r="N107" s="3">
         <v>1.8</v>
       </c>
-      <c r="O97" s="3">
+      <c r="O107" s="3">
         <v>1</v>
       </c>
-      <c r="P97" s="3">
+      <c r="P107" s="3">
         <v>1</v>
       </c>
-      <c r="Q97" s="3">
+      <c r="Q107" s="3">
         <v>13.7</v>
       </c>
     </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B98" s="9" t="s">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B108" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
         <v>141</v>
       </c>
-      <c r="L99" s="3">
+      <c r="L109" s="3">
         <v>10.1</v>
       </c>
-      <c r="M99" s="3">
+      <c r="M109" s="3">
         <v>57.6</v>
       </c>
-      <c r="N99" s="3">
+      <c r="N109" s="3">
         <v>-143</v>
       </c>
-      <c r="O99" s="3">
+      <c r="O109" s="3">
         <v>32.4</v>
       </c>
-      <c r="P99" s="3">
+      <c r="P109" s="3">
         <v>-52.6</v>
       </c>
-      <c r="Q99" s="3">
+      <c r="Q109" s="3">
         <v>-15.3</v>
       </c>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>142</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L110" s="3">
         <v>-83.6</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M110" s="3">
         <v>72.3</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N110" s="3">
         <v>3.7</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O110" s="3">
         <v>-269.3</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P110" s="3">
         <v>-106.2</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q110" s="3">
         <v>149.1</v>
       </c>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
         <v>143</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L111" s="3">
         <v>-40.5</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M111" s="3">
         <v>58.2</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N111" s="3">
         <v>5.2</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O111" s="3">
         <v>-28.3</v>
       </c>
-      <c r="P101" s="3">
+      <c r="P111" s="3">
         <v>-19.899999999999999</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="Q111" s="3">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="102" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
         <v>144</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L112" s="3">
         <v>-4.7</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M112" s="3">
         <v>-64.3</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N112" s="3">
         <v>296.8</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O112" s="3">
         <v>194.6</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P112" s="3">
         <v>-225</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q112" s="3">
         <v>15.6</v>
       </c>
     </row>
-    <row r="103" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>145</v>
       </c>
-      <c r="L103" s="3">
+      <c r="L113" s="3">
         <v>29.7</v>
       </c>
-      <c r="M103" s="3">
+      <c r="M113" s="3">
         <v>-42.5</v>
       </c>
-      <c r="N103" s="3">
+      <c r="N113" s="3">
         <v>-37.799999999999997</v>
       </c>
-      <c r="O103" s="3">
+      <c r="O113" s="3">
         <v>-62.3</v>
       </c>
-      <c r="P103" s="3">
+      <c r="P113" s="3">
         <v>5.7</v>
       </c>
-      <c r="Q103" s="3">
+      <c r="Q113" s="3">
         <v>-18.5</v>
       </c>
     </row>
-    <row r="104" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>146</v>
       </c>
-      <c r="L104" s="3">
+      <c r="L114" s="3">
         <v>-16.5</v>
       </c>
-      <c r="M104" s="3">
+      <c r="M114" s="3">
         <v>0</v>
       </c>
-      <c r="N104" s="3">
+      <c r="N114" s="3">
         <v>-3.2</v>
       </c>
-      <c r="O104" s="3">
+      <c r="O114" s="3">
         <v>-61.6</v>
       </c>
-      <c r="P104" s="3">
+      <c r="P114" s="3">
         <v>-17.5</v>
       </c>
-      <c r="Q104" s="3">
+      <c r="Q114" s="3">
         <v>-36.299999999999997</v>
       </c>
     </row>
-    <row r="105" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>147</v>
       </c>
-      <c r="L105" s="3">
+      <c r="L115" s="3">
         <v>35.700000000000003</v>
       </c>
-      <c r="M105" s="3">
+      <c r="M115" s="3">
         <v>-7.4</v>
       </c>
-      <c r="N105" s="3">
+      <c r="N115" s="3">
         <v>-45.8</v>
       </c>
-      <c r="O105" s="3">
+      <c r="O115" s="3">
         <v>24.9</v>
       </c>
-      <c r="P105" s="3">
+      <c r="P115" s="3">
         <v>-9.1</v>
       </c>
-      <c r="Q105" s="3">
+      <c r="Q115" s="3">
         <v>4.3</v>
       </c>
     </row>
-    <row r="106" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B106" s="2" t="s">
+    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L106" s="8">
-        <f t="shared" ref="L106:P106" si="42">L90+SUM(L91:L97)+SUM(L99:L105)</f>
+      <c r="L116" s="8">
+        <f t="shared" ref="L116:P116" si="39">L100+SUM(L101:L107)+SUM(L109:L115)</f>
         <v>783.79999999999973</v>
       </c>
-      <c r="M106" s="8">
-        <f>M90+SUM(M91:M97)+SUM(M99:M105)</f>
+      <c r="M116" s="8">
+        <f>M100+SUM(M101:M107)+SUM(M109:M115)</f>
         <v>754.60000000000036</v>
       </c>
-      <c r="N106" s="8">
-        <f t="shared" si="42"/>
+      <c r="N116" s="8">
+        <f t="shared" si="39"/>
         <v>380.90000000000003</v>
       </c>
-      <c r="O106" s="8">
-        <f t="shared" si="42"/>
+      <c r="O116" s="8">
+        <f t="shared" si="39"/>
         <v>715.90000000000032</v>
       </c>
-      <c r="P106" s="8">
-        <f t="shared" si="42"/>
+      <c r="P116" s="8">
+        <f t="shared" si="39"/>
         <v>411.00000000000017</v>
       </c>
-      <c r="Q106" s="8">
-        <f>Q90+SUM(Q91:Q97)+SUM(Q99:Q105)</f>
+      <c r="Q116" s="8">
+        <f>Q100+SUM(Q101:Q107)+SUM(Q109:Q115)</f>
         <v>1069.6999999999991</v>
       </c>
     </row>
-    <row r="107" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>149</v>
       </c>
-      <c r="L107" s="3">
+      <c r="L117" s="3">
         <v>-197.7</v>
       </c>
-      <c r="M107" s="3">
+      <c r="M117" s="3">
         <v>-270.3</v>
       </c>
-      <c r="N107" s="3">
+      <c r="N117" s="3">
         <v>-107.8</v>
       </c>
-      <c r="O107" s="3">
+      <c r="O117" s="3">
         <v>-166.9</v>
       </c>
-      <c r="P107" s="3">
+      <c r="P117" s="3">
         <v>-217.5</v>
       </c>
-      <c r="Q107" s="3">
+      <c r="Q117" s="3">
         <v>-164.8</v>
       </c>
     </row>
-    <row r="108" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>150</v>
       </c>
-      <c r="L108" s="3">
+      <c r="L118" s="3">
         <v>-3030.8</v>
       </c>
-      <c r="M108" s="3">
+      <c r="M118" s="3">
         <v>-1289.7</v>
       </c>
-      <c r="N108" s="3">
+      <c r="N118" s="3">
         <v>-704.6</v>
       </c>
-      <c r="O108" s="3">
+      <c r="O118" s="3">
         <v>-1510.6</v>
       </c>
-      <c r="P108" s="3">
+      <c r="P118" s="3">
         <v>-598.6</v>
       </c>
-      <c r="Q108" s="3">
+      <c r="Q118" s="3">
         <v>-392.8</v>
       </c>
     </row>
-    <row r="109" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>151</v>
       </c>
-      <c r="L109" s="3">
+      <c r="L119" s="3">
         <v>2357.5</v>
       </c>
-      <c r="M109" s="3">
+      <c r="M119" s="3">
         <v>2240.4</v>
       </c>
-      <c r="N109" s="3">
+      <c r="N119" s="3">
         <v>1007.2</v>
       </c>
-      <c r="O109" s="3">
+      <c r="O119" s="3">
         <v>964.6</v>
       </c>
-      <c r="P109" s="3">
+      <c r="P119" s="3">
         <v>1293.4000000000001</v>
       </c>
-      <c r="Q109" s="3">
+      <c r="Q119" s="3">
         <v>304.3</v>
       </c>
     </row>
-    <row r="110" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>152</v>
       </c>
-      <c r="L110" s="3">
+      <c r="L120" s="3">
         <v>20</v>
       </c>
-      <c r="M110" s="3">
+      <c r="M120" s="3">
         <v>20.8</v>
       </c>
-      <c r="N110" s="3">
+      <c r="N120" s="3">
         <v>0</v>
       </c>
-      <c r="O110" s="3">
+      <c r="O120" s="3">
         <v>0</v>
       </c>
-      <c r="P110" s="3">
+      <c r="P120" s="3">
         <v>0</v>
       </c>
-      <c r="Q110" s="3">
+      <c r="Q120" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
         <v>153</v>
       </c>
-      <c r="L111" s="3">
+      <c r="L121" s="3">
         <f>-23.8-4.5</f>
         <v>-28.3</v>
       </c>
-      <c r="M111" s="3">
+      <c r="M121" s="3">
         <v>0.9</v>
       </c>
-      <c r="N111" s="3">
+      <c r="N121" s="3">
         <v>0.2</v>
       </c>
-      <c r="O111" s="3">
+      <c r="O121" s="3">
         <v>-5</v>
       </c>
-      <c r="P111" s="3">
+      <c r="P121" s="3">
         <v>-5.8</v>
       </c>
-      <c r="Q111" s="3">
+      <c r="Q121" s="3">
         <v>-3.5</v>
       </c>
     </row>
-    <row r="112" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="L112" s="8">
-        <f t="shared" ref="L112:P112" si="43">SUM(L107:L111)</f>
+      <c r="L122" s="8">
+        <f t="shared" ref="L122:P122" si="40">SUM(L117:L121)</f>
         <v>-879.3</v>
       </c>
-      <c r="M112" s="8">
-        <f t="shared" si="43"/>
+      <c r="M122" s="8">
+        <f t="shared" si="40"/>
         <v>702.1</v>
       </c>
-      <c r="N112" s="8">
-        <f t="shared" si="43"/>
+      <c r="N122" s="8">
+        <f t="shared" si="40"/>
         <v>195.00000000000006</v>
       </c>
-      <c r="O112" s="8">
-        <f t="shared" si="43"/>
+      <c r="O122" s="8">
+        <f t="shared" si="40"/>
         <v>-717.9</v>
       </c>
-      <c r="P112" s="8">
-        <f t="shared" si="43"/>
+      <c r="P122" s="8">
+        <f t="shared" si="40"/>
         <v>471.50000000000006</v>
       </c>
-      <c r="Q112" s="8">
-        <f>SUM(Q107:Q111)</f>
+      <c r="Q122" s="8">
+        <f>SUM(Q117:Q121)</f>
         <v>-256.8</v>
       </c>
     </row>
-    <row r="113" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
         <v>155</v>
       </c>
-      <c r="L113" s="3">
+      <c r="L123" s="3">
         <v>0</v>
       </c>
-      <c r="M113" s="3">
+      <c r="M123" s="3">
         <v>475</v>
       </c>
-      <c r="N113" s="3">
+      <c r="N123" s="3">
         <v>0</v>
       </c>
-      <c r="O113" s="3">
+      <c r="O123" s="3">
         <v>0</v>
       </c>
-      <c r="P113" s="3">
+      <c r="P123" s="3">
         <v>0</v>
       </c>
-      <c r="Q113" s="3">
+      <c r="Q123" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>156</v>
       </c>
-      <c r="L114" s="3">
+      <c r="L124" s="3">
         <v>-9.9</v>
       </c>
-      <c r="M114" s="3">
+      <c r="M124" s="3">
         <v>0</v>
       </c>
-      <c r="N114" s="3">
+      <c r="N124" s="3">
         <v>-475</v>
       </c>
-      <c r="O114" s="3">
+      <c r="O124" s="3">
         <v>0</v>
       </c>
-      <c r="P114" s="3">
+      <c r="P124" s="3">
         <v>0</v>
       </c>
-      <c r="Q114" s="3">
+      <c r="Q124" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
         <v>157</v>
       </c>
-      <c r="L115" s="3">
+      <c r="L125" s="3">
         <v>398.1</v>
       </c>
-      <c r="M115" s="3">
+      <c r="M125" s="3">
         <v>0</v>
       </c>
-      <c r="N115" s="3">
+      <c r="N125" s="3">
         <v>1241.9000000000001</v>
       </c>
-      <c r="O115" s="3">
+      <c r="O125" s="3">
         <v>0</v>
       </c>
-      <c r="P115" s="3">
+      <c r="P125" s="3">
         <v>0</v>
       </c>
-      <c r="Q115" s="3">
+      <c r="Q125" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="126" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
         <v>158</v>
       </c>
-      <c r="L116" s="3">
+      <c r="L126" s="3">
         <v>-300</v>
       </c>
-      <c r="M116" s="3">
+      <c r="M126" s="3">
         <v>0</v>
       </c>
-      <c r="N116" s="3">
+      <c r="N126" s="3">
         <v>-300</v>
       </c>
-      <c r="O116" s="3">
+      <c r="O126" s="3">
         <v>0</v>
       </c>
-      <c r="P116" s="3">
+      <c r="P126" s="3">
         <v>-500</v>
       </c>
-      <c r="Q116" s="3">
+      <c r="Q126" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="127" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
         <v>159</v>
       </c>
-      <c r="L117" s="3">
+      <c r="L127" s="3">
         <v>-19.600000000000001</v>
       </c>
-      <c r="M117" s="3">
+      <c r="M127" s="3">
         <v>-13.6</v>
       </c>
-      <c r="N117" s="3">
+      <c r="N127" s="3">
         <v>-13.9</v>
       </c>
-      <c r="O117" s="3">
+      <c r="O127" s="3">
         <v>-23.1</v>
       </c>
-      <c r="P117" s="3">
+      <c r="P127" s="3">
         <v>-21.9</v>
       </c>
-      <c r="Q117" s="3">
+      <c r="Q127" s="3">
         <v>-21.3</v>
       </c>
     </row>
-    <row r="118" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+    <row r="128" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
         <v>160</v>
       </c>
-      <c r="L118" s="3">
+      <c r="L128" s="3">
         <v>-190.7</v>
       </c>
-      <c r="M118" s="3">
+      <c r="M128" s="3">
         <v>-203.9</v>
       </c>
-      <c r="N118" s="3">
+      <c r="N128" s="3">
         <v>-49.8</v>
       </c>
-      <c r="O118" s="3">
+      <c r="O128" s="3">
         <v>-150</v>
       </c>
-      <c r="P118" s="3">
+      <c r="P128" s="3">
         <v>-198.3</v>
       </c>
-      <c r="Q118" s="3">
+      <c r="Q128" s="3">
         <v>-194.6</v>
       </c>
     </row>
-    <row r="119" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="129" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
         <v>161</v>
       </c>
-      <c r="L119" s="3">
+      <c r="L129" s="3">
         <v>-502.6</v>
       </c>
-      <c r="M119" s="3">
+      <c r="M129" s="3">
         <v>-694.8</v>
       </c>
-      <c r="N119" s="3">
+      <c r="N129" s="3">
         <v>-37.700000000000003</v>
       </c>
-      <c r="O119" s="3">
+      <c r="O129" s="3">
         <v>-492.6</v>
       </c>
-      <c r="P119" s="3">
+      <c r="P129" s="3">
         <v>-488.6</v>
       </c>
-      <c r="Q119" s="3">
+      <c r="Q129" s="3">
         <v>-449.7</v>
       </c>
     </row>
-    <row r="120" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+    <row r="130" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
         <v>162</v>
       </c>
-      <c r="L120" s="3">
+      <c r="L130" s="3">
         <f>21.8-2.8</f>
         <v>19</v>
       </c>
-      <c r="M120" s="3">
+      <c r="M130" s="3">
         <v>-0.9</v>
       </c>
-      <c r="N120" s="3">
+      <c r="N130" s="3">
         <v>-8.6999999999999993</v>
       </c>
-      <c r="O120" s="3">
+      <c r="O130" s="3">
         <v>0</v>
       </c>
-      <c r="P120" s="3">
+      <c r="P130" s="3">
         <v>0</v>
       </c>
-      <c r="Q120" s="3">
+      <c r="Q130" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B121" s="2" t="s">
+    <row r="131" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="8">
-        <f t="shared" ref="L121:N121" si="44">SUM(L113:L120)</f>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="8">
+        <f t="shared" ref="L131:N131" si="41">SUM(L123:L130)</f>
         <v>-605.69999999999993</v>
       </c>
-      <c r="M121" s="8">
-        <f t="shared" si="44"/>
+      <c r="M131" s="8">
+        <f t="shared" si="41"/>
         <v>-438.19999999999993</v>
       </c>
-      <c r="N121" s="8">
-        <f t="shared" si="44"/>
+      <c r="N131" s="8">
+        <f t="shared" si="41"/>
         <v>356.80000000000013</v>
       </c>
-      <c r="O121" s="8">
-        <f>SUM(O113:O120)</f>
+      <c r="O131" s="8">
+        <f>SUM(O123:O130)</f>
         <v>-665.7</v>
       </c>
-      <c r="P121" s="8">
-        <f t="shared" ref="P121:Q121" si="45">SUM(P113:P120)</f>
+      <c r="P131" s="8">
+        <f t="shared" ref="P131:Q131" si="42">SUM(P123:P130)</f>
         <v>-1208.8000000000002</v>
       </c>
-      <c r="Q121" s="8">
-        <f t="shared" si="45"/>
+      <c r="Q131" s="8">
+        <f t="shared" si="42"/>
         <v>-665.6</v>
       </c>
     </row>
-    <row r="122" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+    <row r="132" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
         <v>164</v>
       </c>
-      <c r="L122" s="3">
+      <c r="L132" s="3">
         <v>-27.8</v>
       </c>
-      <c r="M122" s="3">
+      <c r="M132" s="3">
         <v>-15.2</v>
       </c>
-      <c r="N122" s="3">
+      <c r="N132" s="3">
         <v>25.5</v>
       </c>
-      <c r="O122" s="3">
+      <c r="O132" s="3">
         <v>-48.3</v>
       </c>
-      <c r="P122" s="3">
+      <c r="P132" s="3">
         <v>-8.8000000000000007</v>
       </c>
-      <c r="Q122" s="3">
+      <c r="Q132" s="3">
         <v>-13.6</v>
       </c>
     </row>
-    <row r="123" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B123" s="2" t="s">
+    <row r="133" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="L123" s="8">
-        <f t="shared" ref="L123:P123" si="46">L106+L112+L121+L122</f>
+      <c r="L133" s="8">
+        <f t="shared" ref="L133:P133" si="43">L116+L122+L131+L132</f>
         <v>-729.00000000000011</v>
       </c>
-      <c r="M123" s="8">
-        <f t="shared" si="46"/>
+      <c r="M133" s="8">
+        <f t="shared" si="43"/>
         <v>1003.3000000000003</v>
       </c>
-      <c r="N123" s="8">
-        <f t="shared" si="46"/>
+      <c r="N133" s="8">
+        <f t="shared" si="43"/>
         <v>958.20000000000027</v>
       </c>
-      <c r="O123" s="8">
-        <f t="shared" si="46"/>
+      <c r="O133" s="8">
+        <f t="shared" si="43"/>
         <v>-715.99999999999966</v>
       </c>
-      <c r="P123" s="8">
-        <f t="shared" si="46"/>
+      <c r="P133" s="8">
+        <f t="shared" si="43"/>
         <v>-335.09999999999997</v>
       </c>
-      <c r="Q123" s="8">
-        <f>Q106+Q112+Q121+Q122</f>
+      <c r="Q133" s="8">
+        <f>Q116+Q122+Q131+Q132</f>
         <v>133.69999999999916</v>
       </c>
     </row>
-    <row r="124" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+    <row r="134" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
         <v>166</v>
       </c>
-      <c r="L124" s="3">
-        <f>L125-L123</f>
+      <c r="L134" s="3">
+        <f>L135-L133</f>
         <v>1355.4999999999991</v>
       </c>
-      <c r="M124" s="3">
-        <f>M125-M123</f>
+      <c r="M134" s="3">
+        <f>M135-M133</f>
         <v>626.49999999999898</v>
       </c>
-      <c r="N124" s="3">
-        <f>N125-N123</f>
+      <c r="N134" s="3">
+        <f>N135-N133</f>
         <v>1629.7999999999993</v>
       </c>
-      <c r="O124" s="3">
-        <f>O125-O123</f>
+      <c r="O134" s="3">
+        <f>O135-O133</f>
         <v>2587.9999999999995</v>
       </c>
-      <c r="P124" s="3">
-        <f>P125-P123</f>
+      <c r="P134" s="3">
+        <f>P135-P133</f>
         <v>1872</v>
       </c>
-      <c r="Q124" s="3">
+      <c r="Q134" s="3">
         <v>1536.9</v>
       </c>
     </row>
-    <row r="125" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="135" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>167</v>
       </c>
-      <c r="L125" s="3">
-        <f>M124</f>
+      <c r="L135" s="3">
+        <f>M134</f>
         <v>626.49999999999898</v>
       </c>
-      <c r="M125" s="3">
-        <f>N124</f>
+      <c r="M135" s="3">
+        <f>N134</f>
         <v>1629.7999999999993</v>
       </c>
-      <c r="N125" s="3">
-        <f>O124</f>
+      <c r="N135" s="3">
+        <f>O134</f>
         <v>2587.9999999999995</v>
       </c>
-      <c r="O125" s="3">
-        <f>P124</f>
+      <c r="O135" s="3">
+        <f>P134</f>
         <v>1872</v>
       </c>
-      <c r="P125" s="3">
-        <f>Q124</f>
+      <c r="P135" s="3">
+        <f>Q134</f>
         <v>1536.9</v>
       </c>
-      <c r="Q125" s="3">
-        <f>Q124+Q123</f>
+      <c r="Q135" s="3">
+        <f>Q134+Q133</f>
         <v>1670.5999999999992</v>
       </c>
     </row>
@@ -5527,27 +5995,27 @@
         <v>172</v>
       </c>
       <c r="D4" s="10">
-        <f>Model!L23/Model!L83</f>
+        <f>Model!L32/Model!L93</f>
         <v>0.13108420540277427</v>
       </c>
       <c r="E4" s="10">
-        <f>Model!M23/Model!M83</f>
+        <f>Model!M32/Model!M93</f>
         <v>0.14269800601537269</v>
       </c>
       <c r="F4" s="10">
-        <f>Model!N23/Model!N83</f>
+        <f>Model!N32/Model!N93</f>
         <v>-4.649823375825525E-2</v>
       </c>
       <c r="G4" s="10">
-        <f>Model!O23/Model!O83</f>
+        <f>Model!O32/Model!O93</f>
         <v>0.23663249211356471</v>
       </c>
       <c r="H4" s="10">
-        <f>Model!P23/Model!P83</f>
+        <f>Model!P32/Model!P93</f>
         <v>0.21505862991154104</v>
       </c>
       <c r="I4" s="10">
-        <f>Model!Q23/Model!Q83</f>
+        <f>Model!Q32/Model!Q93</f>
         <v>0.26376362078112842</v>
       </c>
       <c r="J4" s="10"/>
@@ -5568,27 +6036,27 @@
         <v>174</v>
       </c>
       <c r="D5" s="10">
-        <f>Model!L23/Model!L10</f>
+        <f>Model!L32/Model!L19</f>
         <v>6.8255979724378205E-2</v>
       </c>
       <c r="E5" s="10">
-        <f>Model!M23/Model!M10</f>
+        <f>Model!M32/Model!M19</f>
         <v>6.2388389233416733E-2</v>
       </c>
       <c r="F5" s="10">
-        <f>Model!N23/Model!N10</f>
+        <f>Model!N32/Model!N19</f>
         <v>-2.7517724050172675E-2</v>
       </c>
       <c r="G5" s="10">
-        <f>Model!O23/Model!O10</f>
+        <f>Model!O32/Model!O19</f>
         <v>9.6502371954651459E-2</v>
       </c>
       <c r="H5" s="10">
-        <f>Model!P23/Model!P10</f>
+        <f>Model!P32/Model!P19</f>
         <v>8.1119250108634966E-2</v>
       </c>
       <c r="I5" s="10">
-        <f>Model!Q23/Model!Q10</f>
+        <f>Model!Q32/Model!Q19</f>
         <v>9.7460566396235973E-2</v>
       </c>
       <c r="J5" s="10"/>
@@ -5609,27 +6077,27 @@
         <v>176</v>
       </c>
       <c r="D6" s="10">
-        <f>Model!L17/Model!L10</f>
+        <f>Model!L26/Model!L19</f>
         <v>8.8990971012197009E-2</v>
       </c>
       <c r="E6" s="10">
-        <f>Model!M17/Model!M10</f>
+        <f>Model!M26/Model!M19</f>
         <v>5.1462709828241249E-2</v>
       </c>
       <c r="F6" s="10">
-        <f>Model!N17/Model!N10</f>
+        <f>Model!N26/Model!N19</f>
         <v>-9.9072895837120315E-3</v>
       </c>
       <c r="G6" s="10">
-        <f>Model!O17/Model!O10</f>
+        <f>Model!O26/Model!O19</f>
         <v>0.12839109109913968</v>
       </c>
       <c r="H6" s="10">
-        <f>Model!P17/Model!P10</f>
+        <f>Model!P26/Model!P19</f>
         <v>0.10928673412378177</v>
       </c>
       <c r="I6" s="10">
-        <f>Model!Q17/Model!Q10</f>
+        <f>Model!Q26/Model!Q19</f>
         <v>0.11406339536146201</v>
       </c>
       <c r="J6" s="10"/>
@@ -5650,27 +6118,27 @@
         <v>178</v>
       </c>
       <c r="D7" s="10">
-        <f>(Model!L17+Model!L91)/Model!L10</f>
+        <f>(Model!L26+Model!L101)/Model!L19</f>
         <v>0.13354981783621095</v>
       </c>
       <c r="E7" s="10">
-        <f>(Model!M17+Model!M91)/Model!M10</f>
+        <f>(Model!M26+Model!M101)/Model!M19</f>
         <v>9.5214130328906854E-2</v>
       </c>
       <c r="F7" s="10">
-        <f>(Model!N17+Model!N91)/Model!N10</f>
+        <f>(Model!N26+Model!N101)/Model!N19</f>
         <v>4.6355208143973842E-2</v>
       </c>
       <c r="G7" s="10">
-        <f>(Model!O17+Model!O91)/Model!O10</f>
+        <f>(Model!O26+Model!O101)/Model!O19</f>
         <v>0.16532925946771732</v>
       </c>
       <c r="H7" s="10">
-        <f>(Model!P17+Model!P91)/Model!P10</f>
+        <f>(Model!P26+Model!P101)/Model!P19</f>
         <v>0.14350673536532377</v>
       </c>
       <c r="I7" s="10">
-        <f>(Model!Q17+Model!Q91)/Model!Q10</f>
+        <f>(Model!Q26+Model!Q101)/Model!Q19</f>
         <v>0.1485960732273727</v>
       </c>
       <c r="K7" s="13">
@@ -5690,27 +6158,27 @@
         <v>180</v>
       </c>
       <c r="D8" s="3">
-        <f>Model!L10/Model!L59</f>
+        <f>Model!L19/Model!L69</f>
         <v>1.0622938682102714</v>
       </c>
       <c r="E8" s="3">
-        <f>Model!M10/Model!M59</f>
+        <f>Model!M19/Model!M69</f>
         <v>0.84613799640104947</v>
       </c>
       <c r="F8" s="3">
-        <f>Model!N10/Model!N59</f>
+        <f>Model!N19/Model!N69</f>
         <v>0.55794611727416799</v>
       </c>
       <c r="G8" s="3">
-        <f>Model!O10/Model!O59</f>
+        <f>Model!O19/Model!O69</f>
         <v>0.80501508149183776</v>
       </c>
       <c r="H8" s="3">
-        <f>Model!P10/Model!P59</f>
+        <f>Model!P19/Model!P69</f>
         <v>0.94905368583842709</v>
       </c>
       <c r="I8" s="3">
-        <f>Model!Q10/Model!Q59</f>
+        <f>Model!Q19/Model!Q69</f>
         <v>1.0043619180322902</v>
       </c>
       <c r="K8" s="11">
@@ -5730,27 +6198,27 @@
         <v>182</v>
       </c>
       <c r="D9" s="10">
-        <f>(Model!L23+Model!L18)/Model!L59</f>
+        <f>(Model!L32+Model!L27)/Model!L69</f>
         <v>7.5991115299185522E-2</v>
       </c>
       <c r="E9" s="10">
-        <f>(Model!M23+Model!M18)/Model!M59</f>
+        <f>(Model!M32+Model!M27)/Model!M69</f>
         <v>5.5206802291240323E-2</v>
       </c>
       <c r="F9" s="10">
-        <f>(Model!N23+Model!N18)/Model!N59</f>
+        <f>(Model!N32+Model!N27)/Model!N69</f>
         <v>-9.2044374009508604E-3</v>
       </c>
       <c r="G9" s="10">
-        <f>(Model!O23+Model!O18)/Model!O59</f>
+        <f>(Model!O32+Model!O27)/Model!O69</f>
         <v>8.4676427563529985E-2</v>
       </c>
       <c r="H9" s="10">
-        <f>(Model!P23+Model!P18)/Model!P59</f>
+        <f>(Model!P32+Model!P27)/Model!P69</f>
         <v>8.2936887841520035E-2</v>
       </c>
       <c r="I9" s="10">
-        <f>(Model!Q23+Model!Q18)/Model!Q59</f>
+        <f>(Model!Q32+Model!Q27)/Model!Q69</f>
         <v>0.10427710295944011</v>
       </c>
       <c r="K9" s="13">
@@ -5770,27 +6238,27 @@
         <v>184</v>
       </c>
       <c r="D10" s="10">
-        <f>Model!L17/Model!L59</f>
+        <f>Model!L26/Model!L69</f>
         <v>9.4534562832334898E-2</v>
       </c>
       <c r="E10" s="10">
-        <f>Model!M17/Model!M59</f>
+        <f>Model!M26/Model!M69</f>
         <v>4.3544554183436647E-2</v>
       </c>
       <c r="F10" s="10">
-        <f>Model!N17/Model!N59</f>
+        <f>Model!N26/Model!N69</f>
         <v>-5.5277337559429358E-3</v>
       </c>
       <c r="G10" s="10">
-        <f>Model!O17/Model!O59</f>
+        <f>Model!O26/Model!O69</f>
         <v>0.1033567646639999</v>
       </c>
       <c r="H10" s="10">
-        <f>Model!P17/Model!P59</f>
+        <f>Model!P26/Model!P69</f>
         <v>0.1037189778334193</v>
       </c>
       <c r="I10" s="10">
-        <f>Model!Q17/Model!Q59</f>
+        <f>Model!Q26/Model!Q69</f>
         <v>0.11456093054251344</v>
       </c>
       <c r="K10" s="13">
@@ -5810,27 +6278,27 @@
         <v>186</v>
       </c>
       <c r="D11" s="10">
-        <f>Model!L17/(Model!L57+SUM(Model!L45:L49)-Model!L62)</f>
+        <f>Model!L26/(Model!L67+SUM(Model!L55:L59)-Model!L72)</f>
         <v>0.10895198200294773</v>
       </c>
       <c r="E11" s="10">
-        <f>Model!M17/(Model!M57+SUM(Model!M45:M49)-Model!M62)</f>
+        <f>Model!M26/(Model!M67+SUM(Model!M55:M59)-Model!M72)</f>
         <v>5.8565965229922308E-2</v>
       </c>
       <c r="F11" s="10">
-        <f>Model!N17/(Model!N57+SUM(Model!N45:N49)-Model!N62)</f>
+        <f>Model!N26/(Model!N67+SUM(Model!N55:N59)-Model!N72)</f>
         <v>-8.8034567701813001E-3</v>
       </c>
       <c r="G11" s="10">
-        <f>Model!O17/(Model!O57+SUM(Model!O45:O49)-Model!O62)</f>
+        <f>Model!O26/(Model!O67+SUM(Model!O55:O59)-Model!O72)</f>
         <v>0.1475185691585677</v>
       </c>
       <c r="H11" s="10">
-        <f>Model!P17/(Model!P57+SUM(Model!P45:P49)-Model!P62)</f>
+        <f>Model!P26/(Model!P67+SUM(Model!P55:P59)-Model!P72)</f>
         <v>0.1440494211021561</v>
       </c>
       <c r="I11" s="10">
-        <f>Model!Q17/(Model!Q57+SUM(Model!Q45:Q49)-Model!Q62)</f>
+        <f>Model!Q26/(Model!Q67+SUM(Model!Q55:Q59)-Model!Q72)</f>
         <v>0.16414218132893521</v>
       </c>
       <c r="K11" s="13">
@@ -5850,27 +6318,27 @@
         <v>188</v>
       </c>
       <c r="D12" s="10">
-        <f>(Model!L17*(1-Model!L39))/(Model!L75+Model!L83-Model!L44)</f>
+        <f>(Model!L26*(1-Model!L49))/(Model!L85+Model!L93-Model!L54)</f>
         <v>6.7954266989665613E-2</v>
       </c>
       <c r="E12" s="10">
-        <f>(Model!M17*(1-Model!M39))/(Model!M75+Model!M83-Model!M44)</f>
+        <f>(Model!M26*(1-Model!M49))/(Model!M85+Model!M93-Model!M54)</f>
         <v>6.4450983917599694E-2</v>
       </c>
       <c r="F12" s="10">
-        <f>(Model!N17*(1-Model!N39))/(Model!N75+Model!N83-Model!N44)</f>
+        <f>(Model!N26*(1-Model!N49))/(Model!N85+Model!N93-Model!N54)</f>
         <v>-1.1353401019989813E-2</v>
       </c>
       <c r="G12" s="10">
-        <f>(Model!O17*(1-Model!O39))/(Model!O75+Model!O83-Model!O44)</f>
+        <f>(Model!O26*(1-Model!O49))/(Model!O85+Model!O93-Model!O54)</f>
         <v>0.10115276816817223</v>
       </c>
       <c r="H12" s="10">
-        <f>(Model!P17*(1-Model!P39))/(Model!P75+Model!P83-Model!P44)</f>
+        <f>(Model!P26*(1-Model!P49))/(Model!P85+Model!P93-Model!P54)</f>
         <v>9.0537955221594135E-2</v>
       </c>
       <c r="I12" s="10">
-        <f>(Model!Q17*(1-Model!Q39))/(Model!Q75+Model!Q83-Model!Q44)</f>
+        <f>(Model!Q26*(1-Model!Q49))/(Model!Q85+Model!Q93-Model!Q54)</f>
         <v>0.12204812323753214</v>
       </c>
       <c r="K12" s="13">
@@ -5890,27 +6358,27 @@
         <v>190</v>
       </c>
       <c r="D13" s="10">
-        <f>Model!L106/Model!L10</f>
+        <f>Model!L116/Model!L19</f>
         <v>0.12415650245525102</v>
       </c>
       <c r="E13" s="10">
-        <f>Model!M106/Model!M10</f>
+        <f>Model!M116/Model!M19</f>
         <v>0.12250397740186375</v>
       </c>
       <c r="F13" s="10">
-        <f>Model!N106/Model!N10</f>
+        <f>Model!N116/Model!N19</f>
         <v>8.6552445009998188E-2</v>
       </c>
       <c r="G13" s="10">
-        <f>Model!O106/Model!O10</f>
+        <f>Model!O116/Model!O19</f>
         <v>0.11512422609954175</v>
       </c>
       <c r="H13" s="10">
-        <f>Model!P106/Model!P10</f>
+        <f>Model!P116/Model!P19</f>
         <v>6.3784220001241565E-2</v>
       </c>
       <c r="I13" s="10">
-        <f>Model!Q106/Model!Q10</f>
+        <f>Model!Q116/Model!Q19</f>
         <v>0.1613083210181861</v>
       </c>
       <c r="K13" s="13">
@@ -5930,27 +6398,27 @@
         <v>192</v>
       </c>
       <c r="D14" s="10">
-        <f>1-(Model!L118/Model!L119)</f>
+        <f>1-(Model!L128/Model!L129)</f>
         <v>0.62057302029446881</v>
       </c>
       <c r="E14" s="10">
-        <f>1-(Model!M118/Model!M119)</f>
+        <f>1-(Model!M128/Model!M129)</f>
         <v>0.70653425446171558</v>
       </c>
       <c r="F14" s="10">
-        <f>1-(Model!N118/Model!N119)</f>
+        <f>1-(Model!N128/Model!N129)</f>
         <v>-0.32095490716180364</v>
       </c>
       <c r="G14" s="10">
-        <f>1-(Model!O118/Model!O119)</f>
+        <f>1-(Model!O128/Model!O129)</f>
         <v>0.69549330085261873</v>
       </c>
       <c r="H14" s="10">
-        <f>1-(Model!P118/Model!P119)</f>
+        <f>1-(Model!P128/Model!P129)</f>
         <v>0.59414654113794518</v>
       </c>
       <c r="I14" s="10">
-        <f>1-(Model!Q118/Model!Q119)</f>
+        <f>1-(Model!Q128/Model!Q129)</f>
         <v>0.56726706693351125</v>
       </c>
       <c r="K14" s="13">
@@ -6010,27 +6478,27 @@
         <v>196</v>
       </c>
       <c r="D16" s="10">
-        <f>(-Model!L107+SUM(Model!L99:L105))/(Model!L17*(1-Model!L39))</f>
+        <f>(-Model!L117+SUM(Model!L109:L115))/(Model!L26*(1-Model!L49))</f>
         <v>0.35123223560095407</v>
       </c>
       <c r="E16" s="10">
-        <f>(-Model!M107+SUM(Model!M99:M105))/(Model!M17*(1-Model!M39))</f>
+        <f>(-Model!M117+SUM(Model!M109:M115))/(Model!M26*(1-Model!M49))</f>
         <v>0.94363328182716921</v>
       </c>
       <c r="F16" s="10">
-        <f>(-Model!N107+SUM(Model!N99:N105))/(Model!N17*(1-Model!N39))</f>
+        <f>(-Model!N117+SUM(Model!N109:N115))/(Model!N26*(1-Model!N49))</f>
         <v>-3.0479746911753476</v>
       </c>
       <c r="G16" s="10">
-        <f>(-Model!O107+SUM(Model!O99:O105))/(Model!O17*(1-Model!O39))</f>
+        <f>(-Model!O117+SUM(Model!O109:O115))/(Model!O26*(1-Model!O49))</f>
         <v>-4.5543004770761675E-3</v>
       </c>
       <c r="H16" s="10">
-        <f>(-Model!P107+SUM(Model!P99:P105))/(Model!P17*(1-Model!P39))</f>
+        <f>(-Model!P117+SUM(Model!P109:P115))/(Model!P26*(1-Model!P49))</f>
         <v>-0.43485769561254406</v>
       </c>
       <c r="I16" s="10">
-        <f>(-Model!Q107+SUM(Model!Q99:Q105))/(Model!Q17*(1-Model!Q39))</f>
+        <f>(-Model!Q117+SUM(Model!Q109:Q115))/(Model!Q26*(1-Model!Q49))</f>
         <v>0.46403900997204856</v>
       </c>
       <c r="K16" s="13">
@@ -6095,27 +6563,27 @@
         <v>200</v>
       </c>
       <c r="D21" s="10">
-        <f>Model!L83/Model!L85</f>
+        <f>Model!L93/Model!L95</f>
         <v>0.55313993403782735</v>
       </c>
       <c r="E21" s="10">
-        <f>Model!M83/Model!M85</f>
+        <f>Model!M93/Model!M95</f>
         <v>0.36993640022527796</v>
       </c>
       <c r="F21" s="10">
-        <f>Model!N83/Model!N85</f>
+        <f>Model!N93/Model!N95</f>
         <v>0.33019334389857358</v>
       </c>
       <c r="G21" s="10">
-        <f>Model!O83/Model!O85</f>
+        <f>Model!O93/Model!O95</f>
         <v>0.32829753906300563</v>
       </c>
       <c r="H21" s="10">
-        <f>Model!P83/Model!P85</f>
+        <f>Model!P93/Model!P95</f>
         <v>0.35797923263863307</v>
       </c>
       <c r="I21" s="10">
-        <f>Model!Q83/Model!Q85</f>
+        <f>Model!Q93/Model!Q95</f>
         <v>0.37111138036531072</v>
       </c>
       <c r="K21" s="13">
@@ -6135,27 +6603,27 @@
         <v>202</v>
       </c>
       <c r="D22" s="10">
-        <f>(Model!L61+Model!L67+Model!L68+Model!L69-Model!L44-Model!L45)/Model!L83</f>
+        <f>(Model!L71+Model!L77+Model!L78+Model!L79-Model!L54-Model!L55)/Model!L93</f>
         <v>-0.39498661474811392</v>
       </c>
       <c r="E22" s="10">
-        <f>(Model!M61+Model!M67+Model!M68+Model!M69-Model!M44-Model!M45)/Model!M83</f>
+        <f>(Model!M71+Model!M77+Model!M78+Model!M79-Model!M54-Model!M55)/Model!M93</f>
         <v>0.23133192232000291</v>
       </c>
       <c r="F22" s="10">
-        <f>(Model!N61+Model!N67+Model!N68+Model!N69-Model!N44-Model!N45)/Model!N83</f>
+        <f>(Model!N71+Model!N77+Model!N78+Model!N79-Model!N54-Model!N55)/Model!N93</f>
         <v>5.794040853939493E-2</v>
       </c>
       <c r="G22" s="10">
-        <f>(Model!O61+Model!O67+Model!O68+Model!O69-Model!O44-Model!O45)/Model!O83</f>
+        <f>(Model!O71+Model!O77+Model!O78+Model!O79-Model!O54-Model!O55)/Model!O93</f>
         <v>0.20177444794952695</v>
       </c>
       <c r="H22" s="10">
-        <f>(Model!P61+Model!P67+Model!P68+Model!P69-Model!P44-Model!P45)/Model!P83</f>
+        <f>(Model!P71+Model!P77+Model!P78+Model!P79-Model!P54-Model!P55)/Model!P93</f>
         <v>0.42345196461633405</v>
       </c>
       <c r="I22" s="10">
-        <f>(Model!Q61+Model!Q67+Model!Q68+Model!Q69-Model!Q44-Model!Q45)/Model!Q83</f>
+        <f>(Model!Q71+Model!Q77+Model!Q78+Model!Q79-Model!Q54-Model!Q55)/Model!Q93</f>
         <v>0.25605027955760506</v>
       </c>
       <c r="K22" s="13">
@@ -6175,27 +6643,27 @@
         <v>204</v>
       </c>
       <c r="D23" s="10">
-        <f>(Model!L61+Model!L67+Model!L68+Model!L69-Model!L44-Model!L45)/(Model!L17*(1-Model!L39)+Model!L91+Model!L107+SUM(Model!L99:L105))</f>
+        <f>(Model!L71+Model!L77+Model!L78+Model!L79-Model!L54-Model!L55)/(Model!L26*(1-Model!L49)+Model!L101+Model!L117+SUM(Model!L109:L115))</f>
         <v>-3.4354065857466791</v>
       </c>
       <c r="E23" s="10">
-        <f>(Model!M61+Model!M67+Model!M68+Model!M69-Model!M44-Model!M45)/(Model!M17*(1-Model!M39)+Model!M91+Model!M107+SUM(Model!M99:M105))</f>
+        <f>(Model!M71+Model!M77+Model!M78+Model!M79-Model!M54-Model!M55)/(Model!M26*(1-Model!M49)+Model!M101+Model!M117+SUM(Model!M109:M115))</f>
         <v>1.422828098672291</v>
       </c>
       <c r="F23" s="10">
-        <f>(Model!N61+Model!N67+Model!N68+Model!N69-Model!N44-Model!N45)/(Model!N17*(1-Model!N39)+Model!N91+Model!N107+SUM(Model!N99:N105))</f>
+        <f>(Model!N71+Model!N77+Model!N78+Model!N79-Model!N54-Model!N55)/(Model!N26*(1-Model!N49)+Model!N101+Model!N117+SUM(Model!N109:N115))</f>
         <v>0.9708521072772508</v>
       </c>
       <c r="G23" s="10">
-        <f>(Model!O61+Model!O67+Model!O68+Model!O69-Model!O44-Model!O45)/(Model!O17*(1-Model!O39)+Model!O91+Model!O107+SUM(Model!O99:O105))</f>
+        <f>(Model!O71+Model!O77+Model!O78+Model!O79-Model!O54-Model!O55)/(Model!O26*(1-Model!O49)+Model!O101+Model!O117+SUM(Model!O109:O115))</f>
         <v>1.0527804515936778</v>
       </c>
       <c r="H23" s="10">
-        <f>(Model!P61+Model!P67+Model!P68+Model!P69-Model!P44-Model!P45)/(Model!P17*(1-Model!P39)+Model!P91+Model!P107+SUM(Model!P99:P105))</f>
+        <f>(Model!P71+Model!P77+Model!P78+Model!P79-Model!P54-Model!P55)/(Model!P26*(1-Model!P49)+Model!P101+Model!P117+SUM(Model!P109:P115))</f>
         <v>18.833345586356071</v>
       </c>
       <c r="I23" s="10">
-        <f>(Model!Q61+Model!Q67+Model!Q68+Model!Q69-Model!Q44-Model!Q45)/(Model!Q17*(1-Model!Q39)+Model!Q91+Model!Q107+SUM(Model!Q99:Q105))</f>
+        <f>(Model!Q71+Model!Q77+Model!Q78+Model!Q79-Model!Q54-Model!Q55)/(Model!Q26*(1-Model!Q49)+Model!Q101+Model!Q117+SUM(Model!Q109:Q115))</f>
         <v>0.80213095480752494</v>
       </c>
       <c r="K23" s="13">
@@ -6215,27 +6683,27 @@
         <v>206</v>
       </c>
       <c r="D24" s="10">
-        <f>(Model!L61+Model!L67+Model!L68+Model!L69-Model!L44-Model!L45)/(Model!L17+Model!L91)</f>
+        <f>(Model!L71+Model!L77+Model!L78+Model!L79-Model!L54-Model!L55)/(Model!L26+Model!L101)</f>
         <v>-1.5400308385719377</v>
       </c>
       <c r="E24" s="10">
-        <f>(Model!M61+Model!M67+Model!M68+Model!M69-Model!M44-Model!M45)/(Model!M17+Model!M91)</f>
+        <f>(Model!M71+Model!M77+Model!M78+Model!M79-Model!M54-Model!M55)/(Model!M26+Model!M101)</f>
         <v>1.0622335890878085</v>
       </c>
       <c r="F24" s="10">
-        <f>(Model!N61+Model!N67+Model!N68+Model!N69-Model!N44-Model!N45)/(Model!N17+Model!N91)</f>
+        <f>(Model!N71+Model!N77+Model!N78+Model!N79-Model!N54-Model!N55)/(Model!N26+Model!N101)</f>
         <v>0.73970588235294132</v>
       </c>
       <c r="G24" s="10">
-        <f>(Model!O61+Model!O67+Model!O68+Model!O69-Model!O44-Model!O45)/(Model!O17+Model!O91)</f>
+        <f>(Model!O71+Model!O77+Model!O78+Model!O79-Model!O54-Model!O55)/(Model!O26+Model!O101)</f>
         <v>0.49771423013325583</v>
       </c>
       <c r="H24" s="10">
-        <f>(Model!P61+Model!P67+Model!P68+Model!P69-Model!P44-Model!P45)/(Model!P17+Model!P91)</f>
+        <f>(Model!P71+Model!P77+Model!P78+Model!P79-Model!P54-Model!P55)/(Model!P26+Model!P101)</f>
         <v>1.1130096247431591</v>
       </c>
       <c r="I24" s="10">
-        <f>(Model!Q61+Model!Q67+Model!Q68+Model!Q69-Model!Q44-Model!Q45)/(Model!Q17+Model!Q91)</f>
+        <f>(Model!Q71+Model!Q77+Model!Q78+Model!Q79-Model!Q54-Model!Q55)/(Model!Q26+Model!Q101)</f>
         <v>0.63669575806779011</v>
       </c>
       <c r="K24" s="13">
@@ -6255,27 +6723,27 @@
         <v>208</v>
       </c>
       <c r="D25" s="10">
-        <f>(-Model!L107/Model!L106)</f>
+        <f>(-Model!L117/Model!L116)</f>
         <v>0.25223271242663953</v>
       </c>
       <c r="E25" s="10">
-        <f>(-Model!M107/Model!M106)</f>
+        <f>(-Model!M117/Model!M116)</f>
         <v>0.35820302146832744</v>
       </c>
       <c r="F25" s="10">
-        <f>(-Model!N107/Model!N106)</f>
+        <f>(-Model!N117/Model!N116)</f>
         <v>0.28301391441323176</v>
       </c>
       <c r="G25" s="10">
-        <f>(-Model!O107/Model!O106)</f>
+        <f>(-Model!O117/Model!O116)</f>
         <v>0.23313311915071927</v>
       </c>
       <c r="H25" s="10">
-        <f>(-Model!P107/Model!P106)</f>
+        <f>(-Model!P117/Model!P116)</f>
         <v>0.52919708029197055</v>
       </c>
       <c r="I25" s="10">
-        <f>(-Model!Q107/Model!Q106)</f>
+        <f>(-Model!Q117/Model!Q116)</f>
         <v>0.15406188651023664</v>
       </c>
       <c r="K25" s="13">
@@ -6327,27 +6795,27 @@
         <v>212</v>
       </c>
       <c r="D27" s="15">
-        <f>-Model!L107/Model!L91</f>
+        <f>-Model!L117/Model!L101</f>
         <v>0.70280838961962311</v>
       </c>
       <c r="E27" s="15">
-        <f>-Model!M107/Model!M91</f>
+        <f>-Model!M117/Model!M101</f>
         <v>1.0029684601113174</v>
       </c>
       <c r="F27" s="15">
-        <f>-Model!N107/Model!N91</f>
+        <f>-Model!N117/Model!N101</f>
         <v>0.43537964458804523</v>
       </c>
       <c r="G27" s="15">
-        <f>-Model!O107/Model!O91</f>
+        <f>-Model!O117/Model!O101</f>
         <v>0.72659991292990866</v>
       </c>
       <c r="H27" s="15">
-        <f>-Model!P107/Model!P91</f>
+        <f>-Model!P117/Model!P101</f>
         <v>0.98639455782312924</v>
       </c>
       <c r="I27" s="15">
-        <f>-Model!Q107/Model!Q91</f>
+        <f>-Model!Q117/Model!Q101</f>
         <v>0.71965065502183412</v>
       </c>
       <c r="K27" s="15">
@@ -6375,7 +6843,7 @@
         <v>215</v>
       </c>
       <c r="F28" s="14">
-        <f>(Model!N83/-Model!N17)</f>
+        <f>(Model!N93/-Model!N26)</f>
         <v>59.733944954128539</v>
       </c>
       <c r="G28" s="12" t="s">
@@ -6402,27 +6870,27 @@
         <v>217</v>
       </c>
       <c r="D29" s="10">
-        <f>Model!L50/Model!L59</f>
+        <f>Model!L60/Model!L69</f>
         <v>0.60490004711583767</v>
       </c>
       <c r="E29" s="10">
-        <f>Model!M50/Model!M59</f>
+        <f>Model!M60/Model!M69</f>
         <v>0.46363274220799744</v>
       </c>
       <c r="F29" s="10">
-        <f>Model!N50/Model!N59</f>
+        <f>Model!N60/Model!N69</f>
         <v>0.53350237717908078</v>
       </c>
       <c r="G29" s="10">
-        <f>Model!O50/Model!O59</f>
+        <f>Model!O60/Model!O69</f>
         <v>0.54595000453092024</v>
       </c>
       <c r="H29" s="10">
-        <f>Model!P50/Model!P59</f>
+        <f>Model!P60/Model!P69</f>
         <v>0.48959422637896743</v>
       </c>
       <c r="I29" s="10">
-        <f>Model!Q50/Model!Q59</f>
+        <f>Model!Q60/Model!Q69</f>
         <v>0.50886014600308971</v>
       </c>
       <c r="K29" s="13">
@@ -6482,27 +6950,27 @@
         <v>221</v>
       </c>
       <c r="D31" s="10">
-        <f>Model!L83/Model!L57</f>
+        <f>Model!L93/Model!L67</f>
         <v>1.4000000000000001</v>
       </c>
       <c r="E31" s="10">
-        <f>Model!M83/Model!M57</f>
+        <f>Model!M93/Model!M67</f>
         <v>0.68970727584705649</v>
       </c>
       <c r="F31" s="10">
-        <f>Model!N83/Model!N57</f>
+        <f>Model!N93/Model!N67</f>
         <v>0.70781356162522047</v>
       </c>
       <c r="G31" s="10">
-        <f>Model!O83/Model!O57</f>
+        <f>Model!O93/Model!O67</f>
         <v>0.72304270969949247</v>
       </c>
       <c r="H31" s="10">
-        <f>Model!P83/Model!P57</f>
+        <f>Model!P93/Model!P67</f>
         <v>0.70136203612858516</v>
       </c>
       <c r="I31" s="10">
-        <f>Model!Q83/Model!Q57</f>
+        <f>Model!Q93/Model!Q67</f>
         <v>0.75561243369927245</v>
       </c>
       <c r="K31" s="13">
@@ -6522,27 +6990,27 @@
         <v>223</v>
       </c>
       <c r="D32" s="10">
-        <f>(Model!L83+Model!L67)/Model!L83</f>
+        <f>(Model!L93+Model!L77)/Model!L93</f>
         <v>1.2096312971525918</v>
       </c>
       <c r="E32" s="10">
-        <f>(Model!M83+Model!M67)/Model!M83</f>
+        <f>(Model!M93+Model!M77)/Model!M93</f>
         <v>1.1471909695146856</v>
       </c>
       <c r="F32" s="10">
-        <f>(Model!N83+Model!N67)/Model!N83</f>
+        <f>(Model!N93+Model!N77)/Model!N93</f>
         <v>1.6269774228229157</v>
       </c>
       <c r="G32" s="10">
-        <f>(Model!O83+Model!O67)/Model!O83</f>
+        <f>(Model!O93+Model!O77)/Model!O93</f>
         <v>1.4481466876971609</v>
       </c>
       <c r="H32" s="10">
-        <f>(Model!P83+Model!P67)/Model!P83</f>
+        <f>(Model!P93+Model!P77)/Model!P93</f>
         <v>1.4684221353630942</v>
       </c>
       <c r="I32" s="10">
-        <f>(Model!Q83+Model!Q67)/Model!Q83</f>
+        <f>(Model!Q93+Model!Q77)/Model!Q93</f>
         <v>1.4654532098110433</v>
       </c>
       <c r="K32" s="13">
@@ -6562,27 +7030,27 @@
         <v>225</v>
       </c>
       <c r="D33" s="10">
-        <f>Model!L54/Model!L59</f>
+        <f>Model!L64/Model!L69</f>
         <v>0.154741872518005</v>
       </c>
       <c r="E33" s="10">
-        <f>Model!M54/Model!M59</f>
+        <f>Model!M64/Model!M69</f>
         <v>0.1257572219398618</v>
       </c>
       <c r="F33" s="10">
-        <f>Model!N54/Model!N59</f>
+        <f>Model!N64/Model!N69</f>
         <v>0.11849128367670365</v>
       </c>
       <c r="G33" s="10">
-        <f>Model!O54/Model!O59</f>
+        <f>Model!O64/Model!O69</f>
         <v>0.11763563633539166</v>
       </c>
       <c r="H33" s="10">
-        <f>Model!P54/Model!P59</f>
+        <f>Model!P64/Model!P69</f>
         <v>0.13239561086972532</v>
       </c>
       <c r="I33" s="10">
-        <f>Model!Q54/Model!Q59</f>
+        <f>Model!Q64/Model!Q69</f>
         <v>0.13450761821100779</v>
       </c>
       <c r="K33" s="13">
@@ -6607,27 +7075,27 @@
         <v>228</v>
       </c>
       <c r="D36" s="11">
-        <f>Model!L46/Model!L10*360</f>
+        <f>Model!L56/Model!L19*360</f>
         <v>22.701726595913193</v>
       </c>
       <c r="E36" s="11">
-        <f>Model!M46/Model!M10*360</f>
+        <f>Model!M56/Model!M19*360</f>
         <v>16.19468164550797</v>
       </c>
       <c r="F36" s="11">
-        <f>Model!N46/Model!N10*360</f>
+        <f>Model!N56/Model!N19*360</f>
         <v>36.934193782948554</v>
       </c>
       <c r="G36" s="11">
-        <f>Model!O46/Model!O10*360</f>
+        <f>Model!O56/Model!O19*360</f>
         <v>23.469325400016082</v>
       </c>
       <c r="H36" s="11">
-        <f>Model!P46/Model!P10*360</f>
+        <f>Model!P56/Model!P19*360</f>
         <v>25.012725805450366</v>
       </c>
       <c r="I36" s="11">
-        <f>Model!Q46/Model!Q10*360</f>
+        <f>Model!Q56/Model!Q19*360</f>
         <v>24.239225502910397</v>
       </c>
       <c r="K36" s="11">
@@ -6647,27 +7115,27 @@
         <v>230</v>
       </c>
       <c r="D37" s="11">
-        <f>Model!L62/Model!L10*360</f>
+        <f>Model!L72/Model!L19*360</f>
         <v>11.536195152859181</v>
       </c>
       <c r="E37" s="11">
-        <f>Model!M62/Model!M10*360</f>
+        <f>Model!M72/Model!M19*360</f>
         <v>14.423844930030196</v>
       </c>
       <c r="F37" s="11">
-        <f>Model!N62/Model!N10*360</f>
+        <f>Model!N72/Model!N19*360</f>
         <v>29.113797491365204</v>
       </c>
       <c r="G37" s="11">
-        <f>Model!O62/Model!O10*360</f>
+        <f>Model!O72/Model!O19*360</f>
         <v>25.976039237758304</v>
       </c>
       <c r="H37" s="11">
-        <f>Model!P62/Model!P10*360</f>
+        <f>Model!P72/Model!P19*360</f>
         <v>20.761065243031844</v>
       </c>
       <c r="I37" s="11">
-        <f>Model!Q62/Model!Q10*360</f>
+        <f>Model!Q72/Model!Q19*360</f>
         <v>18.034200922882047</v>
       </c>
       <c r="K37" s="11">
@@ -6687,27 +7155,27 @@
         <v>232</v>
       </c>
       <c r="D38" s="10">
-        <f>Model!L44/Model!L66</f>
+        <f>Model!L54/Model!L76</f>
         <v>0.48670944087992674</v>
       </c>
       <c r="E38" s="10">
-        <f>Model!M44/Model!M66</f>
+        <f>Model!M54/Model!M76</f>
         <v>0.77456978967495227</v>
       </c>
       <c r="F38" s="10">
-        <f>Model!N44/Model!N66</f>
+        <f>Model!N54/Model!N76</f>
         <v>1.6273346794548209</v>
       </c>
       <c r="G38" s="10">
-        <f>Model!O44/Model!O66</f>
+        <f>Model!O54/Model!O76</f>
         <v>0.82626235758301192</v>
       </c>
       <c r="H38" s="10">
-        <f>Model!P44/Model!P66</f>
+        <f>Model!P54/Model!P76</f>
         <v>1.0239705390023435</v>
       </c>
       <c r="I38" s="10">
-        <f>Model!Q44/Model!Q66</f>
+        <f>Model!Q54/Model!Q76</f>
         <v>1.1329062159214831</v>
       </c>
       <c r="K38" s="13">
@@ -6727,27 +7195,27 @@
         <v>234</v>
       </c>
       <c r="D39" s="10">
-        <f>(Model!L44+Model!L46)/Model!L66</f>
+        <f>(Model!L54+Model!L56)/Model!L76</f>
         <v>0.81843179735022087</v>
       </c>
       <c r="E39" s="10">
-        <f>(Model!M44+Model!M46)/Model!M66</f>
+        <f>(Model!M54+Model!M56)/Model!M76</f>
         <v>0.90702676864244747</v>
       </c>
       <c r="F39" s="10">
-        <f>(Model!N44+Model!N46)/Model!N66</f>
+        <f>(Model!N54+Model!N56)/Model!N76</f>
         <v>1.9122286723876831</v>
       </c>
       <c r="G39" s="10">
-        <f>(Model!O44+Model!O46)/Model!O66</f>
+        <f>(Model!O54+Model!O56)/Model!O76</f>
         <v>1.005984838409363</v>
       </c>
       <c r="H39" s="10">
-        <f>(Model!P44+Model!P46)/Model!P66</f>
+        <f>(Model!P54+Model!P56)/Model!P76</f>
         <v>1.3237361901573486</v>
       </c>
       <c r="I39" s="10">
-        <f>(Model!Q44+Model!Q46)/Model!Q66</f>
+        <f>(Model!Q54+Model!Q56)/Model!Q76</f>
         <v>1.4372273718647763</v>
       </c>
       <c r="K39" s="13">
@@ -6767,27 +7235,27 @@
         <v>236</v>
       </c>
       <c r="D40" s="10">
-        <f>Model!L50/Model!L66</f>
+        <f>Model!L60/Model!L76</f>
         <v>2.9954170485792853</v>
       </c>
       <c r="E40" s="10">
-        <f>Model!M50/Model!M66</f>
+        <f>Model!M60/Model!M76</f>
         <v>1.6133843212237098</v>
       </c>
       <c r="F40" s="10">
-        <f>Model!N50/Model!N66</f>
+        <f>Model!N60/Model!N76</f>
         <v>2.6552246340232206</v>
       </c>
       <c r="G40" s="10">
-        <f>Model!O50/Model!O66</f>
+        <f>Model!O60/Model!O76</f>
         <v>1.8696191869486194</v>
       </c>
       <c r="H40" s="10">
-        <f>Model!P50/Model!P66</f>
+        <f>Model!P60/Model!P76</f>
         <v>2.2257114161365914</v>
       </c>
       <c r="I40" s="10">
-        <f>Model!Q50/Model!Q66</f>
+        <f>Model!Q60/Model!Q76</f>
         <v>2.2899400218102506</v>
       </c>
       <c r="K40" s="13">
@@ -6807,27 +7275,27 @@
         <v>238</v>
       </c>
       <c r="D41" s="10">
-        <f>Model!L47/Model!L59</f>
+        <f>Model!L57/Model!L69</f>
         <v>0.13761190011442417</v>
       </c>
       <c r="E41" s="10">
-        <f>Model!M47/Model!M59</f>
+        <f>Model!M57/Model!M69</f>
         <v>0.10112776274399374</v>
       </c>
       <c r="F41" s="10">
-        <f>Model!N47/Model!N59</f>
+        <f>Model!N57/Model!N69</f>
         <v>9.6228209191759118E-2</v>
       </c>
       <c r="G41" s="10">
-        <f>Model!O47/Model!O59</f>
+        <f>Model!O57/Model!O69</f>
         <v>0.12651624011288462</v>
       </c>
       <c r="H41" s="10">
-        <f>Model!P47/Model!P59</f>
+        <f>Model!P57/Model!P69</f>
         <v>0.15778776051255614</v>
       </c>
       <c r="I41" s="10">
-        <f>Model!Q47/Model!Q59</f>
+        <f>Model!Q57/Model!Q69</f>
         <v>0.13664314058098326</v>
       </c>
       <c r="K41" s="13">
@@ -6847,27 +7315,27 @@
         <v>240</v>
       </c>
       <c r="D42" s="11">
-        <f>Model!L11/Model!L47</f>
+        <f>Model!L20/Model!L57</f>
         <v>2.9677182685253118</v>
       </c>
       <c r="E42" s="11">
-        <f>Model!M11/Model!M47</f>
+        <f>Model!M20/Model!M57</f>
         <v>3.404645476772616</v>
       </c>
       <c r="F42" s="11">
-        <f>Model!N11/Model!N47</f>
+        <f>Model!N20/Model!N57</f>
         <v>2.0281949934123849</v>
       </c>
       <c r="G42" s="11">
-        <f>Model!O11/Model!O47</f>
+        <f>Model!O20/Model!O57</f>
         <v>2.1191036529213139</v>
       </c>
       <c r="H42" s="11">
-        <f>Model!P11/Model!P47</f>
+        <f>Model!P20/Model!P57</f>
         <v>2.1262018108839729</v>
       </c>
       <c r="I42" s="11">
-        <f>Model!Q11/Model!Q47</f>
+        <f>Model!Q20/Model!Q57</f>
         <v>2.4380403458213253</v>
       </c>
       <c r="K42" s="11">
@@ -7041,28 +7509,28 @@
         <v>252</v>
       </c>
       <c r="D50" s="3">
-        <f>131.6*Model!L26</f>
+        <f>131.6*Model!L35</f>
         <v>10274.406800000001</v>
       </c>
       <c r="E50" s="3">
-        <f>73.8*Model!M26</f>
+        <f>73.8*Model!M35</f>
         <v>5362.0865999999996</v>
       </c>
       <c r="F50" s="3">
-        <f>133.3*Model!N26</f>
+        <f>133.3*Model!N35</f>
         <v>9748.3623000000007</v>
       </c>
       <c r="G50" s="3">
-        <f>106.7*Model!O26</f>
+        <f>106.7*Model!O35</f>
         <v>7477.0025000000005</v>
       </c>
       <c r="H50" s="3">
-        <f>113.7*Model!P26</f>
+        <f>113.7*Model!P35</f>
         <v>7436.4348</v>
       </c>
       <c r="I50" s="3">
         <f>Main!H4</f>
-        <v>17263.0980925</v>
+        <v>17053.71740365</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -7070,28 +7538,28 @@
         <v>13</v>
       </c>
       <c r="D51" s="3">
-        <f>(Model!L61+Model!L67+Model!L68+Model!L69-Model!L44-Model!L45)+D50</f>
+        <f>(Model!L71+Model!L77+Model!L78+Model!L79-Model!L54-Model!L55)+D50</f>
         <v>8976.006800000001</v>
       </c>
       <c r="E51" s="3">
-        <f>(Model!M61+Model!M67+Model!M68+Model!M69-Model!M44-Model!M45)+E50</f>
+        <f>(Model!M71+Model!M77+Model!M78+Model!M79-Model!M54-Model!M55)+E50</f>
         <v>5985.0865999999996</v>
       </c>
       <c r="F51" s="3">
-        <f>(Model!N61+Model!N67+Model!N68+Model!N69-Model!N44-Model!N45)+F50</f>
+        <f>(Model!N71+Model!N77+Model!N78+Model!N79-Model!N54-Model!N55)+F50</f>
         <v>9899.2623000000003</v>
       </c>
       <c r="G51" s="3">
-        <f>(Model!O61+Model!O67+Model!O68+Model!O69-Model!O44-Model!O45)+G50</f>
+        <f>(Model!O71+Model!O77+Model!O78+Model!O79-Model!O54-Model!O55)+G50</f>
         <v>7988.7025000000012</v>
       </c>
       <c r="H51" s="3">
-        <f>(Model!P61+Model!P67+Model!P68+Model!P69-Model!P44-Model!P45)+H50</f>
+        <f>(Model!P71+Model!P77+Model!P78+Model!P79-Model!P54-Model!P55)+H50</f>
         <v>8465.6347999999998</v>
       </c>
       <c r="I51" s="3">
         <f>Main!H7</f>
-        <v>18264.198092500003</v>
+        <v>16673.317403649999</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
@@ -7099,32 +7567,32 @@
         <v>253</v>
       </c>
       <c r="D52" s="11">
-        <f>D50/Model!L23</f>
+        <f>D50/Model!L32</f>
         <v>23.844063123694614</v>
       </c>
       <c r="E52" s="11">
-        <f>E50/Model!M23</f>
+        <f>E50/Model!M32</f>
         <v>13.952866510538627</v>
       </c>
       <c r="F52" s="11">
-        <f>F50/Model!N23</f>
+        <f>F50/Model!N32</f>
         <v>-80.498450041288251</v>
       </c>
       <c r="G52" s="11">
-        <f>G50/Model!O23</f>
+        <f>G50/Model!O32</f>
         <v>12.459594234294283</v>
       </c>
       <c r="H52" s="11">
-        <f>H50/Model!P23</f>
+        <f>H50/Model!P32</f>
         <v>14.226965372106363</v>
       </c>
       <c r="I52" s="11">
-        <f>I50/Model!Q23</f>
-        <v>26.710657732477213</v>
+        <f>I50/Model!Q32</f>
+        <v>26.3866894687452</v>
       </c>
       <c r="K52" s="11">
         <f t="shared" ref="K52:K63" si="11">AVERAGE(G52:I52,D52)</f>
-        <v>19.310320115643119</v>
+        <v>19.229328049710116</v>
       </c>
       <c r="L52" s="11">
         <f>MEDIAN(G52:I52,D52:E52)</f>
@@ -7182,28 +7650,28 @@
         <v>72</v>
       </c>
       <c r="E54" s="11">
-        <f>E52/(Model!M23/Model!L23-1)</f>
+        <f>E52/(Model!M32/Model!L32-1)</f>
         <v>-129.01910256204266</v>
       </c>
       <c r="F54" s="11">
-        <f>F52/(Model!N23/Model!M23-1)</f>
+        <f>F52/(Model!N32/Model!M32-1)</f>
         <v>61.210040266852168</v>
       </c>
       <c r="G54" s="11">
-        <f>G52/(Model!O23/Model!N23-1)</f>
+        <f>G52/(Model!O32/Model!N32-1)</f>
         <v>-2.0921476175444211</v>
       </c>
       <c r="H54" s="11">
-        <f>H52/(Model!P23/Model!O23-1)</f>
+        <f>H52/(Model!P32/Model!O32-1)</f>
         <v>-110.30493436435457</v>
       </c>
       <c r="I54" s="11">
-        <f>I52/(Model!Q23/Model!P23-1)</f>
-        <v>112.95842068580887</v>
+        <f>I52/(Model!Q32/Model!P32-1)</f>
+        <v>111.58837043133698</v>
       </c>
       <c r="K54" s="11">
         <f t="shared" si="11"/>
-        <v>0.18711290130329417</v>
+        <v>-0.26957051685400302</v>
       </c>
       <c r="L54" s="11">
         <f t="shared" si="12"/>
@@ -7218,32 +7686,32 @@
         <v>259</v>
       </c>
       <c r="D55" s="11">
-        <f>D50/Model!L83</f>
+        <f>D50/Model!L93</f>
         <v>3.1255800681431003</v>
       </c>
       <c r="E55" s="11">
-        <f>E50/Model!M83</f>
+        <f>E50/Model!M93</f>
         <v>1.9910462292525333</v>
       </c>
       <c r="F55" s="11">
-        <f>F50/Model!N83</f>
+        <f>F50/Model!N93</f>
         <v>3.7430357471970535</v>
       </c>
       <c r="G55" s="11">
-        <f>G50/Model!O83</f>
+        <f>G50/Model!O93</f>
         <v>2.9483448343848582</v>
       </c>
       <c r="H55" s="11">
-        <f>H50/Model!P83</f>
+        <f>H50/Model!P93</f>
         <v>3.0596316807241322</v>
       </c>
       <c r="I55" s="11">
-        <f>I50/Model!Q83</f>
-        <v>7.0452997969636355</v>
+        <f>I50/Model!Q93</f>
+        <v>6.9598487547035042</v>
       </c>
       <c r="K55" s="11">
         <f t="shared" si="11"/>
-        <v>4.0447140950539318</v>
+        <v>4.0233513344888987</v>
       </c>
       <c r="L55" s="11">
         <f t="shared" si="12"/>
@@ -7258,32 +7726,32 @@
         <v>261</v>
       </c>
       <c r="D56" s="11">
-        <f>D50/(Model!L83-Model!L55-Model!L54)</f>
+        <f>D50/(Model!L93-Model!L65-Model!L64)</f>
         <v>4.6619205953083158</v>
       </c>
       <c r="E56" s="11">
-        <f>E50/(Model!M83-Model!M55-Model!M54)</f>
+        <f>E50/(Model!M93-Model!M65-Model!M64)</f>
         <v>3.2763574483685662</v>
       </c>
       <c r="F56" s="11">
-        <f>F50/(Model!N83-Model!N55-Model!N54)</f>
+        <f>F50/(Model!N93-Model!N65-Model!N64)</f>
         <v>6.2945452960547605</v>
       </c>
       <c r="G56" s="11">
-        <f>G50/(Model!O83-Model!O55-Model!O54)</f>
+        <f>G50/(Model!O93-Model!O65-Model!O64)</f>
         <v>4.9048822487536086</v>
       </c>
       <c r="H56" s="11">
-        <f>H50/(Model!P83-Model!P55-Model!P54)</f>
+        <f>H50/(Model!P93-Model!P65-Model!P64)</f>
         <v>5.1545260969016464</v>
       </c>
       <c r="I56" s="11">
-        <f>I50/(Model!Q83-Model!Q55-Model!Q54)</f>
-        <v>11.61325132357887</v>
+        <f>I50/(Model!Q93-Model!Q65-Model!Q64)</f>
+        <v>11.472396504305408</v>
       </c>
       <c r="K56" s="11">
         <f t="shared" si="11"/>
-        <v>6.5836450661356105</v>
+        <v>6.5484313613172453</v>
       </c>
       <c r="L56" s="11">
         <f t="shared" si="12"/>
@@ -7298,32 +7766,32 @@
         <v>263</v>
       </c>
       <c r="D57" s="11">
-        <f>D50/Model!L106</f>
+        <f>D50/Model!L116</f>
         <v>13.108454707833637</v>
       </c>
       <c r="E57" s="11">
-        <f>E50/Model!M106</f>
+        <f>E50/Model!M116</f>
         <v>7.1058661542539054</v>
       </c>
       <c r="F57" s="11">
-        <f>F50/Model!N106</f>
+        <f>F50/Model!N116</f>
         <v>25.592970070884746</v>
       </c>
       <c r="G57" s="11">
-        <f>G50/Model!O106</f>
+        <f>G50/Model!O116</f>
         <v>10.444199608883919</v>
       </c>
       <c r="H57" s="11">
-        <f>H50/Model!P106</f>
+        <f>H50/Model!P116</f>
         <v>18.093515328467145</v>
       </c>
       <c r="I57" s="11">
-        <f>I50/Model!Q106</f>
-        <v>16.13826128120035</v>
+        <f>I50/Model!Q116</f>
+        <v>15.942523514677026</v>
       </c>
       <c r="K57" s="11">
         <f t="shared" si="11"/>
-        <v>14.446107731596262</v>
+        <v>14.397173289965432</v>
       </c>
       <c r="L57" s="11">
         <f t="shared" si="12"/>
@@ -7338,32 +7806,32 @@
         <v>265</v>
       </c>
       <c r="D58" s="11">
-        <f>D50/Model!L10</f>
+        <f>D50/Model!L19</f>
         <v>1.6274998891176937</v>
       </c>
       <c r="E58" s="11">
-        <f>E50/Model!M10</f>
+        <f>E50/Model!M19</f>
         <v>0.87049686678138893</v>
       </c>
       <c r="F58" s="11">
-        <f>F50/Model!N10</f>
+        <f>F50/Model!N19</f>
         <v>2.2151341347027813</v>
       </c>
       <c r="G58" s="11">
-        <f>G50/Model!O10</f>
+        <f>G50/Model!O19</f>
         <v>1.2023803972018976</v>
       </c>
       <c r="H58" s="11">
-        <f>H50/Model!P10</f>
+        <f>H50/Model!P19</f>
         <v>1.154080762306785</v>
       </c>
       <c r="I58" s="11">
-        <f>I50/Model!Q10</f>
-        <v>2.6032358314232291</v>
+        <f>I50/Model!Q19</f>
+        <v>2.5716617009455018</v>
       </c>
       <c r="K58" s="11">
         <f t="shared" si="11"/>
-        <v>1.6467992200124013</v>
+        <v>1.6389056873929695</v>
       </c>
       <c r="L58" s="11">
         <f t="shared" si="12"/>
@@ -7385,32 +7853,32 @@
         <v>268</v>
       </c>
       <c r="D60" s="11">
-        <f>D51/(Model!L17+Model!L91)</f>
+        <f>D51/(Model!L26+Model!L101)</f>
         <v>10.646431977226905</v>
       </c>
       <c r="E60" s="11">
-        <f>E51/(Model!M17+Model!M91)</f>
+        <f>E51/(Model!M26+Model!M101)</f>
         <v>10.204751236146624</v>
       </c>
       <c r="F60" s="11">
-        <f>F51/(Model!N17+Model!N91)</f>
+        <f>F51/(Model!N26+Model!N101)</f>
         <v>48.525795588235276</v>
       </c>
       <c r="G60" s="11">
-        <f>G51/(Model!O17+Model!O91)</f>
+        <f>G51/(Model!O26+Model!O101)</f>
         <v>7.7703555101643813</v>
       </c>
       <c r="H60" s="11">
-        <f>H51/(Model!P17+Model!P91)</f>
+        <f>H51/(Model!P26+Model!P101)</f>
         <v>9.155006813020437</v>
       </c>
       <c r="I60" s="11">
-        <f>I51/(Model!Q17+Model!Q91)</f>
-        <v>18.534806263953744</v>
+        <f>I51/(Model!Q26+Model!Q101)</f>
+        <v>16.920354580525686</v>
       </c>
       <c r="K60" s="11">
         <f t="shared" si="11"/>
-        <v>11.526650141091366</v>
+        <v>11.123037220234352</v>
       </c>
       <c r="L60" s="11">
         <f t="shared" si="12"/>
@@ -7425,32 +7893,32 @@
         <v>269</v>
       </c>
       <c r="D61" s="11">
-        <f>Ratios!D51/Model!L17</f>
+        <f>Ratios!D51/Model!L26</f>
         <v>15.977228195087228</v>
       </c>
       <c r="E61" s="11">
-        <f>Ratios!E51/Model!M17</f>
+        <f>Ratios!E51/Model!M26</f>
         <v>18.880399369085143</v>
       </c>
       <c r="F61" s="11">
-        <f>Ratios!F51/Model!N17</f>
+        <f>Ratios!F51/Model!N26</f>
         <v>-227.04730045871608</v>
       </c>
       <c r="G61" s="11">
-        <f>Ratios!G51/Model!O17</f>
+        <f>Ratios!G51/Model!O26</f>
         <v>10.005889904809619</v>
       </c>
       <c r="H61" s="11">
-        <f>Ratios!H51/Model!P17</f>
+        <f>Ratios!H51/Model!P26</f>
         <v>12.021634194831009</v>
       </c>
       <c r="I61" s="11">
-        <f>Ratios!I51/Model!Q17</f>
-        <v>24.1462164099683</v>
+        <f>Ratios!I51/Model!Q26</f>
+        <v>22.04298969282128</v>
       </c>
       <c r="K61" s="11">
         <f t="shared" si="11"/>
-        <v>15.53774217617404</v>
+        <v>15.011935496887284</v>
       </c>
       <c r="L61" s="11">
         <f t="shared" si="12"/>
@@ -7465,36 +7933,36 @@
         <v>270</v>
       </c>
       <c r="D62" s="11">
-        <f>D51/(Model!L17*(1-Model!L39)+Model!L91+Model!L107+SUM(Model!L99:L105))</f>
+        <f>D51/(Model!L26*(1-Model!L49)+Model!L101+Model!L117+SUM(Model!L109:L115))</f>
         <v>23.749409176237659</v>
       </c>
       <c r="E62" s="11">
-        <f>E51/(Model!M17*(1-Model!M39)+Model!M91+Model!M107+SUM(Model!M99:M105))</f>
+        <f>E51/(Model!M26*(1-Model!M49)+Model!M101+Model!M117+SUM(Model!M109:M115))</f>
         <v>13.668939626752815</v>
       </c>
       <c r="F62" s="11">
-        <f>F51/(Model!N17*(1-Model!N39)+Model!N91+Model!N107+SUM(Model!N99:N105))</f>
+        <f>F51/(Model!N26*(1-Model!N49)+Model!N101+Model!N117+SUM(Model!N109:N115))</f>
         <v>63.68932845888164</v>
       </c>
       <c r="G62" s="11">
-        <f>G51/(Model!O17*(1-Model!O39)+Model!O91+Model!O107+SUM(Model!O99:O105))</f>
+        <f>G51/(Model!O26*(1-Model!O49)+Model!O101+Model!O117+SUM(Model!O109:O115))</f>
         <v>16.436095027550397</v>
       </c>
       <c r="H62" s="11">
-        <f>H51/(Model!P17*(1-Model!P39)+Model!P91+Model!P107+SUM(Model!P99:P105))</f>
+        <f>H51/(Model!P26*(1-Model!P49)+Model!P101+Model!P117+SUM(Model!P109:P115))</f>
         <v>154.91277282965646</v>
       </c>
       <c r="I62" s="11">
-        <f>I51/(Model!Q17*(1-Model!Q39)+Model!Q91+Model!Q107+SUM(Model!Q99:Q105))</f>
-        <v>23.350778856759334</v>
+        <f>I51/(Model!Q26*(1-Model!Q49)+Model!Q101+Model!Q117+SUM(Model!Q109:Q115))</f>
+        <v>21.316837757090688</v>
       </c>
       <c r="K62" s="11">
         <f t="shared" si="11"/>
-        <v>54.61226397255097</v>
+        <v>54.103778697633807</v>
       </c>
       <c r="L62" s="11">
         <f t="shared" si="12"/>
-        <v>23.350778856759334</v>
+        <v>21.316837757090688</v>
       </c>
       <c r="N62" t="s">
         <v>270</v>
@@ -7505,32 +7973,32 @@
         <v>271</v>
       </c>
       <c r="D63" s="11">
-        <f>D51/Model!L10</f>
+        <f>D51/Model!L19</f>
         <v>1.4218290511642644</v>
       </c>
       <c r="E63" s="11">
-        <f>E51/Model!M10</f>
+        <f>E51/Model!M19</f>
         <v>0.97163651417253794</v>
       </c>
       <c r="F63" s="11">
-        <f>F51/Model!N10</f>
+        <f>F51/Model!N19</f>
         <v>2.2494233548445739</v>
       </c>
       <c r="G63" s="11">
-        <f>G51/Model!O10</f>
+        <f>G51/Model!O19</f>
         <v>1.2846671222963739</v>
       </c>
       <c r="H63" s="11">
-        <f>H51/Model!P10</f>
+        <f>H51/Model!P19</f>
         <v>1.3138051399838599</v>
       </c>
       <c r="I63" s="11">
-        <f>I51/Model!Q10</f>
-        <v>2.7541994288536364</v>
+        <f>I51/Model!Q19</f>
+        <v>2.5142982482809058</v>
       </c>
       <c r="K63" s="11">
         <f t="shared" si="11"/>
-        <v>1.6936251855745339</v>
+        <v>1.633649890431351</v>
       </c>
       <c r="L63" s="11">
         <f t="shared" si="12"/>

--- a/RL.xlsx
+++ b/RL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B477FC-1BF2-4E99-ADC3-FAB0BFFA56E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9297CC-97CB-48B2-9F30-E07E5B474DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{964FB9B6-5A0B-4BED-B971-24C834B20146}"/>
+    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{964FB9B6-5A0B-4BED-B971-24C834B20146}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -971,7 +971,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,17 +980,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1004,20 +1002,32 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1039,55 +1049,56 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1120,7 +1131,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>33007</xdr:rowOff>
+      <xdr:rowOff>147307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1481,54 +1492,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB65CDE8-C26A-4808-A8C2-0F2D976889B8}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>298.52</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
         <v>301</v>
       </c>
       <c r="H3" s="3">
         <f>38.693006+21.881276</f>
         <v>60.574281999999997</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="G4" t="s">
+      <c r="C4" s="5"/>
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="3">
@@ -1536,42 +1550,42 @@
         <v>18082.634662639997</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="G5" t="s">
+      <c r="C5" s="5"/>
+      <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="3">
         <f>2090.2+186.6</f>
         <v>2276.7999999999997</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="3">
         <f>1237.2+399.8+230.4</f>
         <v>1867.4</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="4" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="3">
@@ -1579,244 +1593,244 @@
         <v>18492.034662639995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J9" s="6" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J9" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J10" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1836,595 +1850,597 @@
   <dimension ref="A1:AD135"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="2" customWidth="1"/>
+    <col min="3" max="15" width="9.140625" style="2"/>
     <col min="16" max="22" width="8.7109375" style="3"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C2" s="12" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12" t="s">
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
         <v>228</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4">
         <v>225</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4">
         <v>239</v>
       </c>
-      <c r="V3" s="12">
+      <c r="V3" s="4">
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
         <v>103</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
         <v>106</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12">
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4">
         <v>103</v>
       </c>
-      <c r="V4" s="12">
+      <c r="V4" s="4">
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>234</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4">
         <v>238</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4">
         <v>231</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="4">
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <f>+SUM(G3:G5)</f>
         <v>565</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
         <f>+SUM(K3:K5)</f>
         <v>569</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12">
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4">
         <v>232</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="4">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>697</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12">
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4">
         <v>332</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="4">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="11">
         <f t="shared" ref="C8:N8" si="0">+C6+C7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>1262</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="11">
         <f t="shared" si="0"/>
         <v>569</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23">
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11">
         <f t="shared" ref="T8:U8" si="1">+T6+T7</f>
         <v>0</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="11">
         <f t="shared" si="1"/>
         <v>564</v>
       </c>
-      <c r="V8" s="23">
+      <c r="V8" s="11">
         <f>+V6+V7</f>
         <v>564</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4">
         <v>665</v>
       </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12">
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4">
         <v>699</v>
       </c>
-      <c r="V9" s="12">
+      <c r="V9" s="4">
         <v>671</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
         <f>+K8+K9</f>
         <v>1234</v>
       </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4">
         <v>100</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="4">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12">
         <v>933.3</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="12">
         <v>667.7</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="12">
         <v>608.20000000000005</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19">
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
         <v>997.7</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="12">
         <v>704.7</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="12">
         <v>656.2</v>
       </c>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
       <c r="U12" s="3">
         <v>2905.5</v>
       </c>
       <c r="V12" s="3">
         <v>3050.1</v>
       </c>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12">
         <v>521.5</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="12">
         <v>469.2</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="12">
         <v>479.1</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12">
         <v>604.4</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="12">
         <v>525.5</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="12">
         <v>554.5</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
       <c r="U13" s="3">
         <v>1968</v>
       </c>
       <c r="V13" s="3">
         <v>2174.9</v>
       </c>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
         <v>446.4</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="12">
         <v>394.3</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="12">
         <v>390.9</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19">
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
         <v>506.7</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="12">
         <v>431.6</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="12">
         <v>474</v>
       </c>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
       <c r="U14" s="3">
         <v>1566.6</v>
       </c>
       <c r="V14" s="3">
         <v>1709.4</v>
       </c>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12">
         <v>32.799999999999997</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="12">
         <v>36.700000000000003</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="12">
         <v>34</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19">
+      <c r="H15" s="12"/>
+      <c r="I15" s="12">
         <v>34.700000000000003</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="12">
         <v>35.5</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="12">
         <v>34.4</v>
       </c>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
       <c r="U15" s="3">
         <v>146.30000000000001</v>
       </c>
       <c r="V15" s="3">
         <v>144.6</v>
       </c>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12">
         <v>1415.8</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="12">
         <v>951.1</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="12">
         <v>1032.5999999999999</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12">
         <v>1581.8</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="12">
         <v>1509.3</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="12">
         <v>1201.2</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3">
         <v>3747.8</v>
@@ -2447,37 +2463,37 @@
       <c r="V16" s="3">
         <v>4770.1000000000004</v>
       </c>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19">
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
         <v>485.4</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="12">
         <v>580.1</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="12">
         <v>445.6</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19">
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
         <v>527</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="12">
         <v>602.5</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="12">
         <v>483.5</v>
       </c>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3">
         <v>2392.5</v>
@@ -2500,37 +2516,37 @@
       <c r="V17" s="3">
         <v>2164.3000000000002</v>
       </c>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19">
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
         <v>32.799999999999997</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="12">
         <v>36.700000000000003</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="12">
         <v>34</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19">
+      <c r="H18" s="12"/>
+      <c r="I18" s="12">
         <v>34.700000000000003</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="12">
         <v>35.5</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="12">
         <v>34.4</v>
       </c>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3">
         <v>172.7</v>
@@ -2553,1949 +2569,1949 @@
       <c r="V18" s="3">
         <v>144.6</v>
       </c>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="2" t="s">
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
         <v>1934</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="13">
         <v>1567.9</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="13">
         <v>1512.2</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13">
         <v>2143.5</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="13">
         <v>1697.3</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="13">
         <v>1719.1</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20">
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13">
         <v>6313</v>
       </c>
-      <c r="Q19" s="20">
+      <c r="Q19" s="13">
         <v>6159.8</v>
       </c>
-      <c r="R19" s="20">
+      <c r="R19" s="13">
         <v>4400.8</v>
       </c>
-      <c r="S19" s="20">
+      <c r="S19" s="13">
         <v>6218.5</v>
       </c>
-      <c r="T19" s="20">
+      <c r="T19" s="13">
         <v>6443.6</v>
       </c>
-      <c r="U19" s="20">
+      <c r="U19" s="13">
         <v>6631.4</v>
       </c>
-      <c r="V19" s="20">
+      <c r="V19" s="13">
         <v>7079</v>
       </c>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12">
         <v>648</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="12">
         <v>524.20000000000005</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="12">
         <v>446.4</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12">
         <v>677.4</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="12">
         <v>532</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="12">
         <v>476.8</v>
       </c>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12">
         <v>2427</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="12">
         <v>2506.5</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R20" s="12">
         <v>1539.4</v>
       </c>
-      <c r="S20" s="19">
+      <c r="S20" s="12">
         <v>2071</v>
       </c>
-      <c r="T20" s="19">
+      <c r="T20" s="12">
         <v>2277.8000000000002</v>
       </c>
-      <c r="U20" s="19">
+      <c r="U20" s="12">
         <v>2199.6</v>
       </c>
-      <c r="V20" s="19">
+      <c r="V20" s="12">
         <v>2226.1</v>
       </c>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="19"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="12">
         <f t="shared" ref="C21:D21" si="2">+C19-C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="12">
         <f>+E19-E20</f>
         <v>1286</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="12">
         <f t="shared" ref="F21:K21" si="3">+F19-F20</f>
         <v>1043.7</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="12">
         <f t="shared" si="3"/>
         <v>1065.8000000000002</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="12">
         <f t="shared" si="3"/>
         <v>1466.1</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="12">
         <f t="shared" si="3"/>
         <v>1165.3</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="12">
         <f t="shared" si="3"/>
         <v>1242.3</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12">
         <f t="shared" ref="P21:T21" si="4">P19-P20</f>
         <v>3886</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="12">
         <f t="shared" si="4"/>
         <v>3653.3</v>
       </c>
-      <c r="R21" s="19">
+      <c r="R21" s="12">
         <f t="shared" si="4"/>
         <v>2861.4</v>
       </c>
-      <c r="S21" s="19">
+      <c r="S21" s="12">
         <f t="shared" si="4"/>
         <v>4147.5</v>
       </c>
-      <c r="T21" s="19">
+      <c r="T21" s="12">
         <f t="shared" si="4"/>
         <v>4165.8</v>
       </c>
-      <c r="U21" s="19">
+      <c r="U21" s="12">
         <f>U19-U20</f>
         <v>4431.7999999999993</v>
       </c>
-      <c r="V21" s="19">
+      <c r="V21" s="12">
         <f>V19-V20</f>
         <v>4852.8999999999996</v>
       </c>
-      <c r="W21" s="19"/>
-      <c r="X21" s="19"/>
-      <c r="Y21" s="19"/>
-      <c r="Z21" s="19"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12">
         <v>967.6</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="12">
         <v>906.6</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="12">
         <v>849.9</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19">
+      <c r="H22" s="12"/>
+      <c r="I22" s="12">
         <v>1064.2</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="12">
         <v>990.5</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="12">
         <v>949.4</v>
       </c>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12">
         <v>3168.3</v>
       </c>
-      <c r="Q22" s="19">
+      <c r="Q22" s="12">
         <v>3237.5</v>
       </c>
-      <c r="R22" s="19">
+      <c r="R22" s="12">
         <v>2638.5</v>
       </c>
-      <c r="S22" s="19">
+      <c r="S22" s="12">
         <v>3305.6</v>
       </c>
-      <c r="T22" s="19">
+      <c r="T22" s="12">
         <v>3408.9</v>
       </c>
-      <c r="U22" s="19">
+      <c r="U22" s="12">
         <v>3600.5</v>
       </c>
-      <c r="V22" s="19">
+      <c r="V22" s="12">
         <v>3863</v>
       </c>
-      <c r="W22" s="19"/>
-      <c r="X22" s="19"/>
-      <c r="Y22" s="19"/>
-      <c r="Z22" s="19"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
         <v>0</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="12">
         <v>0</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="12">
         <v>0</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19">
+      <c r="H23" s="12"/>
+      <c r="I23" s="12">
         <v>0</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="12">
         <v>0.8</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="12">
         <v>0</v>
       </c>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19">
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12">
         <v>25.8</v>
       </c>
-      <c r="Q23" s="19">
+      <c r="Q23" s="12">
         <v>31.6</v>
       </c>
-      <c r="R23" s="19">
+      <c r="R23" s="12">
         <v>96</v>
       </c>
-      <c r="S23" s="19">
+      <c r="S23" s="12">
         <v>21.3</v>
       </c>
-      <c r="T23" s="19">
+      <c r="T23" s="12">
         <v>9.6999999999999993</v>
       </c>
-      <c r="U23" s="19">
+      <c r="U23" s="12">
         <v>0</v>
       </c>
-      <c r="V23" s="19">
+      <c r="V23" s="12">
         <v>0.8</v>
       </c>
-      <c r="W23" s="19"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="19"/>
-      <c r="Z23" s="19"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
         <v>0.7</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="12">
         <v>29.3</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="12">
         <v>7.4</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19">
+      <c r="H24" s="12"/>
+      <c r="I24" s="12">
         <v>12.2</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="12">
         <v>19</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="12">
         <v>19.3</v>
       </c>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19">
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12">
         <v>130.1</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="12">
         <v>67.2</v>
       </c>
-      <c r="R24" s="19">
+      <c r="R24" s="12">
         <v>170.5</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24" s="12">
         <v>22.2</v>
       </c>
-      <c r="T24" s="19">
+      <c r="T24" s="12">
         <v>43</v>
       </c>
-      <c r="U24" s="19">
+      <c r="U24" s="12">
         <v>74.900000000000006</v>
       </c>
-      <c r="V24" s="19">
+      <c r="V24" s="12">
         <v>57</v>
       </c>
-      <c r="W24" s="19"/>
-      <c r="X24" s="19"/>
-      <c r="Y24" s="19"/>
-      <c r="Z24" s="19"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="12">
         <f t="shared" ref="C25:K25" si="5">SUM(C22:C24)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="12">
         <f t="shared" si="5"/>
         <v>968.30000000000007</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="12">
         <f t="shared" si="5"/>
         <v>935.9</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="12">
         <f t="shared" si="5"/>
         <v>857.3</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="12">
         <f t="shared" si="5"/>
         <v>1076.4000000000001</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="12">
         <f t="shared" si="5"/>
         <v>1010.3</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="12">
         <f t="shared" si="5"/>
         <v>968.69999999999993</v>
       </c>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19">
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12">
         <f t="shared" ref="P25:T25" si="6">SUM(P22:P24)</f>
         <v>3324.2000000000003</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="12">
         <f t="shared" si="6"/>
         <v>3336.2999999999997</v>
       </c>
-      <c r="R25" s="19">
+      <c r="R25" s="12">
         <f t="shared" si="6"/>
         <v>2905</v>
       </c>
-      <c r="S25" s="19">
+      <c r="S25" s="12">
         <f t="shared" si="6"/>
         <v>3349.1</v>
       </c>
-      <c r="T25" s="19">
+      <c r="T25" s="12">
         <f t="shared" si="6"/>
         <v>3461.6</v>
       </c>
-      <c r="U25" s="19">
+      <c r="U25" s="12">
         <f>SUM(U22:U24)</f>
         <v>3675.4</v>
       </c>
-      <c r="V25" s="19">
+      <c r="V25" s="12">
         <f>SUM(V22:V24)</f>
         <v>3920.8</v>
       </c>
-      <c r="W25" s="19"/>
-      <c r="X25" s="19"/>
-      <c r="Y25" s="19"/>
-      <c r="Z25" s="19"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="12">
         <f t="shared" ref="C26:J26" si="7">C21-C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="12">
         <f t="shared" si="7"/>
         <v>317.69999999999993</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="12">
         <f t="shared" si="7"/>
         <v>107.80000000000007</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="12">
         <f t="shared" si="7"/>
         <v>208.50000000000023</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="12">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="12">
         <f t="shared" si="7"/>
         <v>389.69999999999982</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="12">
         <f t="shared" si="7"/>
         <v>155</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="12">
         <v>273.60000000000002</v>
       </c>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19">
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12">
         <f t="shared" ref="P26:T26" si="8">P21-P25</f>
         <v>561.79999999999973</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="12">
         <f t="shared" si="8"/>
         <v>317.00000000000045</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R26" s="12">
         <f t="shared" si="8"/>
         <v>-43.599999999999909</v>
       </c>
-      <c r="S26" s="19">
+      <c r="S26" s="12">
         <f t="shared" si="8"/>
         <v>798.40000000000009</v>
       </c>
-      <c r="T26" s="19">
+      <c r="T26" s="12">
         <f t="shared" si="8"/>
         <v>704.20000000000027</v>
       </c>
-      <c r="U26" s="19">
+      <c r="U26" s="12">
         <f>U21-U25</f>
         <v>756.39999999999918</v>
       </c>
-      <c r="V26" s="19">
+      <c r="V26" s="12">
         <f>V21-V25</f>
         <v>932.09999999999945</v>
       </c>
-      <c r="W26" s="19"/>
-      <c r="X26" s="19"/>
-      <c r="Y26" s="19"/>
-      <c r="Z26" s="19"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12">
         <v>10.6</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="12">
         <v>11.6</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="12">
         <v>10.9</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12">
         <v>11.6</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="12">
         <v>11.5</v>
       </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19">
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12">
         <v>20.7</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="12">
         <v>17.600000000000001</v>
       </c>
-      <c r="R27" s="19">
+      <c r="R27" s="12">
         <v>48.5</v>
       </c>
-      <c r="S27" s="19">
+      <c r="S27" s="12">
         <v>54</v>
       </c>
-      <c r="T27" s="19">
+      <c r="T27" s="12">
         <v>40.4</v>
       </c>
-      <c r="U27" s="19">
+      <c r="U27" s="12">
         <v>42.2</v>
       </c>
-      <c r="V27" s="19">
+      <c r="V27" s="12">
         <v>44.1</v>
       </c>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12">
         <v>20.7</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="12">
         <v>20.8</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="12">
         <v>20.100000000000001</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19">
+      <c r="H28" s="12"/>
+      <c r="I28" s="12">
         <v>17.8</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="12">
         <v>18.2</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="12">
         <v>14.8</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12">
         <v>40.799999999999997</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="Q28" s="12">
         <v>34.4</v>
       </c>
-      <c r="R28" s="19">
+      <c r="R28" s="12">
         <v>9.6999999999999993</v>
       </c>
-      <c r="S28" s="19">
+      <c r="S28" s="12">
         <v>5.5</v>
       </c>
-      <c r="T28" s="19">
+      <c r="T28" s="12">
         <v>32.200000000000003</v>
       </c>
-      <c r="U28" s="19">
+      <c r="U28" s="12">
         <v>73</v>
       </c>
-      <c r="V28" s="19">
+      <c r="V28" s="12">
         <v>74</v>
       </c>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="19"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12">
         <v>2</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="12">
         <v>-5.5</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="12">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19">
+      <c r="H29" s="12"/>
+      <c r="I29" s="12">
         <v>-12.2</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="12">
         <v>-0.7</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19">
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12">
         <v>0.6</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="Q29" s="12">
         <v>-7.4</v>
       </c>
-      <c r="R29" s="19">
+      <c r="R29" s="12">
         <v>7.6</v>
       </c>
-      <c r="S29" s="19">
+      <c r="S29" s="12">
         <v>4.7</v>
       </c>
-      <c r="T29" s="19">
+      <c r="T29" s="12">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="U29" s="19">
+      <c r="U29" s="12">
         <v>-9.8000000000000007</v>
       </c>
-      <c r="V29" s="19">
+      <c r="V29" s="12">
         <v>-11.3</v>
       </c>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="19"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="19">
-        <f t="shared" ref="C30:K31" si="9">C26-C27+C28+C29</f>
+      <c r="C30" s="12">
+        <f t="shared" ref="C30:K30" si="9">C26-C27+C28+C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="12">
         <f t="shared" si="9"/>
         <v>329.7999999999999</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="12">
         <f t="shared" si="9"/>
         <v>111.50000000000007</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="12">
         <f t="shared" si="9"/>
         <v>216.60000000000022</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="12">
         <f t="shared" si="9"/>
         <v>383.69999999999982</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="12">
         <f t="shared" si="9"/>
         <v>162.30000000000001</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="12">
         <f t="shared" si="9"/>
         <v>278.00000000000006</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19">
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12">
         <f t="shared" ref="P30:T30" si="10">P26-P27+P28+P29</f>
         <v>582.49999999999966</v>
       </c>
-      <c r="Q30" s="19">
+      <c r="Q30" s="12">
         <f t="shared" si="10"/>
         <v>326.40000000000043</v>
       </c>
-      <c r="R30" s="19">
+      <c r="R30" s="12">
         <f t="shared" si="10"/>
         <v>-74.799999999999912</v>
       </c>
-      <c r="S30" s="19">
+      <c r="S30" s="12">
         <f t="shared" si="10"/>
         <v>754.60000000000014</v>
       </c>
-      <c r="T30" s="19">
+      <c r="T30" s="12">
         <f t="shared" si="10"/>
         <v>691.90000000000032</v>
       </c>
-      <c r="U30" s="19">
+      <c r="U30" s="12">
         <f>U26-U27+U28+U29</f>
         <v>777.39999999999918</v>
       </c>
-      <c r="V30" s="19">
+      <c r="V30" s="12">
         <f>V26-V27+V28+V29</f>
         <v>950.69999999999948</v>
       </c>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="19"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12">
         <v>53.2</v>
       </c>
-      <c r="F31" s="19">
+      <c r="F31" s="12">
         <v>20.8</v>
       </c>
-      <c r="G31" s="19">
+      <c r="G31" s="12">
         <v>48</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19">
+      <c r="H31" s="12"/>
+      <c r="I31" s="12">
         <v>86.3</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="12">
         <v>33.299999999999997</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="12">
         <v>57.6</v>
       </c>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19">
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12">
         <v>151.6</v>
       </c>
-      <c r="Q31" s="19">
+      <c r="Q31" s="12">
         <v>-57.9</v>
       </c>
-      <c r="R31" s="19">
+      <c r="R31" s="12">
         <v>46.3</v>
       </c>
-      <c r="S31" s="19">
+      <c r="S31" s="12">
         <v>154.5</v>
       </c>
-      <c r="T31" s="19">
+      <c r="T31" s="12">
         <v>169.2</v>
       </c>
-      <c r="U31" s="19">
+      <c r="U31" s="12">
         <v>131.1</v>
       </c>
-      <c r="V31" s="19">
+      <c r="V31" s="12">
         <v>207.8</v>
       </c>
-      <c r="W31" s="19"/>
-      <c r="X31" s="19"/>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="12">
         <f t="shared" ref="C32:K32" si="11">C30-C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="12">
         <f t="shared" si="11"/>
         <v>276.59999999999991</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="12">
         <f t="shared" si="11"/>
         <v>90.700000000000074</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="12">
         <f t="shared" si="11"/>
         <v>168.60000000000022</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="12">
         <f t="shared" si="11"/>
         <v>297.39999999999981</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="12">
         <f t="shared" si="11"/>
         <v>129</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="12">
         <f t="shared" si="11"/>
         <v>220.40000000000006</v>
       </c>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19">
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12">
         <f t="shared" ref="P32:T32" si="12">P30-P31</f>
         <v>430.89999999999964</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="Q32" s="12">
         <f t="shared" si="12"/>
         <v>384.30000000000041</v>
       </c>
-      <c r="R32" s="19">
+      <c r="R32" s="12">
         <f t="shared" si="12"/>
         <v>-121.09999999999991</v>
       </c>
-      <c r="S32" s="19">
+      <c r="S32" s="12">
         <f t="shared" si="12"/>
         <v>600.10000000000014</v>
       </c>
-      <c r="T32" s="19">
+      <c r="T32" s="12">
         <f t="shared" si="12"/>
         <v>522.70000000000027</v>
       </c>
-      <c r="U32" s="19">
+      <c r="U32" s="12">
         <f>U30-U31</f>
         <v>646.29999999999916</v>
       </c>
-      <c r="V32" s="19">
+      <c r="V32" s="12">
         <f>V30-V31</f>
         <v>742.89999999999941</v>
       </c>
-      <c r="W32" s="19"/>
-      <c r="X32" s="19"/>
-      <c r="Y32" s="19"/>
-      <c r="Z32" s="19"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="21" t="e">
+      <c r="C34" s="14" t="e">
         <f t="shared" ref="C34:H34" si="13">+C32/C35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D34" s="21" t="e">
+      <c r="D34" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="14">
         <f t="shared" si="13"/>
         <v>4.2553846153846138</v>
       </c>
-      <c r="F34" s="21" t="e">
+      <c r="F34" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="14">
         <f t="shared" si="13"/>
         <v>2.6677215189873453</v>
       </c>
-      <c r="H34" s="21" t="e">
+      <c r="H34" s="14" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="14">
         <f>+I32/I35</f>
         <v>4.7583999999999973</v>
       </c>
-      <c r="J34" s="21" t="e">
+      <c r="J34" s="14" t="e">
         <f t="shared" ref="J34:K34" si="14">+J32/J35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="21">
+      <c r="K34" s="14">
         <f t="shared" si="14"/>
         <v>3.6131147540983615</v>
       </c>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19">
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12">
         <f t="shared" ref="P34:U34" si="15">P32/P35</f>
         <v>5.5191935752436772</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="Q34" s="12">
         <f t="shared" si="15"/>
         <v>5.2892357240183383</v>
       </c>
-      <c r="R34" s="19">
+      <c r="R34" s="12">
         <f t="shared" si="15"/>
         <v>-1.6559325046833751</v>
       </c>
-      <c r="S34" s="19">
+      <c r="S34" s="12">
         <f t="shared" si="15"/>
         <v>8.5636817695326446</v>
       </c>
-      <c r="T34" s="19">
+      <c r="T34" s="12">
         <f t="shared" si="15"/>
         <v>7.9918659409210493</v>
       </c>
-      <c r="U34" s="19">
+      <c r="U34" s="12">
         <f t="shared" si="15"/>
         <v>10.669544543672828</v>
       </c>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="19"/>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12">
         <v>65</v>
       </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19">
+      <c r="F35" s="12"/>
+      <c r="G35" s="12">
         <v>63.2</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19">
+      <c r="H35" s="12"/>
+      <c r="I35" s="12">
         <v>62.5</v>
       </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19">
+      <c r="J35" s="12"/>
+      <c r="K35" s="12">
         <v>61</v>
       </c>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19">
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12">
         <f>52.192+25.881</f>
         <v>78.073000000000008</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q35" s="12">
         <f>47.777+24.88^1</f>
         <v>72.656999999999996</v>
       </c>
-      <c r="R35" s="19">
+      <c r="R35" s="12">
         <f>48.25+24.881</f>
         <v>73.131</v>
       </c>
-      <c r="S35" s="19">
+      <c r="S35" s="12">
         <f>45.194+24.881</f>
         <v>70.075000000000003</v>
       </c>
-      <c r="T35" s="19">
+      <c r="T35" s="12">
         <f>40.523+24.881</f>
         <v>65.403999999999996</v>
       </c>
-      <c r="U35" s="19">
+      <c r="U35" s="12">
         <v>60.574281999999997</v>
       </c>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="19"/>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="7" t="e">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="15" t="e">
         <f t="shared" ref="T37:U37" si="16">+T8/S8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U37" s="7" t="e">
+      <c r="U37" s="15" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V37" s="7">
+      <c r="V37" s="15">
         <f>+V8/U8-1</f>
         <v>0</v>
       </c>
-      <c r="W37" s="19"/>
-      <c r="X37" s="19"/>
-      <c r="Y37" s="19"/>
-      <c r="Z37" s="19"/>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="10" t="e">
+      <c r="G38" s="17" t="e">
         <f t="shared" ref="G38:J45" si="17">+G12/C12-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="10" t="e">
+      <c r="H38" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="17">
         <f t="shared" si="17"/>
         <v>6.9002464373727701E-2</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="17">
         <f t="shared" si="17"/>
         <v>5.541410813239489E-2</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="22" t="s">
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q38" s="7" t="e">
+      <c r="Q38" s="15" t="e">
         <f t="shared" ref="Q38:V41" si="18">Q12/P12-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R38" s="7" t="e">
+      <c r="R38" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S38" s="7" t="e">
+      <c r="S38" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T38" s="7" t="e">
+      <c r="T38" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U38" s="7" t="e">
+      <c r="U38" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V38" s="7">
+      <c r="V38" s="15">
         <f t="shared" si="18"/>
         <v>4.9767681982447076E-2</v>
       </c>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-    </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G39" s="10" t="e">
+      <c r="G39" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="10" t="e">
+      <c r="H39" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="17">
         <f t="shared" si="17"/>
         <v>0.1589645254074783</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="17">
         <f t="shared" si="17"/>
         <v>0.11999147485080996</v>
       </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="22" t="s">
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q39" s="7" t="e">
+      <c r="Q39" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R39" s="7" t="e">
+      <c r="R39" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S39" s="7" t="e">
+      <c r="S39" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T39" s="7" t="e">
+      <c r="T39" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U39" s="7" t="e">
+      <c r="U39" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V39" s="7">
+      <c r="V39" s="15">
         <f t="shared" si="18"/>
         <v>0.1051321138211383</v>
       </c>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G40" s="10" t="e">
+      <c r="G40" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="10" t="e">
+      <c r="H40" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="17">
         <f t="shared" si="17"/>
         <v>0.13508064516129026</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="17">
         <f t="shared" si="17"/>
         <v>9.4598021810804012E-2</v>
       </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="22" t="s">
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q40" s="7" t="e">
+      <c r="Q40" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R40" s="7" t="e">
+      <c r="R40" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S40" s="7" t="e">
+      <c r="S40" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T40" s="7" t="e">
+      <c r="T40" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U40" s="7" t="e">
+      <c r="U40" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V40" s="7">
+      <c r="V40" s="15">
         <f t="shared" si="18"/>
         <v>9.1152815013404886E-2</v>
       </c>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="19"/>
-      <c r="Z40" s="19"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="10" t="e">
+      <c r="G41" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="10" t="e">
+      <c r="H41" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="17">
         <f t="shared" si="17"/>
         <v>5.7926829268292845E-2</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="17">
         <f t="shared" si="17"/>
         <v>-3.2697547683923744E-2</v>
       </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="22" t="s">
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q41" s="7" t="e">
+      <c r="Q41" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" s="7" t="e">
+      <c r="R41" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S41" s="7" t="e">
+      <c r="S41" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T41" s="7" t="e">
+      <c r="T41" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U41" s="7" t="e">
+      <c r="U41" s="15" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V41" s="7">
+      <c r="V41" s="15">
         <f t="shared" si="18"/>
         <v>-1.1619958988380197E-2</v>
       </c>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G42" s="10" t="e">
+      <c r="G42" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="10" t="e">
+      <c r="H42" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="17">
         <f t="shared" si="17"/>
         <v>0.11724819889814952</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="17">
         <f t="shared" si="17"/>
         <v>0.58689937966565031</v>
       </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="22" t="s">
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="15">
         <f>Q16/P16-1</f>
         <v>-1.8410801003255761E-3</v>
       </c>
-      <c r="R42" s="7">
+      <c r="R42" s="15">
         <f t="shared" ref="R42:V42" si="19">R16/Q16-1</f>
         <v>-0.25691678473094703</v>
       </c>
-      <c r="S42" s="7">
+      <c r="S42" s="15">
         <f t="shared" si="19"/>
         <v>0.41790776314842781</v>
       </c>
-      <c r="T42" s="7">
+      <c r="T42" s="15">
         <f t="shared" si="19"/>
         <v>2.831409361918058E-2</v>
       </c>
-      <c r="U42" s="7">
+      <c r="U42" s="15">
         <f t="shared" si="19"/>
         <v>7.3499296834521832E-2</v>
       </c>
-      <c r="V42" s="7">
+      <c r="V42" s="15">
         <f t="shared" si="19"/>
         <v>9.632268444035863E-2</v>
       </c>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G43" s="10" t="e">
+      <c r="G43" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="10" t="e">
+      <c r="H43" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="17">
         <f t="shared" si="17"/>
         <v>8.5702513391017865E-2</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="17">
         <f t="shared" si="17"/>
         <v>3.8614032063437387E-2</v>
       </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="22" t="s">
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="15">
         <f>Q17/P17-1</f>
         <v>-5.9226750261232919E-2</v>
       </c>
-      <c r="R43" s="7">
+      <c r="R43" s="15">
         <f t="shared" ref="R43:V45" si="20">R17/Q17-1</f>
         <v>-0.33419228718677818</v>
       </c>
-      <c r="S43" s="7">
+      <c r="S43" s="15">
         <f t="shared" si="20"/>
         <v>0.41952488989723768</v>
       </c>
-      <c r="T43" s="7">
+      <c r="T43" s="15">
         <f t="shared" si="20"/>
         <v>4.9828421003149437E-2</v>
       </c>
-      <c r="U43" s="7">
+      <c r="U43" s="15">
         <f t="shared" si="20"/>
         <v>-4.4418573411543538E-2</v>
       </c>
-      <c r="V43" s="7">
+      <c r="V43" s="15">
         <f t="shared" si="20"/>
         <v>1.4151164425284746E-2</v>
       </c>
-      <c r="W43" s="19"/>
-      <c r="X43" s="19"/>
-      <c r="Y43" s="19"/>
-      <c r="Z43" s="19"/>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G44" s="10" t="e">
+      <c r="G44" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="10" t="e">
+      <c r="H44" s="17" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="17">
         <f t="shared" si="17"/>
         <v>5.7926829268292845E-2</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="17">
         <f t="shared" si="17"/>
         <v>-3.2697547683923744E-2</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="22" t="s">
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="15">
         <f>Q18/P18-1</f>
         <v>-2.6635784597567991E-2</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="15">
         <f t="shared" si="20"/>
         <v>-0.27186198691255203</v>
       </c>
-      <c r="S44" s="7">
+      <c r="S44" s="15">
         <f t="shared" si="20"/>
         <v>0.22303921568627438</v>
       </c>
-      <c r="T44" s="7">
+      <c r="T44" s="15">
         <f t="shared" si="20"/>
         <v>5.0100200400801542E-2</v>
       </c>
-      <c r="U44" s="7">
+      <c r="U44" s="15">
         <f t="shared" si="20"/>
         <v>-6.9338422391857391E-2</v>
       </c>
-      <c r="V44" s="7">
+      <c r="V44" s="15">
         <f t="shared" si="20"/>
         <v>-1.1619958988380197E-2</v>
       </c>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D45" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="24" t="s">
+      <c r="F45" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="25" t="e">
+      <c r="G45" s="19" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="25" t="e">
+      <c r="H45" s="19" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I45" s="25">
+      <c r="I45" s="19">
         <f t="shared" si="17"/>
         <v>0.1083247156153051</v>
       </c>
-      <c r="J45" s="25">
+      <c r="J45" s="19">
         <f t="shared" si="17"/>
         <v>8.2530773646278366E-2</v>
       </c>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="24" t="s">
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="Q45" s="26">
+      <c r="Q45" s="20">
         <f>Q19/P19-1</f>
         <v>-2.4267384761603061E-2</v>
       </c>
-      <c r="R45" s="26">
+      <c r="R45" s="20">
         <f t="shared" si="20"/>
         <v>-0.28556121952011426</v>
       </c>
-      <c r="S45" s="26">
+      <c r="S45" s="20">
         <f t="shared" si="20"/>
         <v>0.413038538447555</v>
       </c>
-      <c r="T45" s="26">
+      <c r="T45" s="20">
         <f t="shared" si="20"/>
         <v>3.6198440138297094E-2</v>
       </c>
-      <c r="U45" s="26">
+      <c r="U45" s="20">
         <f t="shared" si="20"/>
         <v>2.9145198336333555E-2</v>
       </c>
-      <c r="V45" s="26">
+      <c r="V45" s="20">
         <f t="shared" si="20"/>
         <v>6.7497059444461271E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="7" t="e">
+      <c r="C46" s="15" t="e">
         <f t="shared" ref="C46:J46" si="21">C21/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D46" s="7" t="e">
+      <c r="D46" s="15" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="15">
         <f t="shared" si="21"/>
         <v>0.66494312306101344</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="15">
         <f t="shared" si="21"/>
         <v>0.66566745328145926</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="15">
         <f t="shared" si="21"/>
         <v>0.70480095225499284</v>
       </c>
-      <c r="H46" s="7" t="e">
+      <c r="H46" s="15" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="15">
         <f t="shared" si="21"/>
         <v>0.68397480755773266</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="15">
         <f t="shared" si="21"/>
         <v>0.68656100866081426</v>
       </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="P46" s="7">
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="P46" s="15">
         <f t="shared" ref="P46:U46" si="22">P21/P19</f>
         <v>0.61555520354823379</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="15">
         <f t="shared" si="22"/>
         <v>0.59308743790382801</v>
       </c>
-      <c r="R46" s="7">
+      <c r="R46" s="15">
         <f t="shared" si="22"/>
         <v>0.65019996364297394</v>
       </c>
-      <c r="S46" s="7">
+      <c r="S46" s="15">
         <f t="shared" si="22"/>
         <v>0.66696148588887993</v>
       </c>
-      <c r="T46" s="7">
+      <c r="T46" s="15">
         <f t="shared" si="22"/>
         <v>0.64650195542864242</v>
       </c>
-      <c r="U46" s="7">
+      <c r="U46" s="15">
         <f t="shared" si="22"/>
         <v>0.66830533522333135</v>
       </c>
-      <c r="V46" s="7">
+      <c r="V46" s="15">
         <f t="shared" ref="V46" si="23">V21/V19</f>
         <v>0.68553468003955353</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="7" t="e">
+      <c r="C47" s="15" t="e">
         <f t="shared" ref="C47:J47" si="24">C26/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D47" s="7" t="e">
+      <c r="D47" s="15" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="15">
         <f t="shared" si="24"/>
         <v>0.16427094105480866</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="15">
         <f t="shared" si="24"/>
         <v>6.8754384845972363E-2</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="15">
         <f t="shared" si="24"/>
         <v>0.1378785874884276</v>
       </c>
-      <c r="H47" s="7" t="e">
+      <c r="H47" s="15" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="15">
         <f t="shared" si="24"/>
         <v>0.18180545836249118</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="15">
         <f t="shared" si="24"/>
         <v>9.1321510634537209E-2</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="P47" s="7">
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="P47" s="15">
         <f t="shared" ref="P47:U47" si="25">P26/P19</f>
         <v>8.8990971012197009E-2</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="15">
         <f t="shared" si="25"/>
         <v>5.1462709828241249E-2</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R47" s="15">
         <f t="shared" si="25"/>
         <v>-9.9072895837120315E-3</v>
       </c>
-      <c r="S47" s="7">
+      <c r="S47" s="15">
         <f t="shared" si="25"/>
         <v>0.12839109109913968</v>
       </c>
-      <c r="T47" s="7">
+      <c r="T47" s="15">
         <f t="shared" si="25"/>
         <v>0.10928673412378177</v>
       </c>
-      <c r="U47" s="7">
+      <c r="U47" s="15">
         <f t="shared" si="25"/>
         <v>0.11406339536146201</v>
       </c>
-      <c r="V47" s="7">
+      <c r="V47" s="15">
         <f t="shared" ref="V47" si="26">V26/V19</f>
         <v>0.13167113999152416</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="7" t="e">
+      <c r="C48" s="15" t="e">
         <f t="shared" ref="C48:J48" si="27">C32/C19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="7" t="e">
+      <c r="D48" s="15" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="15">
         <f t="shared" si="27"/>
         <v>0.1430196483971044</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="15">
         <f t="shared" si="27"/>
         <v>5.7848077045730001E-2</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="15">
         <f t="shared" si="27"/>
         <v>0.1114931887316494</v>
       </c>
-      <c r="H48" s="7" t="e">
+      <c r="H48" s="15" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="15">
         <f t="shared" si="27"/>
         <v>0.13874504315372047</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="15">
         <f t="shared" si="27"/>
         <v>7.6003063689389028E-2</v>
       </c>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="P48" s="7">
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="P48" s="15">
         <f t="shared" ref="P48:U48" si="28">P32/P19</f>
         <v>6.8255979724378205E-2</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="15">
         <f t="shared" si="28"/>
         <v>6.2388389233416733E-2</v>
       </c>
-      <c r="R48" s="7">
+      <c r="R48" s="15">
         <f t="shared" si="28"/>
         <v>-2.7517724050172675E-2</v>
       </c>
-      <c r="S48" s="7">
+      <c r="S48" s="15">
         <f t="shared" si="28"/>
         <v>9.6502371954651459E-2</v>
       </c>
-      <c r="T48" s="7">
+      <c r="T48" s="15">
         <f t="shared" si="28"/>
         <v>8.1119250108634966E-2</v>
       </c>
-      <c r="U48" s="7">
+      <c r="U48" s="15">
         <f t="shared" si="28"/>
         <v>9.7460566396235973E-2</v>
       </c>
-      <c r="V48" s="7">
+      <c r="V48" s="15">
         <f t="shared" ref="V48" si="29">V32/V19</f>
         <v>0.10494420115835562</v>
       </c>
-      <c r="Y48" s="17"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="Y48" s="21"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="7" t="e">
+      <c r="C49" s="15" t="e">
         <f t="shared" ref="C49:J49" si="30">C31/C32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D49" s="7" t="e">
+      <c r="D49" s="15" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="15">
         <f t="shared" si="30"/>
         <v>0.19233550253073037</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="15">
         <f t="shared" si="30"/>
         <v>0.22932745314222694</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="15">
         <f t="shared" si="30"/>
         <v>0.28469750889679679</v>
       </c>
-      <c r="H49" s="7" t="e">
+      <c r="H49" s="15" t="e">
         <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="15">
         <f t="shared" si="30"/>
         <v>0.29018157363819791</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="15">
         <f t="shared" si="30"/>
         <v>0.25813953488372093</v>
       </c>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="P49" s="7">
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="P49" s="15">
         <f t="shared" ref="P49:U49" si="31">P31/P32</f>
         <v>0.35182176839173851</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="15">
         <f t="shared" si="31"/>
         <v>-0.15066354410616689</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49" s="15">
         <f t="shared" si="31"/>
         <v>-0.38232865400495486</v>
       </c>
-      <c r="S49" s="7">
+      <c r="S49" s="15">
         <f t="shared" si="31"/>
         <v>0.2574570904849191</v>
       </c>
-      <c r="T49" s="7">
+      <c r="T49" s="15">
         <f t="shared" si="31"/>
         <v>0.32370384541802161</v>
       </c>
-      <c r="U49" s="7">
+      <c r="U49" s="15">
         <f t="shared" si="31"/>
         <v>0.20284697508896823</v>
       </c>
-      <c r="V49" s="7">
+      <c r="V49" s="15">
         <f t="shared" ref="V49" si="32">V31/V32</f>
         <v>0.27971463184816286</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U51" s="10"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U51" s="17"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>94</v>
       </c>
       <c r="P54" s="3">
@@ -4517,8 +4533,8 @@
         <v>1662.2</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>95</v>
       </c>
       <c r="P55" s="3">
@@ -4540,8 +4556,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
         <v>96</v>
       </c>
       <c r="P56" s="3">
@@ -4563,8 +4579,8 @@
         <v>446.5</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>97</v>
       </c>
       <c r="P57" s="3">
@@ -4586,8 +4602,8 @@
         <v>902.2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>98</v>
       </c>
       <c r="P58" s="3">
@@ -4609,8 +4625,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B59" s="2" t="s">
         <v>99</v>
       </c>
       <c r="P59" s="3">
@@ -4632,37 +4648,37 @@
         <v>171.9</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="P60" s="8">
+      <c r="P60" s="22">
         <f t="shared" ref="P60:T60" si="33">SUM(P54:P59)</f>
         <v>3594.7999999999997</v>
       </c>
-      <c r="Q60" s="8">
+      <c r="Q60" s="22">
         <f t="shared" si="33"/>
         <v>3375.2000000000007</v>
       </c>
-      <c r="R60" s="8">
+      <c r="R60" s="22">
         <f t="shared" si="33"/>
         <v>4208</v>
       </c>
-      <c r="S60" s="8">
+      <c r="S60" s="22">
         <f t="shared" si="33"/>
         <v>4217.3</v>
       </c>
-      <c r="T60" s="8">
+      <c r="T60" s="22">
         <f t="shared" si="33"/>
         <v>3324.0999999999995</v>
       </c>
-      <c r="U60" s="8">
+      <c r="U60" s="22">
         <f>SUM(U54:U59)</f>
         <v>3359.7999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
         <v>101</v>
       </c>
       <c r="P61" s="3">
@@ -4684,8 +4700,8 @@
         <v>850.4</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>102</v>
       </c>
       <c r="P62" s="3">
@@ -4707,8 +4723,8 @@
         <v>1014.6</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
         <v>103</v>
       </c>
       <c r="P63" s="3">
@@ -4730,8 +4746,8 @@
         <v>288.3</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B64" s="2" t="s">
         <v>104</v>
       </c>
       <c r="P64" s="3">
@@ -4753,8 +4769,8 @@
         <v>888.1</v>
       </c>
     </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B65" s="2" t="s">
         <v>105</v>
       </c>
       <c r="P65" s="3">
@@ -4776,8 +4792,8 @@
         <v>75.7</v>
       </c>
     </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
         <v>106</v>
       </c>
       <c r="P66" s="3">
@@ -4799,66 +4815,66 @@
         <v>125.7</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="P67" s="8">
+      <c r="P67" s="22">
         <f t="shared" ref="P67:T67" si="34">SUM(P61:P66)</f>
         <v>2348</v>
       </c>
-      <c r="Q67" s="8">
+      <c r="Q67" s="22">
         <f t="shared" si="34"/>
         <v>3904.7</v>
       </c>
-      <c r="R67" s="8">
+      <c r="R67" s="22">
         <f t="shared" si="34"/>
         <v>3679.5</v>
       </c>
-      <c r="S67" s="8">
+      <c r="S67" s="22">
         <f t="shared" si="34"/>
         <v>3507.4</v>
       </c>
-      <c r="T67" s="8">
+      <c r="T67" s="22">
         <f t="shared" si="34"/>
         <v>3465.4</v>
       </c>
-      <c r="U67" s="8">
+      <c r="U67" s="22">
         <f>SUM(U61:U66)</f>
         <v>3242.7999999999997</v>
       </c>
     </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="P69" s="8">
+      <c r="P69" s="22">
         <f t="shared" ref="P69:T69" si="35">P60+P67</f>
         <v>5942.7999999999993</v>
       </c>
-      <c r="Q69" s="8">
+      <c r="Q69" s="22">
         <f t="shared" si="35"/>
         <v>7279.9000000000005</v>
       </c>
-      <c r="R69" s="8">
+      <c r="R69" s="22">
         <f t="shared" si="35"/>
         <v>7887.5</v>
       </c>
-      <c r="S69" s="8">
+      <c r="S69" s="22">
         <f t="shared" si="35"/>
         <v>7724.7000000000007</v>
       </c>
-      <c r="T69" s="8">
+      <c r="T69" s="22">
         <f t="shared" si="35"/>
         <v>6789.5</v>
       </c>
-      <c r="U69" s="8">
+      <c r="U69" s="22">
         <f>U60+U67</f>
         <v>6602.5999999999995</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B71" s="2" t="s">
         <v>109</v>
       </c>
       <c r="P71" s="3">
@@ -4880,8 +4896,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B72" s="2" t="s">
         <v>110</v>
       </c>
       <c r="P72" s="3">
@@ -4903,8 +4919,8 @@
         <v>332.2</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B73" s="2" t="s">
         <v>111</v>
       </c>
       <c r="P73" s="3">
@@ -4926,8 +4942,8 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B74" s="2" t="s">
         <v>112</v>
       </c>
       <c r="P74" s="3">
@@ -4949,8 +4965,8 @@
         <v>245.5</v>
       </c>
     </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
         <v>113</v>
       </c>
       <c r="P75" s="3">
@@ -4972,37 +4988,37 @@
         <v>809.7</v>
       </c>
     </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P76" s="8">
+      <c r="P76" s="22">
         <f t="shared" ref="P76:Q76" si="36">SUM(P71:P75)</f>
         <v>1200.0999999999999</v>
       </c>
-      <c r="Q76" s="8">
+      <c r="Q76" s="22">
         <f t="shared" si="36"/>
         <v>2092</v>
       </c>
-      <c r="R76" s="8">
+      <c r="R76" s="22">
         <f>SUM(R71:R75)</f>
         <v>1584.8</v>
       </c>
-      <c r="S76" s="8">
+      <c r="S76" s="22">
         <f t="shared" ref="S76:U76" si="37">SUM(S71:S75)</f>
         <v>2255.6999999999998</v>
       </c>
-      <c r="T76" s="8">
+      <c r="T76" s="22">
         <f t="shared" si="37"/>
         <v>1493.5</v>
       </c>
-      <c r="U76" s="8">
+      <c r="U76" s="22">
         <f t="shared" si="37"/>
         <v>1467.2</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
         <v>115</v>
       </c>
       <c r="P77" s="3">
@@ -5025,8 +5041,8 @@
       </c>
       <c r="W77" s="3"/>
     </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B78" s="2" t="s">
         <v>116</v>
       </c>
       <c r="P78" s="3">
@@ -5048,8 +5064,8 @@
         <v>256.10000000000002</v>
       </c>
     </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
         <v>117</v>
       </c>
       <c r="P79" s="3">
@@ -5071,8 +5087,8 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
         <v>118</v>
       </c>
       <c r="P80" s="3">
@@ -5094,8 +5110,8 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
         <v>119</v>
       </c>
       <c r="P81" s="3">
@@ -5117,8 +5133,8 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B82" s="2" t="s">
         <v>120</v>
       </c>
       <c r="P82" s="3">
@@ -5140,66 +5156,66 @@
         <v>113.6</v>
       </c>
     </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B83" s="2" t="s">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P83" s="8">
+      <c r="P83" s="22">
         <f t="shared" ref="P83:T83" si="38">SUM(P77:P82)</f>
         <v>1455.5</v>
       </c>
-      <c r="Q83" s="8">
+      <c r="Q83" s="22">
         <f t="shared" si="38"/>
         <v>2494.7999999999997</v>
       </c>
-      <c r="R83" s="8">
+      <c r="R83" s="22">
         <f>SUM(R77:R82)</f>
         <v>3698.3</v>
       </c>
-      <c r="S83" s="8">
+      <c r="S83" s="22">
         <f t="shared" si="38"/>
         <v>2933.0000000000005</v>
       </c>
-      <c r="T83" s="8">
+      <c r="T83" s="22">
         <f t="shared" si="38"/>
         <v>2865.5</v>
       </c>
-      <c r="U83" s="8">
+      <c r="U83" s="22">
         <f>SUM(U77:U82)</f>
         <v>2685.0999999999995</v>
       </c>
     </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B85" s="2" t="s">
+    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="P85" s="8">
+      <c r="P85" s="22">
         <f t="shared" ref="P85:T85" si="39">P76+P83</f>
         <v>2655.6</v>
       </c>
-      <c r="Q85" s="8">
+      <c r="Q85" s="22">
         <f t="shared" si="39"/>
         <v>4586.7999999999993</v>
       </c>
-      <c r="R85" s="8">
+      <c r="R85" s="22">
         <f>R76+R83</f>
         <v>5283.1</v>
       </c>
-      <c r="S85" s="8">
+      <c r="S85" s="22">
         <f t="shared" si="39"/>
         <v>5188.7000000000007</v>
       </c>
-      <c r="T85" s="8">
+      <c r="T85" s="22">
         <f t="shared" si="39"/>
         <v>4359</v>
       </c>
-      <c r="U85" s="8">
+      <c r="U85" s="22">
         <f>U76+U83</f>
         <v>4152.2999999999993</v>
       </c>
     </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
         <v>123</v>
       </c>
       <c r="P87" s="3">
@@ -5221,8 +5237,8 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B88" s="2" t="s">
         <v>124</v>
       </c>
       <c r="P88" s="3">
@@ -5244,8 +5260,8 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B89" s="2" t="s">
         <v>125</v>
       </c>
       <c r="P89" s="3">
@@ -5267,8 +5283,8 @@
         <v>2923.8</v>
       </c>
     </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B90" s="2" t="s">
         <v>126</v>
       </c>
       <c r="P90" s="3">
@@ -5290,8 +5306,8 @@
         <v>7051.6</v>
       </c>
     </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
         <v>127</v>
       </c>
       <c r="P91" s="3">
@@ -5313,8 +5329,8 @@
         <v>-7250.3</v>
       </c>
     </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="92" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B92" s="2" t="s">
         <v>128</v>
       </c>
       <c r="P92" s="3">
@@ -5336,87 +5352,87 @@
         <v>-276.10000000000002</v>
       </c>
     </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B93" s="2" t="s">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="P93" s="8">
+      <c r="P93" s="22">
         <f t="shared" ref="P93:T93" si="40">SUM(P87:P92)</f>
         <v>3287.2000000000003</v>
       </c>
-      <c r="Q93" s="8">
+      <c r="Q93" s="22">
         <f t="shared" si="40"/>
         <v>2693.1000000000013</v>
       </c>
-      <c r="R93" s="8">
+      <c r="R93" s="22">
         <f t="shared" si="40"/>
         <v>2604.3999999999987</v>
       </c>
-      <c r="S93" s="8">
+      <c r="S93" s="22">
         <f t="shared" si="40"/>
         <v>2536</v>
       </c>
-      <c r="T93" s="8">
+      <c r="T93" s="22">
         <f t="shared" si="40"/>
         <v>2430.4999999999991</v>
       </c>
-      <c r="U93" s="8">
+      <c r="U93" s="22">
         <f>SUM(U87:U92)</f>
         <v>2450.3000000000006</v>
       </c>
     </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B95" s="2" t="s">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="8">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="22">
         <f t="shared" ref="P95:S95" si="41">P93+P85</f>
         <v>5942.8</v>
       </c>
-      <c r="Q95" s="8">
+      <c r="Q95" s="22">
         <f t="shared" si="41"/>
         <v>7279.9000000000005</v>
       </c>
-      <c r="R95" s="8">
+      <c r="R95" s="22">
         <f>R93+R85</f>
         <v>7887.4999999999991</v>
       </c>
-      <c r="S95" s="8">
+      <c r="S95" s="22">
         <f t="shared" si="41"/>
         <v>7724.7000000000007</v>
       </c>
-      <c r="T95" s="8">
+      <c r="T95" s="22">
         <f>T93+T85</f>
         <v>6789.4999999999991</v>
       </c>
-      <c r="U95" s="8">
+      <c r="U95" s="22">
         <f>U93+U85</f>
         <v>6602.6</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A98" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B100" s="2" t="s">
         <v>85</v>
       </c>
       <c r="P100" s="3">
@@ -5444,8 +5460,8 @@
         <v>646.29999999999916</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B101" s="2" t="s">
         <v>132</v>
       </c>
       <c r="P101" s="3">
@@ -5467,8 +5483,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B102" s="2" t="s">
         <v>133</v>
       </c>
       <c r="P102" s="3">
@@ -5490,8 +5506,8 @@
         <v>-41.1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B103" s="2" t="s">
         <v>134</v>
       </c>
       <c r="P103" s="3">
@@ -5513,8 +5529,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B104" s="2" t="s">
         <v>135</v>
       </c>
       <c r="P104" s="3">
@@ -5536,8 +5552,8 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B105" s="2" t="s">
         <v>76</v>
       </c>
       <c r="P105" s="3">
@@ -5559,8 +5575,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B106" s="2" t="s">
         <v>136</v>
       </c>
       <c r="P106" s="3">
@@ -5582,8 +5598,8 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B107" s="2" t="s">
         <v>137</v>
       </c>
       <c r="P107" s="3">
@@ -5605,13 +5621,13 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B108" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B109" s="2" t="s">
         <v>139</v>
       </c>
       <c r="P109" s="3">
@@ -5633,8 +5649,8 @@
         <v>-15.3</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B110" s="2" t="s">
         <v>140</v>
       </c>
       <c r="P110" s="3">
@@ -5656,8 +5672,8 @@
         <v>149.1</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B111" s="2" t="s">
         <v>141</v>
       </c>
       <c r="P111" s="3">
@@ -5679,8 +5695,8 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B112" s="2" t="s">
         <v>142</v>
       </c>
       <c r="P112" s="3">
@@ -5702,8 +5718,8 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="113" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B113" s="2" t="s">
         <v>143</v>
       </c>
       <c r="P113" s="3">
@@ -5725,8 +5741,8 @@
         <v>-18.5</v>
       </c>
     </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="114" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B114" s="2" t="s">
         <v>144</v>
       </c>
       <c r="P114" s="3">
@@ -5748,8 +5764,8 @@
         <v>-36.299999999999997</v>
       </c>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="115" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B115" s="2" t="s">
         <v>145</v>
       </c>
       <c r="P115" s="3">
@@ -5771,37 +5787,37 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="116" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B116" s="2" t="s">
+    <row r="116" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="P116" s="8">
+      <c r="P116" s="22">
         <f t="shared" ref="P116:T116" si="43">P100+SUM(P101:P107)+SUM(P109:P115)</f>
         <v>783.79999999999973</v>
       </c>
-      <c r="Q116" s="8">
+      <c r="Q116" s="22">
         <f>Q100+SUM(Q101:Q107)+SUM(Q109:Q115)</f>
         <v>754.60000000000036</v>
       </c>
-      <c r="R116" s="8">
+      <c r="R116" s="22">
         <f t="shared" si="43"/>
         <v>380.90000000000003</v>
       </c>
-      <c r="S116" s="8">
+      <c r="S116" s="22">
         <f t="shared" si="43"/>
         <v>715.90000000000032</v>
       </c>
-      <c r="T116" s="8">
+      <c r="T116" s="22">
         <f t="shared" si="43"/>
         <v>411.00000000000017</v>
       </c>
-      <c r="U116" s="8">
+      <c r="U116" s="22">
         <f>U100+SUM(U101:U107)+SUM(U109:U115)</f>
         <v>1069.6999999999991</v>
       </c>
     </row>
-    <row r="117" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="117" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B117" s="2" t="s">
         <v>147</v>
       </c>
       <c r="P117" s="3">
@@ -5823,8 +5839,8 @@
         <v>-164.8</v>
       </c>
     </row>
-    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+    <row r="118" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B118" s="2" t="s">
         <v>148</v>
       </c>
       <c r="P118" s="3">
@@ -5846,8 +5862,8 @@
         <v>-392.8</v>
       </c>
     </row>
-    <row r="119" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="119" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B119" s="2" t="s">
         <v>149</v>
       </c>
       <c r="P119" s="3">
@@ -5869,8 +5885,8 @@
         <v>304.3</v>
       </c>
     </row>
-    <row r="120" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+    <row r="120" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B120" s="2" t="s">
         <v>150</v>
       </c>
       <c r="P120" s="3">
@@ -5892,8 +5908,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+    <row r="121" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B121" s="2" t="s">
         <v>151</v>
       </c>
       <c r="P121" s="3">
@@ -5916,37 +5932,37 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="122" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B122" s="2" t="s">
+    <row r="122" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P122" s="8">
+      <c r="P122" s="22">
         <f t="shared" ref="P122:T122" si="44">SUM(P117:P121)</f>
         <v>-879.3</v>
       </c>
-      <c r="Q122" s="8">
+      <c r="Q122" s="22">
         <f t="shared" si="44"/>
         <v>702.1</v>
       </c>
-      <c r="R122" s="8">
+      <c r="R122" s="22">
         <f t="shared" si="44"/>
         <v>195.00000000000006</v>
       </c>
-      <c r="S122" s="8">
+      <c r="S122" s="22">
         <f t="shared" si="44"/>
         <v>-717.9</v>
       </c>
-      <c r="T122" s="8">
+      <c r="T122" s="22">
         <f t="shared" si="44"/>
         <v>471.50000000000006</v>
       </c>
-      <c r="U122" s="8">
+      <c r="U122" s="22">
         <f>SUM(U117:U121)</f>
         <v>-256.8</v>
       </c>
     </row>
-    <row r="123" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+    <row r="123" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B123" s="2" t="s">
         <v>153</v>
       </c>
       <c r="P123" s="3">
@@ -5968,8 +5984,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+    <row r="124" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B124" s="2" t="s">
         <v>154</v>
       </c>
       <c r="P124" s="3">
@@ -5991,8 +6007,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="125" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B125" s="2" t="s">
         <v>155</v>
       </c>
       <c r="P125" s="3">
@@ -6014,8 +6030,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+    <row r="126" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B126" s="2" t="s">
         <v>156</v>
       </c>
       <c r="P126" s="3">
@@ -6037,8 +6053,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+    <row r="127" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B127" s="2" t="s">
         <v>157</v>
       </c>
       <c r="P127" s="3">
@@ -6060,8 +6076,8 @@
         <v>-21.3</v>
       </c>
     </row>
-    <row r="128" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+    <row r="128" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B128" s="2" t="s">
         <v>158</v>
       </c>
       <c r="P128" s="3">
@@ -6083,8 +6099,8 @@
         <v>-194.6</v>
       </c>
     </row>
-    <row r="129" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+    <row r="129" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B129" s="2" t="s">
         <v>159</v>
       </c>
       <c r="P129" s="3">
@@ -6106,8 +6122,8 @@
         <v>-449.7</v>
       </c>
     </row>
-    <row r="130" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+    <row r="130" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B130" s="2" t="s">
         <v>160</v>
       </c>
       <c r="P130" s="3">
@@ -6130,50 +6146,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B131" s="2" t="s">
+    <row r="131" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="8">
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="22">
         <f t="shared" ref="P131:R131" si="45">SUM(P123:P130)</f>
         <v>-605.69999999999993</v>
       </c>
-      <c r="Q131" s="8">
+      <c r="Q131" s="22">
         <f t="shared" si="45"/>
         <v>-438.19999999999993</v>
       </c>
-      <c r="R131" s="8">
+      <c r="R131" s="22">
         <f t="shared" si="45"/>
         <v>356.80000000000013</v>
       </c>
-      <c r="S131" s="8">
+      <c r="S131" s="22">
         <f>SUM(S123:S130)</f>
         <v>-665.7</v>
       </c>
-      <c r="T131" s="8">
+      <c r="T131" s="22">
         <f t="shared" ref="T131:U131" si="46">SUM(T123:T130)</f>
         <v>-1208.8000000000002</v>
       </c>
-      <c r="U131" s="8">
+      <c r="U131" s="22">
         <f t="shared" si="46"/>
         <v>-665.6</v>
       </c>
     </row>
-    <row r="132" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+    <row r="132" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B132" s="2" t="s">
         <v>162</v>
       </c>
       <c r="P132" s="3">
@@ -6195,37 +6211,37 @@
         <v>-13.6</v>
       </c>
     </row>
-    <row r="133" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B133" s="2" t="s">
+    <row r="133" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="P133" s="8">
+      <c r="P133" s="22">
         <f t="shared" ref="P133:T133" si="47">P116+P122+P131+P132</f>
         <v>-729.00000000000011</v>
       </c>
-      <c r="Q133" s="8">
+      <c r="Q133" s="22">
         <f t="shared" si="47"/>
         <v>1003.3000000000003</v>
       </c>
-      <c r="R133" s="8">
+      <c r="R133" s="22">
         <f t="shared" si="47"/>
         <v>958.20000000000027</v>
       </c>
-      <c r="S133" s="8">
+      <c r="S133" s="22">
         <f t="shared" si="47"/>
         <v>-715.99999999999966</v>
       </c>
-      <c r="T133" s="8">
+      <c r="T133" s="22">
         <f t="shared" si="47"/>
         <v>-335.09999999999997</v>
       </c>
-      <c r="U133" s="8">
+      <c r="U133" s="22">
         <f>U116+U122+U131+U132</f>
         <v>133.69999999999916</v>
       </c>
     </row>
-    <row r="134" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+    <row r="134" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B134" s="2" t="s">
         <v>164</v>
       </c>
       <c r="P134" s="3">
@@ -6252,8 +6268,8 @@
         <v>1536.9</v>
       </c>
     </row>
-    <row r="135" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+    <row r="135" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B135" s="2" t="s">
         <v>165</v>
       </c>
       <c r="P135" s="3">
@@ -6294,228 +6310,232 @@
   <dimension ref="A1:P63"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="5" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="N2" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="17">
         <f>Model!P32/Model!P93</f>
         <v>0.13108420540277427</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="17">
         <f>Model!Q32/Model!Q93</f>
         <v>0.14269800601537269</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="17">
         <f>Model!R32/Model!R93</f>
         <v>-4.649823375825525E-2</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="17">
         <f>Model!S32/Model!S93</f>
         <v>0.23663249211356471</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="17">
         <f>Model!T32/Model!T93</f>
         <v>0.21505862991154104</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="17">
         <f>Model!U32/Model!U93</f>
         <v>0.26376362078112842</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="13">
+      <c r="J4" s="17"/>
+      <c r="K4" s="23">
         <f>AVERAGE(G4:I4,D4)</f>
         <v>0.21163473705225211</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="23">
         <f>MEDIAN(G4:I4,D4:E4)</f>
         <v>0.21505862991154104</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="17">
         <f>Model!P32/Model!P19</f>
         <v>6.8255979724378205E-2</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="17">
         <f>Model!Q32/Model!Q19</f>
         <v>6.2388389233416733E-2</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="17">
         <f>Model!R32/Model!R19</f>
         <v>-2.7517724050172675E-2</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="17">
         <f>Model!S32/Model!S19</f>
         <v>9.6502371954651459E-2</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="17">
         <f>Model!T32/Model!T19</f>
         <v>8.1119250108634966E-2</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="17">
         <f>Model!U32/Model!U19</f>
         <v>9.7460566396235973E-2</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="13">
+      <c r="J5" s="17"/>
+      <c r="K5" s="23">
         <f t="shared" ref="K5:L17" si="0">AVERAGE(G5:I5,D5)</f>
         <v>8.583454204597514E-2</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="23">
         <f t="shared" ref="L5:L17" si="1">MEDIAN(G5:I5,D5:E5)</f>
         <v>8.1119250108634966E-2</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="17">
         <f>Model!P26/Model!P19</f>
         <v>8.8990971012197009E-2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="17">
         <f>Model!Q26/Model!Q19</f>
         <v>5.1462709828241249E-2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="17">
         <f>Model!R26/Model!R19</f>
         <v>-9.9072895837120315E-3</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="17">
         <f>Model!S26/Model!S19</f>
         <v>0.12839109109913968</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="17">
         <f>Model!T26/Model!T19</f>
         <v>0.10928673412378177</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="17">
         <f>Model!U26/Model!U19</f>
         <v>0.11406339536146201</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="13">
+      <c r="J6" s="17"/>
+      <c r="K6" s="23">
         <f t="shared" si="0"/>
         <v>0.11018304789914513</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="23">
         <f t="shared" si="1"/>
         <v>0.10928673412378177</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="17">
         <f>(Model!P26+Model!P101)/Model!P19</f>
         <v>0.13354981783621095</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="17">
         <f>(Model!Q26+Model!Q101)/Model!Q19</f>
         <v>9.5214130328906854E-2</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="17">
         <f>(Model!R26+Model!R101)/Model!R19</f>
         <v>4.6355208143973842E-2</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="17">
         <f>(Model!S26+Model!S101)/Model!S19</f>
         <v>0.16532925946771732</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="17">
         <f>(Model!T26+Model!T101)/Model!T19</f>
         <v>0.14350673536532377</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="17">
         <f>(Model!U26+Model!U101)/Model!U19</f>
         <v>0.1485960732273727</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="23">
         <f t="shared" si="0"/>
         <v>0.14774547147415618</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="23">
         <f t="shared" si="1"/>
         <v>0.14350673536532377</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D8" s="3">
@@ -6542,1331 +6562,1331 @@
         <f>Model!U19/Model!U69</f>
         <v>1.0043619180322902</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="24">
         <f t="shared" si="0"/>
         <v>0.95518113839320651</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="24">
         <f t="shared" si="0"/>
         <v>0.93318453342392227</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="17">
         <f>(Model!P32+Model!P27)/Model!P69</f>
         <v>7.5991115299185522E-2</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="17">
         <f>(Model!Q32+Model!Q27)/Model!Q69</f>
         <v>5.5206802291240323E-2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="17">
         <f>(Model!R32+Model!R27)/Model!R69</f>
         <v>-9.2044374009508604E-3</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="17">
         <f>(Model!S32+Model!S27)/Model!S69</f>
         <v>8.4676427563529985E-2</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="17">
         <f>(Model!T32+Model!T27)/Model!T69</f>
         <v>8.2936887841520035E-2</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="17">
         <f>(Model!U32+Model!U27)/Model!U69</f>
         <v>0.10427710295944011</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="23">
         <f t="shared" si="0"/>
         <v>8.6970383415918909E-2</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="23">
         <f t="shared" si="1"/>
         <v>8.2936887841520035E-2</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="17">
         <f>Model!P26/Model!P69</f>
         <v>9.4534562832334898E-2</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="17">
         <f>Model!Q26/Model!Q69</f>
         <v>4.3544554183436647E-2</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="17">
         <f>Model!R26/Model!R69</f>
         <v>-5.5277337559429358E-3</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="17">
         <f>Model!S26/Model!S69</f>
         <v>0.1033567646639999</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="17">
         <f>Model!T26/Model!T69</f>
         <v>0.1037189778334193</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="17">
         <f>Model!U26/Model!U69</f>
         <v>0.11456093054251344</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="23">
         <f t="shared" si="0"/>
         <v>0.10404280896806689</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="23">
         <f t="shared" si="1"/>
         <v>0.1033567646639999</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="17">
         <f>Model!P26/(Model!P67+SUM(Model!P55:P59)-Model!P72)</f>
         <v>0.10895198200294773</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="17">
         <f>Model!Q26/(Model!Q67+SUM(Model!Q55:Q59)-Model!Q72)</f>
         <v>5.8565965229922308E-2</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="17">
         <f>Model!R26/(Model!R67+SUM(Model!R55:R59)-Model!R72)</f>
         <v>-8.8034567701813001E-3</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="17">
         <f>Model!S26/(Model!S67+SUM(Model!S55:S59)-Model!S72)</f>
         <v>0.1475185691585677</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="17">
         <f>Model!T26/(Model!T67+SUM(Model!T55:T59)-Model!T72)</f>
         <v>0.1440494211021561</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="17">
         <f>Model!U26/(Model!U67+SUM(Model!U55:U59)-Model!U72)</f>
         <v>0.16414218132893521</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="23">
         <f t="shared" si="0"/>
         <v>0.14116553839815169</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="23">
         <f t="shared" si="1"/>
         <v>0.1440494211021561</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="17">
         <f>(Model!P26*(1-Model!P49))/(Model!P85+Model!P93-Model!P54)</f>
         <v>6.7954266989665613E-2</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="17">
         <f>(Model!Q26*(1-Model!Q49))/(Model!Q85+Model!Q93-Model!Q54)</f>
         <v>6.4450983917599694E-2</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="17">
         <f>(Model!R26*(1-Model!R49))/(Model!R85+Model!R93-Model!R54)</f>
         <v>-1.1353401019989813E-2</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="17">
         <f>(Model!S26*(1-Model!S49))/(Model!S85+Model!S93-Model!S54)</f>
         <v>0.10115276816817223</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="17">
         <f>(Model!T26*(1-Model!T49))/(Model!T85+Model!T93-Model!T54)</f>
         <v>9.0537955221594135E-2</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="17">
         <f>(Model!U26*(1-Model!U49))/(Model!U85+Model!U93-Model!U54)</f>
         <v>0.12204812323753214</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="23">
         <f t="shared" si="0"/>
         <v>9.542327840424103E-2</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="23">
         <f t="shared" si="1"/>
         <v>9.0537955221594135E-2</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="17">
         <f>Model!P116/Model!P19</f>
         <v>0.12415650245525102</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="17">
         <f>Model!Q116/Model!Q19</f>
         <v>0.12250397740186375</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="17">
         <f>Model!R116/Model!R19</f>
         <v>8.6552445009998188E-2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="17">
         <f>Model!S116/Model!S19</f>
         <v>0.11512422609954175</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="17">
         <f>Model!T116/Model!T19</f>
         <v>6.3784220001241565E-2</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="17">
         <f>Model!U116/Model!U19</f>
         <v>0.1613083210181861</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="23">
         <f t="shared" si="0"/>
         <v>0.11609331739355511</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="23">
         <f t="shared" si="1"/>
         <v>0.12250397740186375</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="17">
         <f>1-(Model!P128/Model!P129)</f>
         <v>0.62057302029446881</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="17">
         <f>1-(Model!Q128/Model!Q129)</f>
         <v>0.70653425446171558</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="17">
         <f>1-(Model!R128/Model!R129)</f>
         <v>-0.32095490716180364</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="17">
         <f>1-(Model!S128/Model!S129)</f>
         <v>0.69549330085261873</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="17">
         <f>1-(Model!T128/Model!T129)</f>
         <v>0.59414654113794518</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="17">
         <f>1-(Model!U128/Model!U129)</f>
         <v>0.56726706693351125</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="23">
         <f t="shared" si="0"/>
         <v>0.61936998230463591</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="23">
         <f t="shared" si="1"/>
         <v>0.62057302029446881</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N14" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="23">
         <f t="shared" ref="D15:H15" si="2">D14*D4</f>
         <v>8.134732125970015E-2</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="23">
         <f t="shared" si="2"/>
         <v>0.10082102929324475</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="23">
         <f t="shared" si="2"/>
         <v>1.4923836299068658E-2</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="23">
         <f t="shared" si="2"/>
         <v>0.16457631302904438</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="23">
         <f t="shared" si="2"/>
         <v>0.12777634110380753</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="23">
         <f>I14*I4</f>
         <v>0.14962441552427366</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="23">
         <f t="shared" si="0"/>
         <v>0.13083109772920642</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="23">
         <f t="shared" si="1"/>
         <v>0.12777634110380753</v>
       </c>
-      <c r="N15" t="s">
+      <c r="N15" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="17">
         <f>(-Model!P117+SUM(Model!P109:P115))/(Model!P26*(1-Model!P49))</f>
         <v>0.35123223560095407</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="17">
         <f>(-Model!Q117+SUM(Model!Q109:Q115))/(Model!Q26*(1-Model!Q49))</f>
         <v>0.94363328182716921</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="17">
         <f>(-Model!R117+SUM(Model!R109:R115))/(Model!R26*(1-Model!R49))</f>
         <v>-3.0479746911753476</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="17">
         <f>(-Model!S117+SUM(Model!S109:S115))/(Model!S26*(1-Model!S49))</f>
         <v>-4.5543004770761675E-3</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="17">
         <f>(-Model!T117+SUM(Model!T109:T115))/(Model!T26*(1-Model!T49))</f>
         <v>-0.43485769561254406</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="17">
         <f>(-Model!U117+SUM(Model!U109:U115))/(Model!U26*(1-Model!U49))</f>
         <v>0.46403900997204856</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="23">
         <f t="shared" si="0"/>
         <v>9.3964812370845599E-2</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="23">
         <f t="shared" si="1"/>
         <v>0.35123223560095407</v>
       </c>
-      <c r="N16" t="s">
+      <c r="N16" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="23">
         <f t="shared" ref="D17:H17" si="3">D16*D12</f>
         <v>2.3867729113404366E-2</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="23">
         <f t="shared" si="3"/>
         <v>6.0818093471154702E-2</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="23">
         <f t="shared" si="3"/>
         <v>3.4604878967693327E-2</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="23">
         <f t="shared" si="3"/>
         <v>-4.6068010032588176E-4</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="23">
         <f t="shared" si="3"/>
         <v>-3.937112657313413E-2</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="23">
         <f>I16*I12</f>
         <v>5.6635090276090989E-2</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="23">
         <f t="shared" si="0"/>
         <v>1.0167753179008835E-2</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="23">
         <f t="shared" si="1"/>
         <v>2.3867729113404366E-2</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N17" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B20" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="17">
         <f>Model!P93/Model!P95</f>
         <v>0.55313993403782735</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="17">
         <f>Model!Q93/Model!Q95</f>
         <v>0.36993640022527796</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="17">
         <f>Model!R93/Model!R95</f>
         <v>0.33019334389857358</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="17">
         <f>Model!S93/Model!S95</f>
         <v>0.32829753906300563</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="17">
         <f>Model!T93/Model!T95</f>
         <v>0.35797923263863307</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="17">
         <f>Model!U93/Model!U95</f>
         <v>0.37111138036531072</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="23">
         <f t="shared" ref="K21:K33" si="4">AVERAGE(G21:I21,D21)</f>
         <v>0.40263202152619421</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="23">
         <f t="shared" ref="L21:L33" si="5">MEDIAN(G21:I21,D21:E21)</f>
         <v>0.36993640022527796</v>
       </c>
-      <c r="N21" t="s">
+      <c r="N21" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="17">
         <f>(Model!P71+Model!P77+Model!P78+Model!P79-Model!P54-Model!P55)/Model!P93</f>
         <v>-0.39498661474811392</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="17">
         <f>(Model!Q71+Model!Q77+Model!Q78+Model!Q79-Model!Q54-Model!Q55)/Model!Q93</f>
         <v>0.23133192232000291</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="17">
         <f>(Model!R71+Model!R77+Model!R78+Model!R79-Model!R54-Model!R55)/Model!R93</f>
         <v>5.794040853939493E-2</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="17">
         <f>(Model!S71+Model!S77+Model!S78+Model!S79-Model!S54-Model!S55)/Model!S93</f>
         <v>0.20177444794952695</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="17">
         <f>(Model!T71+Model!T77+Model!T78+Model!T79-Model!T54-Model!T55)/Model!T93</f>
         <v>0.42345196461633405</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="17">
         <f>(Model!U71+Model!U77+Model!U78+Model!U79-Model!U54-Model!U55)/Model!U93</f>
         <v>0.25605027955760506</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="23">
         <f t="shared" si="4"/>
         <v>0.12157251934383803</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="23">
         <f t="shared" si="5"/>
         <v>0.23133192232000291</v>
       </c>
-      <c r="N22" t="s">
+      <c r="N22" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="17">
         <f>(Model!P71+Model!P77+Model!P78+Model!P79-Model!P54-Model!P55)/(Model!P26*(1-Model!P49)+Model!P101+Model!P117+SUM(Model!P109:P115))</f>
         <v>-3.4354065857466791</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="17">
         <f>(Model!Q71+Model!Q77+Model!Q78+Model!Q79-Model!Q54-Model!Q55)/(Model!Q26*(1-Model!Q49)+Model!Q101+Model!Q117+SUM(Model!Q109:Q115))</f>
         <v>1.422828098672291</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="17">
         <f>(Model!R71+Model!R77+Model!R78+Model!R79-Model!R54-Model!R55)/(Model!R26*(1-Model!R49)+Model!R101+Model!R117+SUM(Model!R109:R115))</f>
         <v>0.9708521072772508</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="17">
         <f>(Model!S71+Model!S77+Model!S78+Model!S79-Model!S54-Model!S55)/(Model!S26*(1-Model!S49)+Model!S101+Model!S117+SUM(Model!S109:S115))</f>
         <v>1.0527804515936778</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="17">
         <f>(Model!T71+Model!T77+Model!T78+Model!T79-Model!T54-Model!T55)/(Model!T26*(1-Model!T49)+Model!T101+Model!T117+SUM(Model!T109:T115))</f>
         <v>18.833345586356071</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="17">
         <f>(Model!U71+Model!U77+Model!U78+Model!U79-Model!U54-Model!U55)/(Model!U26*(1-Model!U49)+Model!U101+Model!U117+SUM(Model!U109:U115))</f>
         <v>0.80213095480752494</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="23">
         <f t="shared" si="4"/>
         <v>4.3132126017526478</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="23">
         <f t="shared" si="5"/>
         <v>1.0527804515936778</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N23" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="17">
         <f>(Model!P71+Model!P77+Model!P78+Model!P79-Model!P54-Model!P55)/(Model!P26+Model!P101)</f>
         <v>-1.5400308385719377</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="17">
         <f>(Model!Q71+Model!Q77+Model!Q78+Model!Q79-Model!Q54-Model!Q55)/(Model!Q26+Model!Q101)</f>
         <v>1.0622335890878085</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="17">
         <f>(Model!R71+Model!R77+Model!R78+Model!R79-Model!R54-Model!R55)/(Model!R26+Model!R101)</f>
         <v>0.73970588235294132</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="17">
         <f>(Model!S71+Model!S77+Model!S78+Model!S79-Model!S54-Model!S55)/(Model!S26+Model!S101)</f>
         <v>0.49771423013325583</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="17">
         <f>(Model!T71+Model!T77+Model!T78+Model!T79-Model!T54-Model!T55)/(Model!T26+Model!T101)</f>
         <v>1.1130096247431591</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="17">
         <f>(Model!U71+Model!U77+Model!U78+Model!U79-Model!U54-Model!U55)/(Model!U26+Model!U101)</f>
         <v>0.63669575806779011</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="23">
         <f t="shared" si="4"/>
         <v>0.17684719359306683</v>
       </c>
-      <c r="L24" s="13">
+      <c r="L24" s="23">
         <f t="shared" si="5"/>
         <v>0.63669575806779011</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="17">
         <f>(-Model!P117/Model!P116)</f>
         <v>0.25223271242663953</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="17">
         <f>(-Model!Q117/Model!Q116)</f>
         <v>0.35820302146832744</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="17">
         <f>(-Model!R117/Model!R116)</f>
         <v>0.28301391441323176</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="17">
         <f>(-Model!S117/Model!S116)</f>
         <v>0.23313311915071927</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="17">
         <f>(-Model!T117/Model!T116)</f>
         <v>0.52919708029197055</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="17">
         <f>(-Model!U117/Model!U116)</f>
         <v>0.15406188651023664</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="23">
         <f t="shared" si="4"/>
         <v>0.29215619959489153</v>
       </c>
-      <c r="L25" s="13">
+      <c r="L25" s="23">
         <f t="shared" si="5"/>
         <v>0.25223271242663953</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="24" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="N26" t="s">
+      <c r="N26" s="2" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="25">
         <f>-Model!P117/Model!P101</f>
         <v>0.70280838961962311</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="25">
         <f>-Model!Q117/Model!Q101</f>
         <v>1.0029684601113174</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="25">
         <f>-Model!R117/Model!R101</f>
         <v>0.43537964458804523</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="25">
         <f>-Model!S117/Model!S101</f>
         <v>0.72659991292990866</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="25">
         <f>-Model!T117/Model!T101</f>
         <v>0.98639455782312924</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="25">
         <f>-Model!U117/Model!U101</f>
         <v>0.71965065502183412</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="25">
         <f>AVERAGE(G27:I27,D27)</f>
         <v>0.78386337884862378</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="25">
         <f>MEDIAN(G27:I27,D27:E27)</f>
         <v>0.72659991292990866</v>
       </c>
-      <c r="N27" t="s">
+      <c r="N27" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="26">
         <f>(Model!R93/-Model!R26)</f>
         <v>59.733944954128539</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="N28" t="s">
+      <c r="N28" s="2" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="17">
         <f>Model!P60/Model!P69</f>
         <v>0.60490004711583767</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="17">
         <f>Model!Q60/Model!Q69</f>
         <v>0.46363274220799744</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="17">
         <f>Model!R60/Model!R69</f>
         <v>0.53350237717908078</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="17">
         <f>Model!S60/Model!S69</f>
         <v>0.54595000453092024</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="17">
         <f>Model!T60/Model!T69</f>
         <v>0.48959422637896743</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="17">
         <f>Model!U60/Model!U69</f>
         <v>0.50886014600308971</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="23">
         <f t="shared" si="4"/>
         <v>0.53732610600720376</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="23">
         <f t="shared" si="5"/>
         <v>0.50886014600308971</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="23">
         <f t="shared" ref="D30:H30" si="6">1-D29</f>
         <v>0.39509995288416233</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="23">
         <f t="shared" si="6"/>
         <v>0.53636725779200256</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="23">
         <f t="shared" si="6"/>
         <v>0.46649762282091922</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="23">
         <f t="shared" si="6"/>
         <v>0.45404999546907976</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="23">
         <f t="shared" si="6"/>
         <v>0.51040577362103257</v>
       </c>
-      <c r="I30" s="13">
+      <c r="I30" s="23">
         <f>1-I29</f>
         <v>0.49113985399691029</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="23">
         <f t="shared" si="4"/>
         <v>0.46267389399279624</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="23">
         <f t="shared" si="5"/>
         <v>0.49113985399691029</v>
       </c>
-      <c r="N30" t="s">
+      <c r="N30" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="17">
         <f>Model!P93/Model!P67</f>
         <v>1.4000000000000001</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="17">
         <f>Model!Q93/Model!Q67</f>
         <v>0.68970727584705649</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="17">
         <f>Model!R93/Model!R67</f>
         <v>0.70781356162522047</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="17">
         <f>Model!S93/Model!S67</f>
         <v>0.72304270969949247</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="17">
         <f>Model!T93/Model!T67</f>
         <v>0.70136203612858516</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="17">
         <f>Model!U93/Model!U67</f>
         <v>0.75561243369927245</v>
       </c>
-      <c r="K31" s="13">
+      <c r="K31" s="23">
         <f t="shared" si="4"/>
         <v>0.89500429488183753</v>
       </c>
-      <c r="L31" s="13">
+      <c r="L31" s="23">
         <f t="shared" si="5"/>
         <v>0.72304270969949247</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="17">
         <f>(Model!P93+Model!P77)/Model!P93</f>
         <v>1.2096312971525918</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="17">
         <f>(Model!Q93+Model!Q77)/Model!Q93</f>
         <v>1.1471909695146856</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="17">
         <f>(Model!R93+Model!R77)/Model!R93</f>
         <v>1.6269774228229157</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="17">
         <f>(Model!S93+Model!S77)/Model!S93</f>
         <v>1.4481466876971609</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="17">
         <f>(Model!T93+Model!T77)/Model!T93</f>
         <v>1.4684221353630942</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="17">
         <f>(Model!U93+Model!U77)/Model!U93</f>
         <v>1.4654532098110433</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="23">
         <f t="shared" si="4"/>
         <v>1.3979133325059725</v>
       </c>
-      <c r="L32" s="13">
+      <c r="L32" s="23">
         <f t="shared" si="5"/>
         <v>1.4481466876971609</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="17">
         <f>Model!P64/Model!P69</f>
         <v>0.154741872518005</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="17">
         <f>Model!Q64/Model!Q69</f>
         <v>0.1257572219398618</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="17">
         <f>Model!R64/Model!R69</f>
         <v>0.11849128367670365</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="17">
         <f>Model!S64/Model!S69</f>
         <v>0.11763563633539166</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="17">
         <f>Model!T64/Model!T69</f>
         <v>0.13239561086972532</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="17">
         <f>Model!U64/Model!U69</f>
         <v>0.13450761821100779</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="23">
         <f t="shared" si="4"/>
         <v>0.13482018448353245</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="23">
         <f t="shared" si="5"/>
         <v>0.13239561086972532</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="24">
         <f>Model!P56/Model!P19*360</f>
         <v>22.701726595913193</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="24">
         <f>Model!Q56/Model!Q19*360</f>
         <v>16.19468164550797</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="24">
         <f>Model!R56/Model!R19*360</f>
         <v>36.934193782948554</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="24">
         <f>Model!S56/Model!S19*360</f>
         <v>23.469325400016082</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="24">
         <f>Model!T56/Model!T19*360</f>
         <v>25.012725805450366</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="24">
         <f>Model!U56/Model!U19*360</f>
         <v>24.239225502910397</v>
       </c>
-      <c r="K36" s="11">
+      <c r="K36" s="24">
         <f t="shared" ref="K36:K44" si="7">AVERAGE(G36:I36,D36)</f>
         <v>23.855750826072509</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="24">
         <f t="shared" ref="L36:L44" si="8">MEDIAN(G36:I36,D36:E36)</f>
         <v>23.469325400016082</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="24">
         <f>Model!P72/Model!P19*360</f>
         <v>11.536195152859181</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="24">
         <f>Model!Q72/Model!Q19*360</f>
         <v>14.423844930030196</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="24">
         <f>Model!R72/Model!R19*360</f>
         <v>29.113797491365204</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="24">
         <f>Model!S72/Model!S19*360</f>
         <v>25.976039237758304</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="24">
         <f>Model!T72/Model!T19*360</f>
         <v>20.761065243031844</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="24">
         <f>Model!U72/Model!U19*360</f>
         <v>18.034200922882047</v>
       </c>
-      <c r="K37" s="11">
+      <c r="K37" s="24">
         <f t="shared" si="7"/>
         <v>19.076875139132845</v>
       </c>
-      <c r="L37" s="11">
+      <c r="L37" s="24">
         <f t="shared" si="8"/>
         <v>18.034200922882047</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="17">
         <f>Model!P54/Model!P76</f>
         <v>0.48670944087992674</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="17">
         <f>Model!Q54/Model!Q76</f>
         <v>0.77456978967495227</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="17">
         <f>Model!R54/Model!R76</f>
         <v>1.6273346794548209</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="17">
         <f>Model!S54/Model!S76</f>
         <v>0.82626235758301192</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="17">
         <f>Model!T54/Model!T76</f>
         <v>1.0239705390023435</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="17">
         <f>Model!U54/Model!U76</f>
         <v>1.1329062159214831</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="23">
         <f t="shared" si="7"/>
         <v>0.86746213834669128</v>
       </c>
-      <c r="L38" s="13">
+      <c r="L38" s="23">
         <f t="shared" si="8"/>
         <v>0.82626235758301192</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="17">
         <f>(Model!P54+Model!P56)/Model!P76</f>
         <v>0.81843179735022087</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="17">
         <f>(Model!Q54+Model!Q56)/Model!Q76</f>
         <v>0.90702676864244747</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="17">
         <f>(Model!R54+Model!R56)/Model!R76</f>
         <v>1.9122286723876831</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="17">
         <f>(Model!S54+Model!S56)/Model!S76</f>
         <v>1.005984838409363</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="17">
         <f>(Model!T54+Model!T56)/Model!T76</f>
         <v>1.3237361901573486</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="17">
         <f>(Model!U54+Model!U56)/Model!U76</f>
         <v>1.4372273718647763</v>
       </c>
-      <c r="K39" s="13">
+      <c r="K39" s="23">
         <f t="shared" si="7"/>
         <v>1.1463450494454273</v>
       </c>
-      <c r="L39" s="13">
+      <c r="L39" s="23">
         <f t="shared" si="8"/>
         <v>1.005984838409363</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="17">
         <f>Model!P60/Model!P76</f>
         <v>2.9954170485792853</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="17">
         <f>Model!Q60/Model!Q76</f>
         <v>1.6133843212237098</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="17">
         <f>Model!R60/Model!R76</f>
         <v>2.6552246340232206</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="17">
         <f>Model!S60/Model!S76</f>
         <v>1.8696191869486194</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="17">
         <f>Model!T60/Model!T76</f>
         <v>2.2257114161365914</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="17">
         <f>Model!U60/Model!U76</f>
         <v>2.2899400218102506</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="23">
         <f t="shared" si="7"/>
         <v>2.3451719183686865</v>
       </c>
-      <c r="L40" s="13">
+      <c r="L40" s="23">
         <f t="shared" si="8"/>
         <v>2.2257114161365914</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="17">
         <f>Model!P57/Model!P69</f>
         <v>0.13761190011442417</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="17">
         <f>Model!Q57/Model!Q69</f>
         <v>0.10112776274399374</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="17">
         <f>Model!R57/Model!R69</f>
         <v>9.6228209191759118E-2</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="17">
         <f>Model!S57/Model!S69</f>
         <v>0.12651624011288462</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="17">
         <f>Model!T57/Model!T69</f>
         <v>0.15778776051255614</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="17">
         <f>Model!U57/Model!U69</f>
         <v>0.13664314058098326</v>
       </c>
-      <c r="K41" s="13">
+      <c r="K41" s="23">
         <f t="shared" si="7"/>
         <v>0.13963976033021205</v>
       </c>
-      <c r="L41" s="13">
+      <c r="L41" s="23">
         <f t="shared" si="8"/>
         <v>0.13664314058098326</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="24">
         <f>Model!P20/Model!P57</f>
         <v>2.9677182685253118</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="24">
         <f>Model!Q20/Model!Q57</f>
         <v>3.404645476772616</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="24">
         <f>Model!R20/Model!R57</f>
         <v>2.0281949934123849</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="24">
         <f>Model!S20/Model!S57</f>
         <v>2.1191036529213139</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="24">
         <f>Model!T20/Model!T57</f>
         <v>2.1262018108839729</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="24">
         <f>Model!U20/Model!U57</f>
         <v>2.4380403458213253</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K42" s="24">
         <f t="shared" si="7"/>
         <v>2.412766019537981</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L42" s="24">
         <f t="shared" si="8"/>
         <v>2.4380403458213253</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="24">
         <f t="shared" ref="D43:H43" si="9">360/D42</f>
         <v>121.3053152039555</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="24">
         <f t="shared" si="9"/>
         <v>105.737881508079</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="24">
         <f t="shared" si="9"/>
         <v>177.49772638690396</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="24">
         <f t="shared" si="9"/>
         <v>169.88314823756639</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="24">
         <f t="shared" si="9"/>
         <v>169.31600667310562</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="24">
         <f>360/I42</f>
         <v>147.65957446808511</v>
       </c>
-      <c r="K43" s="11">
+      <c r="K43" s="24">
         <f t="shared" si="7"/>
         <v>152.04101114567817</v>
       </c>
-      <c r="L43" s="11">
+      <c r="L43" s="24">
         <f t="shared" si="8"/>
         <v>147.65957446808511</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="24">
         <f t="shared" ref="D44:H44" si="10">D36+D43-D37</f>
         <v>132.47084664700949</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="24">
         <f t="shared" si="10"/>
         <v>107.50871822355677</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="24">
         <f t="shared" si="10"/>
         <v>185.3181226784873</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="24">
         <f t="shared" si="10"/>
         <v>167.37643439982418</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="24">
         <f t="shared" si="10"/>
         <v>173.56766723552414</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="24">
         <f>I36+I43-I37</f>
         <v>153.86459904811346</v>
       </c>
-      <c r="K44" s="11">
+      <c r="K44" s="24">
         <f t="shared" si="7"/>
         <v>156.81988683261781</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="24">
         <f t="shared" si="8"/>
         <v>153.86459904811346</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="16" t="s">
+      <c r="F45" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H45" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="16" t="s">
+      <c r="I45" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K45" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K46" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L46" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="6" t="s">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="7" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D50" s="3">
@@ -7894,8 +7914,8 @@
         <v>18082.634662639997</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="3">
@@ -7923,449 +7943,449 @@
         <v>18492.034662639995</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="24">
         <f>D50/Model!P32</f>
         <v>23.844063123694614</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="24">
         <f>E50/Model!Q32</f>
         <v>13.952866510538627</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="24">
         <f>F50/Model!R32</f>
         <v>-80.498450041288251</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="24">
         <f>G50/Model!S32</f>
         <v>12.459594234294283</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="24">
         <f>H50/Model!T32</f>
         <v>14.226965372106363</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="24">
         <f>I50/Model!U32</f>
         <v>27.978701319263532</v>
       </c>
-      <c r="K52" s="11">
+      <c r="K52" s="24">
         <f t="shared" ref="K52:K63" si="11">AVERAGE(G52:I52,D52)</f>
         <v>19.627331012339699</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="24">
         <f>MEDIAN(G52:I52,D52:E52)</f>
         <v>14.226965372106363</v>
       </c>
-      <c r="N52" t="s">
+      <c r="N52" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="17">
         <f>D52/131.6</f>
         <v>0.18118588999767946</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="17">
         <f>E52/73.8</f>
         <v>0.18906323185011689</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="17">
         <f>F52/133.3</f>
         <v>-0.60388934764657343</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="17">
         <f>G52/106.7</f>
         <v>0.11677220463256122</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="17">
         <f>H52/113.7</f>
         <v>0.12512722402907972</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="17">
         <f>I52/Main!H2</f>
         <v>9.3724712981587618E-2</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="17">
         <f t="shared" si="11"/>
         <v>0.129202507910227</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L53" s="17">
         <f t="shared" ref="L53:L63" si="12">MEDIAN(G53:I53,D53:E53)</f>
         <v>0.12512722402907972</v>
       </c>
-      <c r="N53" t="s">
+      <c r="N53" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="24">
         <f>E52/(Model!Q32/Model!P32-1)</f>
         <v>-129.01910256204266</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="24">
         <f>F52/(Model!R32/Model!Q32-1)</f>
         <v>61.210040266852168</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="24">
         <f>G52/(Model!S32/Model!R32-1)</f>
         <v>-2.0921476175444211</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="24">
         <f>H52/(Model!T32/Model!S32-1)</f>
         <v>-110.30493436435457</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="24">
         <f>I52/(Model!U32/Model!T32-1)</f>
         <v>118.32093187361806</v>
       </c>
-      <c r="K54" s="11">
+      <c r="K54" s="24">
         <f t="shared" si="11"/>
         <v>1.9746166305730242</v>
       </c>
-      <c r="L54" s="11">
+      <c r="L54" s="24">
         <f t="shared" si="12"/>
         <v>-56.198540990949496</v>
       </c>
-      <c r="N54" t="s">
+      <c r="N54" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="24">
         <f>D50/Model!P93</f>
         <v>3.1255800681431003</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="24">
         <f>E50/Model!Q93</f>
         <v>1.9910462292525333</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="24">
         <f>F50/Model!R93</f>
         <v>3.7430357471970535</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="24">
         <f>G50/Model!S93</f>
         <v>2.9483448343848582</v>
       </c>
-      <c r="H55" s="11">
+      <c r="H55" s="24">
         <f>H50/Model!T93</f>
         <v>3.0596316807241322</v>
       </c>
-      <c r="I55" s="11">
+      <c r="I55" s="24">
         <f>I50/Model!U93</f>
         <v>7.3797635647226842</v>
       </c>
-      <c r="K55" s="11">
+      <c r="K55" s="24">
         <f t="shared" si="11"/>
         <v>4.1283300369936935</v>
       </c>
-      <c r="L55" s="11">
+      <c r="L55" s="24">
         <f t="shared" si="12"/>
         <v>3.0596316807241322</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="24">
         <f>D50/(Model!P93-Model!P65-Model!P64)</f>
         <v>4.6619205953083158</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="24">
         <f>E50/(Model!Q93-Model!Q65-Model!Q64)</f>
         <v>3.2763574483685662</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="24">
         <f>F50/(Model!R93-Model!R65-Model!R64)</f>
         <v>6.2945452960547605</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G56" s="24">
         <f>G50/(Model!S93-Model!S65-Model!S64)</f>
         <v>4.9048822487536086</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H56" s="24">
         <f>H50/(Model!T93-Model!T65-Model!T64)</f>
         <v>5.1545260969016464</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="24">
         <f>I50/(Model!U93-Model!U65-Model!U64)</f>
         <v>12.164570913313142</v>
       </c>
-      <c r="K56" s="11">
+      <c r="K56" s="24">
         <f t="shared" si="11"/>
         <v>6.7214749635691788</v>
       </c>
-      <c r="L56" s="11">
+      <c r="L56" s="24">
         <f t="shared" si="12"/>
         <v>4.9048822487536086</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="24">
         <f>D50/Model!P116</f>
         <v>13.108454707833637</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="24">
         <f>E50/Model!Q116</f>
         <v>7.1058661542539054</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="24">
         <f>F50/Model!R116</f>
         <v>25.592970070884746</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G57" s="24">
         <f>G50/Model!S116</f>
         <v>10.444199608883919</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="24">
         <f>H50/Model!T116</f>
         <v>18.093515328467145</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="24">
         <f>I50/Model!U116</f>
         <v>16.904398114088075</v>
       </c>
-      <c r="K57" s="11">
+      <c r="K57" s="24">
         <f t="shared" si="11"/>
         <v>14.637641939818193</v>
       </c>
-      <c r="L57" s="11">
+      <c r="L57" s="24">
         <f t="shared" si="12"/>
         <v>13.108454707833637</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="24">
         <f>D50/Model!P19</f>
         <v>1.6274998891176937</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="24">
         <f>E50/Model!Q19</f>
         <v>0.87049686678138893</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="24">
         <f>F50/Model!R19</f>
         <v>2.2151341347027813</v>
       </c>
-      <c r="G58" s="11">
+      <c r="G58" s="24">
         <f>G50/Model!S19</f>
         <v>1.2023803972018976</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="24">
         <f>H50/Model!T19</f>
         <v>1.154080762306785</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="24">
         <f>I50/Model!U19</f>
         <v>2.7268200776065381</v>
       </c>
-      <c r="K58" s="11">
+      <c r="K58" s="24">
         <f t="shared" si="11"/>
         <v>1.6776952815582287</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="24">
         <f t="shared" si="12"/>
         <v>1.2023803972018976</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B60" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="24">
         <f>D51/(Model!P26+Model!P101)</f>
         <v>10.646431977226905</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="24">
         <f>E51/(Model!Q26+Model!Q101)</f>
         <v>10.204751236146624</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="24">
         <f>F51/(Model!R26+Model!R101)</f>
         <v>48.525795588235276</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="24">
         <f>G51/(Model!S26+Model!S101)</f>
         <v>7.7703555101643813</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="24">
         <f>H51/(Model!T26+Model!T101)</f>
         <v>9.155006813020437</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="24">
         <f>I51/(Model!U26+Model!U101)</f>
         <v>18.766018533225097</v>
       </c>
-      <c r="K60" s="11">
+      <c r="K60" s="24">
         <f t="shared" si="11"/>
         <v>11.584453208409204</v>
       </c>
-      <c r="L60" s="11">
+      <c r="L60" s="24">
         <f t="shared" si="12"/>
         <v>10.204751236146624</v>
       </c>
-      <c r="N60" t="s">
+      <c r="N60" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="24">
         <f>Ratios!D51/Model!P26</f>
         <v>15.977228195087228</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E61" s="24">
         <f>Ratios!E51/Model!Q26</f>
         <v>18.880399369085143</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="24">
         <f>Ratios!F51/Model!R26</f>
         <v>-227.04730045871608</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="24">
         <f>Ratios!G51/Model!S26</f>
         <v>10.005889904809619</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="24">
         <f>Ratios!H51/Model!T26</f>
         <v>12.021634194831009</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="24">
         <f>Ratios!I51/Model!U26</f>
         <v>24.447428163194097</v>
       </c>
-      <c r="K61" s="11">
+      <c r="K61" s="24">
         <f t="shared" si="11"/>
         <v>15.613045114480489</v>
       </c>
-      <c r="L61" s="11">
+      <c r="L61" s="24">
         <f t="shared" si="12"/>
         <v>15.977228195087228</v>
       </c>
-      <c r="N61" t="s">
+      <c r="N61" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B62" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="24">
         <f>D51/(Model!P26*(1-Model!P49)+Model!P101+Model!P117+SUM(Model!P109:P115))</f>
         <v>23.749409176237659</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E62" s="24">
         <f>E51/(Model!Q26*(1-Model!Q49)+Model!Q101+Model!Q117+SUM(Model!Q109:Q115))</f>
         <v>13.668939626752815</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="24">
         <f>F51/(Model!R26*(1-Model!R49)+Model!R101+Model!R117+SUM(Model!R109:R115))</f>
         <v>63.68932845888164</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="24">
         <f>G51/(Model!S26*(1-Model!S49)+Model!S101+Model!S117+SUM(Model!S109:S115))</f>
         <v>16.436095027550397</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="24">
         <f>H51/(Model!T26*(1-Model!T49)+Model!T101+Model!T117+SUM(Model!T109:T115))</f>
         <v>154.91277282965646</v>
       </c>
-      <c r="I62" s="11">
+      <c r="I62" s="24">
         <f>I51/(Model!U26*(1-Model!U49)+Model!U101+Model!U117+SUM(Model!U109:U115))</f>
         <v>23.64206793158634</v>
       </c>
-      <c r="K62" s="11">
+      <c r="K62" s="24">
         <f t="shared" si="11"/>
         <v>54.685086241257714</v>
       </c>
-      <c r="L62" s="11">
+      <c r="L62" s="24">
         <f t="shared" si="12"/>
         <v>23.64206793158634</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B63" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="24">
         <f>D51/Model!P19</f>
         <v>1.4218290511642644</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E63" s="24">
         <f>E51/Model!Q19</f>
         <v>0.97163651417253794</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="24">
         <f>F51/Model!R19</f>
         <v>2.2494233548445739</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="24">
         <f>G51/Model!S19</f>
         <v>1.2846671222963739</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="24">
         <f>H51/Model!T19</f>
         <v>1.3138051399838599</v>
       </c>
-      <c r="I63" s="11">
+      <c r="I63" s="24">
         <f>I51/Model!U19</f>
         <v>2.7885566641493496</v>
       </c>
-      <c r="K63" s="11">
+      <c r="K63" s="24">
         <f t="shared" si="11"/>
         <v>1.7022144943984621</v>
       </c>
-      <c r="L63" s="11">
+      <c r="L63" s="24">
         <f t="shared" si="12"/>
         <v>1.3138051399838599</v>
       </c>
-      <c r="N63" t="s">
+      <c r="N63" s="2" t="s">
         <v>270</v>
       </c>
     </row>

--- a/RL.xlsx
+++ b/RL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9297CC-97CB-48B2-9F30-E07E5B474DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2D9DD6-7BEA-40D0-8492-3DE1A38ABB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{964FB9B6-5A0B-4BED-B971-24C834B20146}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{964FB9B6-5A0B-4BED-B971-24C834B20146}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -971,13 +971,19 @@
     <numFmt numFmtId="166" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1049,54 +1055,57 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1492,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB65CDE8-C26A-4808-A8C2-0F2D976889B8}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1522,7 +1531,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="2">
-        <v>298.52</v>
+        <v>324.72000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -1530,11 +1539,11 @@
         <v>301</v>
       </c>
       <c r="H3" s="3">
-        <f>38.693006+21.881276</f>
-        <v>60.574281999999997</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>303</v>
+        <f>38.759382+21.881276</f>
+        <v>60.640658000000002</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -1547,7 +1556,7 @@
       </c>
       <c r="H4" s="3">
         <f>H3*H2</f>
-        <v>18082.634662639997</v>
+        <v>19691.234465760001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1559,11 +1568,11 @@
         <v>11</v>
       </c>
       <c r="H5" s="3">
-        <f>2090.2+186.6</f>
-        <v>2276.7999999999997</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>303</v>
+        <f>1443+202.5</f>
+        <v>1645.5</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -1577,11 +1586,11 @@
         <v>10</v>
       </c>
       <c r="H6" s="3">
-        <f>1237.2+399.8+230.4</f>
-        <v>1867.4</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>303</v>
+        <f>0+1237.7+224.4</f>
+        <v>1462.1000000000001</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1590,7 +1599,7 @@
       </c>
       <c r="H7" s="3">
         <f>H4+H5-H6</f>
-        <v>18492.034662639995</v>
+        <v>19874.634465760002</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1850,10 +1859,10 @@
   <dimension ref="A1:AD135"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1948,13 +1957,17 @@
       <c r="G3" s="4">
         <v>228</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <v>228</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4">
         <v>225</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4">
+        <v>225</v>
+      </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -1981,13 +1994,17 @@
       <c r="G4" s="4">
         <v>103</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="4">
+        <v>104</v>
+      </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4">
         <v>106</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4">
+        <v>108</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -2014,13 +2031,17 @@
       <c r="G5" s="4">
         <v>234</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>238</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4">
         <v>238</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4">
+        <v>249</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -2048,14 +2069,20 @@
         <f>+SUM(G3:G5)</f>
         <v>565</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <f>+SUM(H3:H5)</f>
+        <v>570</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4">
         <f>+SUM(K3:K5)</f>
         <v>569</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <f>+SUM(L3:L5)</f>
+        <v>582</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
@@ -2082,13 +2109,17 @@
       <c r="G7" s="4">
         <v>697</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
@@ -2130,7 +2161,7 @@
       </c>
       <c r="H8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="0"/>
@@ -2146,7 +2177,7 @@
       </c>
       <c r="L8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
@@ -2184,13 +2215,17 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>682</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4">
         <v>665</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>667</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -2216,14 +2251,20 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <f>+H8+H9</f>
+        <v>1252</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4">
         <f>+K8+K9</f>
         <v>1234</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="4">
+        <f>+L8+L9</f>
+        <v>1249</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -2276,7 +2317,9 @@
       <c r="G12" s="12">
         <v>608.20000000000005</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12">
+        <v>739.5</v>
+      </c>
       <c r="I12" s="12">
         <v>997.7</v>
       </c>
@@ -2286,7 +2329,9 @@
       <c r="K12" s="12">
         <v>656.2</v>
       </c>
-      <c r="L12" s="12"/>
+      <c r="L12" s="12">
+        <v>832.4</v>
+      </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -2314,7 +2359,9 @@
       <c r="G13" s="12">
         <v>479.1</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="12">
+        <v>565.9</v>
+      </c>
       <c r="I13" s="12">
         <v>604.4</v>
       </c>
@@ -2324,7 +2371,9 @@
       <c r="K13" s="12">
         <v>554.5</v>
       </c>
-      <c r="L13" s="12"/>
+      <c r="L13" s="12">
+        <v>688.3</v>
+      </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -2352,7 +2401,9 @@
       <c r="G14" s="12">
         <v>390.9</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12">
+        <v>380.2</v>
+      </c>
       <c r="I14" s="12">
         <v>506.7</v>
       </c>
@@ -2362,7 +2413,9 @@
       <c r="K14" s="12">
         <v>474</v>
       </c>
-      <c r="L14" s="12"/>
+      <c r="L14" s="12">
+        <v>445.6</v>
+      </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
@@ -2390,7 +2443,9 @@
       <c r="G15" s="12">
         <v>34</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12">
+        <v>40.4</v>
+      </c>
       <c r="I15" s="12">
         <v>34.700000000000003</v>
       </c>
@@ -2400,7 +2455,9 @@
       <c r="K15" s="12">
         <v>34.4</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="12">
+        <v>44.4</v>
+      </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
@@ -2428,7 +2485,9 @@
       <c r="G16" s="12">
         <v>1032.5999999999999</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <v>1096.4000000000001</v>
+      </c>
       <c r="I16" s="12">
         <v>1581.8</v>
       </c>
@@ -2438,7 +2497,9 @@
       <c r="K16" s="12">
         <v>1201.2</v>
       </c>
-      <c r="L16" s="12"/>
+      <c r="L16" s="12">
+        <v>1264.5</v>
+      </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="3"/>
@@ -2481,7 +2542,9 @@
       <c r="G17" s="12">
         <v>445.6</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <v>589.20000000000005</v>
+      </c>
       <c r="I17" s="12">
         <v>527</v>
       </c>
@@ -2491,7 +2554,9 @@
       <c r="K17" s="12">
         <v>483.5</v>
       </c>
-      <c r="L17" s="12"/>
+      <c r="L17" s="12">
+        <v>701.8</v>
+      </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
       <c r="O17" s="3"/>
@@ -2534,7 +2599,9 @@
       <c r="G18" s="12">
         <v>34</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12">
+        <v>40.4</v>
+      </c>
       <c r="I18" s="12">
         <v>34.700000000000003</v>
       </c>
@@ -2544,7 +2611,9 @@
       <c r="K18" s="12">
         <v>34.4</v>
       </c>
-      <c r="L18" s="12"/>
+      <c r="L18" s="12">
+        <v>44.4</v>
+      </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="3"/>
@@ -2588,7 +2657,9 @@
       <c r="G19" s="13">
         <v>1512.2</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="13">
+        <v>1726</v>
+      </c>
       <c r="I19" s="13">
         <v>2143.5</v>
       </c>
@@ -2598,7 +2669,9 @@
       <c r="K19" s="13">
         <v>1719.1</v>
       </c>
-      <c r="L19" s="13"/>
+      <c r="L19" s="13">
+        <v>2010.7</v>
+      </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -2647,7 +2720,9 @@
       <c r="G20" s="12">
         <v>446.4</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="12">
+        <v>570.29999999999995</v>
+      </c>
       <c r="I20" s="12">
         <v>677.4</v>
       </c>
@@ -2657,7 +2732,9 @@
       <c r="K20" s="12">
         <v>476.8</v>
       </c>
-      <c r="L20" s="12"/>
+      <c r="L20" s="12">
+        <v>644.29999999999995</v>
+      </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
@@ -2704,7 +2781,7 @@
         <v>1286</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" ref="F21:K21" si="3">+F19-F20</f>
+        <f t="shared" ref="F21:L21" si="3">+F19-F20</f>
         <v>1043.7</v>
       </c>
       <c r="G21" s="12">
@@ -2713,7 +2790,7 @@
       </c>
       <c r="H21" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1155.7</v>
       </c>
       <c r="I21" s="12">
         <f t="shared" si="3"/>
@@ -2727,7 +2804,10 @@
         <f t="shared" si="3"/>
         <v>1242.3</v>
       </c>
-      <c r="L21" s="12"/>
+      <c r="L21" s="12">
+        <f t="shared" si="3"/>
+        <v>1366.4</v>
+      </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
@@ -2779,7 +2859,9 @@
       <c r="G22" s="12">
         <v>849.9</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="12">
+        <v>958.4</v>
+      </c>
       <c r="I22" s="12">
         <v>1064.2</v>
       </c>
@@ -2789,7 +2871,9 @@
       <c r="K22" s="12">
         <v>949.4</v>
       </c>
-      <c r="L22" s="12"/>
+      <c r="L22" s="12">
+        <v>1083.4000000000001</v>
+      </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
@@ -2834,7 +2918,9 @@
       <c r="G23" s="12">
         <v>0</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
       <c r="I23" s="12">
         <v>0</v>
       </c>
@@ -2844,7 +2930,9 @@
       <c r="K23" s="12">
         <v>0</v>
       </c>
-      <c r="L23" s="12"/>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
@@ -2889,7 +2977,9 @@
       <c r="G24" s="12">
         <v>7.4</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="12">
+        <v>18.399999999999999</v>
+      </c>
       <c r="I24" s="12">
         <v>12.2</v>
       </c>
@@ -2899,7 +2989,9 @@
       <c r="K24" s="12">
         <v>19.3</v>
       </c>
-      <c r="L24" s="12"/>
+      <c r="L24" s="12">
+        <v>37.299999999999997</v>
+      </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
@@ -2934,7 +3026,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="12">
-        <f t="shared" ref="C25:K25" si="5">SUM(C22:C24)</f>
+        <f t="shared" ref="C25:L25" si="5">SUM(C22:C24)</f>
         <v>0</v>
       </c>
       <c r="D25" s="12">
@@ -2955,7 +3047,7 @@
       </c>
       <c r="H25" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>976.8</v>
       </c>
       <c r="I25" s="12">
         <f t="shared" si="5"/>
@@ -2969,7 +3061,10 @@
         <f t="shared" si="5"/>
         <v>968.69999999999993</v>
       </c>
-      <c r="L25" s="12"/>
+      <c r="L25" s="12">
+        <f t="shared" si="5"/>
+        <v>1120.7</v>
+      </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
@@ -3032,7 +3127,7 @@
       </c>
       <c r="H26" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>178.90000000000009</v>
       </c>
       <c r="I26" s="12">
         <f t="shared" si="7"/>
@@ -3045,7 +3140,9 @@
       <c r="K26" s="12">
         <v>273.60000000000002</v>
       </c>
-      <c r="L26" s="12"/>
+      <c r="L26" s="12">
+        <v>245.7</v>
+      </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
@@ -3097,7 +3194,9 @@
       <c r="G27" s="12">
         <v>10.9</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="12">
+        <v>11.4</v>
+      </c>
       <c r="I27" s="12">
         <v>11.6</v>
       </c>
@@ -3107,7 +3206,9 @@
       <c r="K27" s="12">
         <v>11.5</v>
       </c>
-      <c r="L27" s="12"/>
+      <c r="L27" s="12">
+        <v>15.9</v>
+      </c>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
@@ -3152,7 +3253,9 @@
       <c r="G28" s="12">
         <v>20.100000000000001</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="12">
+        <v>17.899999999999999</v>
+      </c>
       <c r="I28" s="12">
         <v>17.8</v>
       </c>
@@ -3162,7 +3265,9 @@
       <c r="K28" s="12">
         <v>14.8</v>
       </c>
-      <c r="L28" s="12"/>
+      <c r="L28" s="12">
+        <v>14.6</v>
+      </c>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
@@ -3207,7 +3312,9 @@
       <c r="G29" s="12">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="12">
+        <v>2.7</v>
+      </c>
       <c r="I29" s="12">
         <v>-12.2</v>
       </c>
@@ -3217,7 +3324,9 @@
       <c r="K29" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L29" s="12"/>
+      <c r="L29" s="12">
+        <v>-1.6</v>
+      </c>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
@@ -3252,7 +3361,7 @@
         <v>83</v>
       </c>
       <c r="C30" s="12">
-        <f t="shared" ref="C30:K30" si="9">C26-C27+C28+C29</f>
+        <f t="shared" ref="C30:L30" si="9">C26-C27+C28+C29</f>
         <v>0</v>
       </c>
       <c r="D30" s="12">
@@ -3273,7 +3382,7 @@
       </c>
       <c r="H30" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>188.10000000000008</v>
       </c>
       <c r="I30" s="12">
         <f t="shared" si="9"/>
@@ -3287,7 +3396,10 @@
         <f t="shared" si="9"/>
         <v>278.00000000000006</v>
       </c>
-      <c r="L30" s="12"/>
+      <c r="L30" s="12">
+        <f t="shared" si="9"/>
+        <v>242.79999999999998</v>
+      </c>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
@@ -3339,7 +3451,9 @@
       <c r="G31" s="12">
         <v>48</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="12">
+        <v>40.200000000000003</v>
+      </c>
       <c r="I31" s="12">
         <v>86.3</v>
       </c>
@@ -3349,7 +3463,9 @@
       <c r="K31" s="12">
         <v>57.6</v>
       </c>
-      <c r="L31" s="12"/>
+      <c r="L31" s="12">
+        <v>35.299999999999997</v>
+      </c>
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
@@ -3384,7 +3500,7 @@
         <v>85</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" ref="C32:K32" si="11">C30-C31</f>
+        <f t="shared" ref="C32:L32" si="11">C30-C31</f>
         <v>0</v>
       </c>
       <c r="D32" s="12">
@@ -3405,7 +3521,7 @@
       </c>
       <c r="H32" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>147.90000000000009</v>
       </c>
       <c r="I32" s="12">
         <f t="shared" si="11"/>
@@ -3419,7 +3535,10 @@
         <f t="shared" si="11"/>
         <v>220.40000000000006</v>
       </c>
-      <c r="L32" s="12"/>
+      <c r="L32" s="12">
+        <f t="shared" si="11"/>
+        <v>207.5</v>
+      </c>
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
@@ -3506,23 +3625,26 @@
         <f t="shared" si="13"/>
         <v>2.6677215189873453</v>
       </c>
-      <c r="H34" s="14" t="e">
+      <c r="H34" s="14">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>2.3626198083067105</v>
       </c>
       <c r="I34" s="14">
         <f>+I32/I35</f>
         <v>4.7583999999999973</v>
       </c>
       <c r="J34" s="14" t="e">
-        <f t="shared" ref="J34:K34" si="14">+J32/J35</f>
+        <f t="shared" ref="J34:L34" si="14">+J32/J35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="14">
         <f t="shared" si="14"/>
         <v>3.6131147540983615</v>
       </c>
-      <c r="L34" s="14"/>
+      <c r="L34" s="14">
+        <f t="shared" si="14"/>
+        <v>3.3960720130932898</v>
+      </c>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
       <c r="O34" s="12"/>
@@ -3569,7 +3691,9 @@
       <c r="G35" s="12">
         <v>63.2</v>
       </c>
-      <c r="H35" s="12"/>
+      <c r="H35" s="12">
+        <v>62.6</v>
+      </c>
       <c r="I35" s="12">
         <v>62.5</v>
       </c>
@@ -3577,7 +3701,9 @@
       <c r="K35" s="12">
         <v>61</v>
       </c>
-      <c r="L35" s="12"/>
+      <c r="L35" s="12">
+        <v>61.1</v>
+      </c>
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
@@ -4246,9 +4372,9 @@
         <f t="shared" si="21"/>
         <v>0.70480095225499284</v>
       </c>
-      <c r="H46" s="15" t="e">
+      <c r="H46" s="15">
         <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
+        <v>0.66958285052143685</v>
       </c>
       <c r="I46" s="15">
         <f t="shared" si="21"/>
@@ -4315,9 +4441,9 @@
         <f t="shared" si="24"/>
         <v>0.1378785874884276</v>
       </c>
-      <c r="H47" s="15" t="e">
+      <c r="H47" s="15">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+        <v>0.10365005793742763</v>
       </c>
       <c r="I47" s="15">
         <f t="shared" si="24"/>
@@ -4384,9 +4510,9 @@
         <f t="shared" si="27"/>
         <v>0.1114931887316494</v>
       </c>
-      <c r="H48" s="15" t="e">
+      <c r="H48" s="15">
         <f t="shared" si="27"/>
-        <v>#DIV/0!</v>
+        <v>8.5689455388180819E-2</v>
       </c>
       <c r="I48" s="15">
         <f t="shared" si="27"/>
@@ -4454,9 +4580,9 @@
         <f t="shared" si="30"/>
         <v>0.28469750889679679</v>
       </c>
-      <c r="H49" s="15" t="e">
+      <c r="H49" s="15">
         <f t="shared" si="30"/>
-        <v>#DIV/0!</v>
+        <v>0.27180527383367126</v>
       </c>
       <c r="I49" s="15">
         <f t="shared" si="30"/>
@@ -7911,7 +8037,7 @@
       </c>
       <c r="I50" s="3">
         <f>Main!H4</f>
-        <v>18082.634662639997</v>
+        <v>19691.234465760001</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
@@ -7940,7 +8066,7 @@
       </c>
       <c r="I51" s="3">
         <f>Main!H7</f>
-        <v>18492.034662639995</v>
+        <v>19874.634465760002</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
@@ -7969,11 +8095,11 @@
       </c>
       <c r="I52" s="24">
         <f>I50/Model!U32</f>
-        <v>27.978701319263532</v>
+        <v>30.467638040786053</v>
       </c>
       <c r="K52" s="24">
         <f t="shared" ref="K52:K63" si="11">AVERAGE(G52:I52,D52)</f>
-        <v>19.627331012339699</v>
+        <v>20.249565192720329</v>
       </c>
       <c r="L52" s="24">
         <f>MEDIAN(G52:I52,D52:E52)</f>
@@ -8009,11 +8135,11 @@
       </c>
       <c r="I53" s="17">
         <f>I52/Main!H2</f>
-        <v>9.3724712981587618E-2</v>
+        <v>9.3827414513384E-2</v>
       </c>
       <c r="K53" s="17">
         <f t="shared" si="11"/>
-        <v>0.129202507910227</v>
+        <v>0.12922818329317609</v>
       </c>
       <c r="L53" s="17">
         <f t="shared" ref="L53:L63" si="12">MEDIAN(G53:I53,D53:E53)</f>
@@ -8048,11 +8174,11 @@
       </c>
       <c r="I54" s="24">
         <f>I52/(Model!U32/Model!T32-1)</f>
-        <v>118.32093187361806</v>
+        <v>128.84655666601154</v>
       </c>
       <c r="K54" s="24">
         <f t="shared" si="11"/>
-        <v>1.9746166305730242</v>
+        <v>5.4831582280375146</v>
       </c>
       <c r="L54" s="24">
         <f t="shared" si="12"/>
@@ -8088,11 +8214,11 @@
       </c>
       <c r="I55" s="24">
         <f>I50/Model!U93</f>
-        <v>7.3797635647226842</v>
+        <v>8.0362545262865748</v>
       </c>
       <c r="K55" s="24">
         <f t="shared" si="11"/>
-        <v>4.1283300369936935</v>
+        <v>4.2924527773846668</v>
       </c>
       <c r="L55" s="24">
         <f t="shared" si="12"/>
@@ -8128,11 +8254,11 @@
       </c>
       <c r="I56" s="24">
         <f>I50/(Model!U93-Model!U65-Model!U64)</f>
-        <v>12.164570913313142</v>
+        <v>13.246710034147318</v>
       </c>
       <c r="K56" s="24">
         <f t="shared" si="11"/>
-        <v>6.7214749635691788</v>
+        <v>6.9920097437777224</v>
       </c>
       <c r="L56" s="24">
         <f t="shared" si="12"/>
@@ -8168,11 +8294,11 @@
       </c>
       <c r="I57" s="24">
         <f>I50/Model!U116</f>
-        <v>16.904398114088075</v>
+        <v>18.408184038291125</v>
       </c>
       <c r="K57" s="24">
         <f t="shared" si="11"/>
-        <v>14.637641939818193</v>
+        <v>15.013588420868956</v>
       </c>
       <c r="L57" s="24">
         <f t="shared" si="12"/>
@@ -8208,11 +8334,11 @@
       </c>
       <c r="I58" s="24">
         <f>I50/Model!U19</f>
-        <v>2.7268200776065381</v>
+        <v>2.9693932602105138</v>
       </c>
       <c r="K58" s="24">
         <f t="shared" si="11"/>
-        <v>1.6776952815582287</v>
+        <v>1.7383385772092224</v>
       </c>
       <c r="L58" s="24">
         <f t="shared" si="12"/>
@@ -8255,11 +8381,11 @@
       </c>
       <c r="I60" s="24">
         <f>I51/(Model!U26+Model!U101)</f>
-        <v>18.766018533225097</v>
+        <v>20.169103375035537</v>
       </c>
       <c r="K60" s="24">
         <f t="shared" si="11"/>
-        <v>11.584453208409204</v>
+        <v>11.935224418861814</v>
       </c>
       <c r="L60" s="24">
         <f t="shared" si="12"/>
@@ -8295,11 +8421,11 @@
       </c>
       <c r="I61" s="24">
         <f>Ratios!I51/Model!U26</f>
-        <v>24.447428163194097</v>
+        <v>26.275296755367563</v>
       </c>
       <c r="K61" s="24">
         <f t="shared" si="11"/>
-        <v>15.613045114480489</v>
+        <v>16.070012262523854</v>
       </c>
       <c r="L61" s="24">
         <f t="shared" si="12"/>
@@ -8335,15 +8461,15 @@
       </c>
       <c r="I62" s="24">
         <f>I51/(Model!U26*(1-Model!U49)+Model!U101+Model!U117+SUM(Model!U109:U115))</f>
-        <v>23.64206793158634</v>
+        <v>25.409721900654475</v>
       </c>
       <c r="K62" s="24">
         <f t="shared" si="11"/>
-        <v>54.685086241257714</v>
+        <v>55.126999733524748</v>
       </c>
       <c r="L62" s="24">
         <f t="shared" si="12"/>
-        <v>23.64206793158634</v>
+        <v>23.749409176237659</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>268</v>
@@ -8375,11 +8501,11 @@
       </c>
       <c r="I63" s="24">
         <f>I51/Model!U19</f>
-        <v>2.7885566641493496</v>
+        <v>2.9970495620472302</v>
       </c>
       <c r="K63" s="24">
         <f t="shared" si="11"/>
-        <v>1.7022144943984621</v>
+        <v>1.7543377188729323</v>
       </c>
       <c r="L63" s="24">
         <f t="shared" si="12"/>

--- a/RL.xlsx
+++ b/RL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2D9DD6-7BEA-40D0-8492-3DE1A38ABB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7ABB71-593F-49CA-96C2-09B438A8E4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{964FB9B6-5A0B-4BED-B971-24C834B20146}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{964FB9B6-5A0B-4BED-B971-24C834B20146}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -928,9 +928,6 @@
     <t>RL Stores</t>
   </si>
   <si>
-    <t xml:space="preserve">Oultets </t>
-  </si>
-  <si>
     <t>Total Stores</t>
   </si>
   <si>
@@ -959,6 +956,9 @@
   </si>
   <si>
     <t>Q426</t>
+  </si>
+  <si>
+    <t>Outlets</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1058,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1108,6 +1108,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1501,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB65CDE8-C26A-4808-A8C2-0F2D976889B8}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="K1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1531,16 +1532,16 @@
         <v>7</v>
       </c>
       <c r="H2" s="2">
-        <v>324.72000000000003</v>
+        <v>338.01</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G3" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H3" s="3">
-        <f>38.759382+21.881276</f>
-        <v>60.640658000000002</v>
+        <f>38.655137+21.881276</f>
+        <v>60.536413000000003</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>304</v>
@@ -1556,7 +1557,7 @@
       </c>
       <c r="H4" s="3">
         <f>H3*H2</f>
-        <v>19691.234465760001</v>
+        <v>20461.91295813</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1568,8 +1569,8 @@
         <v>11</v>
       </c>
       <c r="H5" s="3">
-        <f>1443+202.5</f>
-        <v>1645.5</v>
+        <f>2031.9+218.9</f>
+        <v>2250.8000000000002</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>304</v>
@@ -1586,8 +1587,8 @@
         <v>10</v>
       </c>
       <c r="H6" s="3">
-        <f>0+1237.7+224.4</f>
-        <v>1462.1000000000001</v>
+        <f>0+1238.3</f>
+        <v>1238.3</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>304</v>
@@ -1599,7 +1600,7 @@
       </c>
       <c r="H7" s="3">
         <f>H4+H5-H6</f>
-        <v>19874.634465760002</v>
+        <v>21474.41295813</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1607,7 +1608,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="J9" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1858,11 +1859,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DECD0C8-AF9F-4DAB-A92B-C0DC872AC0C1}">
   <dimension ref="A1:AD135"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1912,16 +1913,16 @@
         <v>280</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>305</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>306</v>
       </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
@@ -1968,7 +1969,9 @@
       <c r="L3" s="4">
         <v>225</v>
       </c>
-      <c r="M3" s="4"/>
+      <c r="M3" s="4">
+        <v>225</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
@@ -2005,7 +2008,9 @@
       <c r="L4" s="4">
         <v>108</v>
       </c>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4">
+        <v>112</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
@@ -2042,7 +2047,9 @@
       <c r="L5" s="4">
         <v>249</v>
       </c>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4">
+        <v>263</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -2083,7 +2090,10 @@
         <f>+SUM(L3:L5)</f>
         <v>582</v>
       </c>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <f>+SUM(M3:M5)</f>
+        <v>600</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
@@ -2099,8 +2109,8 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>296</v>
+      <c r="B7" s="29" t="s">
+        <v>306</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -2120,7 +2130,9 @@
       <c r="L7" s="4">
         <v>0</v>
       </c>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
@@ -2137,7 +2149,7 @@
     </row>
     <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" ref="C8:N8" si="0">+C6+C7</f>
@@ -2181,7 +2193,7 @@
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="N8" s="11">
         <f t="shared" si="0"/>
@@ -2208,7 +2220,7 @@
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -2226,7 +2238,9 @@
       <c r="L9" s="4">
         <v>667</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>663</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
@@ -2244,7 +2258,7 @@
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -2265,7 +2279,10 @@
         <f>+L8+L9</f>
         <v>1249</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <f>+M8+M9</f>
+        <v>1263</v>
+      </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -2332,7 +2349,9 @@
       <c r="L12" s="12">
         <v>832.4</v>
       </c>
-      <c r="M12" s="12"/>
+      <c r="M12" s="12">
+        <v>1078.3</v>
+      </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
       <c r="U12" s="3">
@@ -2374,7 +2393,9 @@
       <c r="L13" s="12">
         <v>688.3</v>
       </c>
-      <c r="M13" s="12"/>
+      <c r="M13" s="12">
+        <v>676.5</v>
+      </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
       <c r="U13" s="3">
@@ -2416,7 +2437,9 @@
       <c r="L14" s="12">
         <v>445.6</v>
       </c>
-      <c r="M14" s="12"/>
+      <c r="M14" s="12">
+        <v>620.29999999999995</v>
+      </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
       <c r="U14" s="3">
@@ -2458,7 +2481,9 @@
       <c r="L15" s="12">
         <v>44.4</v>
       </c>
-      <c r="M15" s="12"/>
+      <c r="M15" s="12">
+        <v>30.9</v>
+      </c>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="U15" s="3">
@@ -2500,7 +2525,9 @@
       <c r="L16" s="12">
         <v>1264.5</v>
       </c>
-      <c r="M16" s="12"/>
+      <c r="M16" s="12">
+        <v>1581.8</v>
+      </c>
       <c r="N16" s="12"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3">
@@ -2557,7 +2584,9 @@
       <c r="L17" s="12">
         <v>701.8</v>
       </c>
-      <c r="M17" s="12"/>
+      <c r="M17" s="12">
+        <v>527</v>
+      </c>
       <c r="N17" s="12"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3">
@@ -2614,7 +2643,9 @@
       <c r="L18" s="12">
         <v>44.4</v>
       </c>
-      <c r="M18" s="12"/>
+      <c r="M18" s="12">
+        <v>34.700000000000003</v>
+      </c>
       <c r="N18" s="12"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3">
@@ -2672,7 +2703,9 @@
       <c r="L19" s="13">
         <v>2010.7</v>
       </c>
-      <c r="M19" s="13"/>
+      <c r="M19" s="13">
+        <v>2406</v>
+      </c>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
       <c r="P19" s="13">
@@ -2735,7 +2768,9 @@
       <c r="L20" s="12">
         <v>644.29999999999995</v>
       </c>
-      <c r="M20" s="12"/>
+      <c r="M20" s="12">
+        <v>724.3</v>
+      </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12">
@@ -2781,7 +2816,7 @@
         <v>1286</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" ref="F21:L21" si="3">+F19-F20</f>
+        <f t="shared" ref="F21:M21" si="3">+F19-F20</f>
         <v>1043.7</v>
       </c>
       <c r="G21" s="12">
@@ -2808,7 +2843,10 @@
         <f t="shared" si="3"/>
         <v>1366.4</v>
       </c>
-      <c r="M21" s="12"/>
+      <c r="M21" s="12">
+        <f t="shared" si="3"/>
+        <v>1681.7</v>
+      </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12">
@@ -2874,7 +2912,9 @@
       <c r="L22" s="12">
         <v>1083.4000000000001</v>
       </c>
-      <c r="M22" s="12"/>
+      <c r="M22" s="12">
+        <v>1178.5999999999999</v>
+      </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12">
@@ -2933,7 +2973,9 @@
       <c r="L23" s="12">
         <v>0</v>
       </c>
-      <c r="M23" s="12"/>
+      <c r="M23" s="12">
+        <v>0</v>
+      </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12">
@@ -2992,7 +3034,9 @@
       <c r="L24" s="12">
         <v>37.299999999999997</v>
       </c>
-      <c r="M24" s="12"/>
+      <c r="M24" s="12">
+        <v>31.8</v>
+      </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12">
@@ -3026,7 +3070,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="12">
-        <f t="shared" ref="C25:L25" si="5">SUM(C22:C24)</f>
+        <f t="shared" ref="C25:M25" si="5">SUM(C22:C24)</f>
         <v>0</v>
       </c>
       <c r="D25" s="12">
@@ -3065,7 +3109,10 @@
         <f t="shared" si="5"/>
         <v>1120.7</v>
       </c>
-      <c r="M25" s="12"/>
+      <c r="M25" s="12">
+        <f t="shared" si="5"/>
+        <v>1210.3999999999999</v>
+      </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12">
@@ -3143,7 +3190,10 @@
       <c r="L26" s="12">
         <v>245.7</v>
       </c>
-      <c r="M26" s="12"/>
+      <c r="M26" s="12">
+        <f>+M21-M25</f>
+        <v>471.30000000000018</v>
+      </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12">
@@ -3209,7 +3259,9 @@
       <c r="L27" s="12">
         <v>15.9</v>
       </c>
-      <c r="M27" s="12"/>
+      <c r="M27" s="12">
+        <v>13.3</v>
+      </c>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12">
@@ -3268,7 +3320,9 @@
       <c r="L28" s="12">
         <v>14.6</v>
       </c>
-      <c r="M28" s="12"/>
+      <c r="M28" s="12">
+        <v>11.9</v>
+      </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12">
@@ -3327,7 +3381,9 @@
       <c r="L29" s="12">
         <v>-1.6</v>
       </c>
-      <c r="M29" s="12"/>
+      <c r="M29" s="12">
+        <v>-6.1</v>
+      </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12">
@@ -3361,7 +3417,7 @@
         <v>83</v>
       </c>
       <c r="C30" s="12">
-        <f t="shared" ref="C30:L30" si="9">C26-C27+C28+C29</f>
+        <f t="shared" ref="C30:M30" si="9">C26-C27+C28+C29</f>
         <v>0</v>
       </c>
       <c r="D30" s="12">
@@ -3400,7 +3456,10 @@
         <f t="shared" si="9"/>
         <v>242.79999999999998</v>
       </c>
-      <c r="M30" s="12"/>
+      <c r="M30" s="12">
+        <f t="shared" si="9"/>
+        <v>463.80000000000013</v>
+      </c>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12">
@@ -3466,7 +3525,9 @@
       <c r="L31" s="12">
         <v>35.299999999999997</v>
       </c>
-      <c r="M31" s="12"/>
+      <c r="M31" s="12">
+        <v>102.2</v>
+      </c>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12">
@@ -3500,7 +3561,7 @@
         <v>85</v>
       </c>
       <c r="C32" s="12">
-        <f t="shared" ref="C32:L32" si="11">C30-C31</f>
+        <f t="shared" ref="C32:M32" si="11">C30-C31</f>
         <v>0</v>
       </c>
       <c r="D32" s="12">
@@ -3539,7 +3600,10 @@
         <f t="shared" si="11"/>
         <v>207.5</v>
       </c>
-      <c r="M32" s="12"/>
+      <c r="M32" s="12">
+        <f t="shared" si="11"/>
+        <v>361.60000000000014</v>
+      </c>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12">
@@ -3634,7 +3698,7 @@
         <v>4.7583999999999973</v>
       </c>
       <c r="J34" s="14" t="e">
-        <f t="shared" ref="J34:L34" si="14">+J32/J35</f>
+        <f t="shared" ref="J34:M34" si="14">+J32/J35</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="14">
@@ -3645,7 +3709,10 @@
         <f t="shared" si="14"/>
         <v>3.3960720130932898</v>
       </c>
-      <c r="M34" s="14"/>
+      <c r="M34" s="14">
+        <f t="shared" si="14"/>
+        <v>5.9181669394435374</v>
+      </c>
       <c r="N34" s="14"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12">
@@ -3704,7 +3771,9 @@
       <c r="L35" s="12">
         <v>61.1</v>
       </c>
-      <c r="M35" s="12"/>
+      <c r="M35" s="12">
+        <v>61.1</v>
+      </c>
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12">
@@ -3764,7 +3833,7 @@
     </row>
     <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -3832,36 +3901,48 @@
         <f t="shared" si="17"/>
         <v>5.541410813239489E-2</v>
       </c>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
+      <c r="K38" s="17">
+        <f t="shared" ref="K38:K45" si="18">+K12/G12-1</f>
+        <v>7.89214074317659E-2</v>
+      </c>
+      <c r="L38" s="17">
+        <f t="shared" ref="L38:L45" si="19">+L12/H12-1</f>
+        <v>0.12562542258282616</v>
+      </c>
+      <c r="M38" s="17">
+        <f t="shared" ref="M38:M45" si="20">+M12/I12-1</f>
+        <v>8.0785807356920758E-2</v>
+      </c>
+      <c r="N38" s="17">
+        <f t="shared" ref="N38:N45" si="21">+N12/J12-1</f>
+        <v>-1</v>
+      </c>
       <c r="O38" s="12"/>
       <c r="P38" s="16" t="s">
         <v>70</v>
       </c>
       <c r="Q38" s="15" t="e">
-        <f t="shared" ref="Q38:V41" si="18">Q12/P12-1</f>
+        <f t="shared" ref="Q38:V41" si="22">Q12/P12-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R38" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S38" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T38" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U38" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V38" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4.9767681982447076E-2</v>
       </c>
       <c r="W38" s="12"/>
@@ -3901,36 +3982,48 @@
         <f t="shared" si="17"/>
         <v>0.11999147485080996</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
+      <c r="K39" s="17">
+        <f t="shared" si="18"/>
+        <v>0.1573784178668336</v>
+      </c>
+      <c r="L39" s="17">
+        <f t="shared" si="19"/>
+        <v>0.21629263120692688</v>
+      </c>
+      <c r="M39" s="17">
+        <f t="shared" si="20"/>
+        <v>0.11929185969556588</v>
+      </c>
+      <c r="N39" s="17">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
       <c r="O39" s="12"/>
       <c r="P39" s="16" t="s">
         <v>70</v>
       </c>
       <c r="Q39" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R39" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S39" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T39" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U39" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V39" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0.1051321138211383</v>
       </c>
       <c r="W39" s="12"/>
@@ -3970,36 +4063,48 @@
         <f t="shared" si="17"/>
         <v>9.4598021810804012E-2</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
+      <c r="K40" s="17">
+        <f t="shared" si="18"/>
+        <v>0.21258633921719117</v>
+      </c>
+      <c r="L40" s="17">
+        <f t="shared" si="19"/>
+        <v>0.17201472908995274</v>
+      </c>
+      <c r="M40" s="17">
+        <f t="shared" si="20"/>
+        <v>0.22419577659364509</v>
+      </c>
+      <c r="N40" s="17">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
       <c r="O40" s="12"/>
       <c r="P40" s="16" t="s">
         <v>70</v>
       </c>
       <c r="Q40" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R40" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S40" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T40" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U40" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V40" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>9.1152815013404886E-2</v>
       </c>
       <c r="W40" s="12"/>
@@ -4039,36 +4144,48 @@
         <f t="shared" si="17"/>
         <v>-3.2697547683923744E-2</v>
       </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
+      <c r="K41" s="17">
+        <f t="shared" si="18"/>
+        <v>1.1764705882352899E-2</v>
+      </c>
+      <c r="L41" s="17">
+        <f t="shared" si="19"/>
+        <v>9.9009900990099098E-2</v>
+      </c>
+      <c r="M41" s="17">
+        <f t="shared" si="20"/>
+        <v>-0.10951008645533156</v>
+      </c>
+      <c r="N41" s="17">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
       <c r="O41" s="12"/>
       <c r="P41" s="16" t="s">
         <v>70</v>
       </c>
       <c r="Q41" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R41" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S41" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T41" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U41" s="15" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V41" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>-1.1619958988380197E-2</v>
       </c>
       <c r="W41" s="12"/>
@@ -4108,10 +4225,22 @@
         <f t="shared" si="17"/>
         <v>0.58689937966565031</v>
       </c>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
+      <c r="K42" s="17">
+        <f t="shared" si="18"/>
+        <v>0.16327716443927964</v>
+      </c>
+      <c r="L42" s="17">
+        <f t="shared" si="19"/>
+        <v>0.15331995622035755</v>
+      </c>
+      <c r="M42" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="17">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
       <c r="O42" s="12"/>
       <c r="P42" s="16" t="s">
         <v>70</v>
@@ -4121,23 +4250,23 @@
         <v>-1.8410801003255761E-3</v>
       </c>
       <c r="R42" s="15">
-        <f t="shared" ref="R42:V42" si="19">R16/Q16-1</f>
+        <f t="shared" ref="R42:V42" si="23">R16/Q16-1</f>
         <v>-0.25691678473094703</v>
       </c>
       <c r="S42" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>0.41790776314842781</v>
       </c>
       <c r="T42" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2.831409361918058E-2</v>
       </c>
       <c r="U42" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>7.3499296834521832E-2</v>
       </c>
       <c r="V42" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>9.632268444035863E-2</v>
       </c>
       <c r="W42" s="12"/>
@@ -4177,10 +4306,22 @@
         <f t="shared" si="17"/>
         <v>3.8614032063437387E-2</v>
       </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
+      <c r="K43" s="17">
+        <f t="shared" si="18"/>
+        <v>8.5053859964093315E-2</v>
+      </c>
+      <c r="L43" s="17">
+        <f t="shared" si="19"/>
+        <v>0.19110658520027135</v>
+      </c>
+      <c r="M43" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="17">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
       <c r="O43" s="12"/>
       <c r="P43" s="16" t="s">
         <v>70</v>
@@ -4190,23 +4331,23 @@
         <v>-5.9226750261232919E-2</v>
       </c>
       <c r="R43" s="15">
-        <f t="shared" ref="R43:V45" si="20">R17/Q17-1</f>
+        <f t="shared" ref="R43:V45" si="24">R17/Q17-1</f>
         <v>-0.33419228718677818</v>
       </c>
       <c r="S43" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.41952488989723768</v>
       </c>
       <c r="T43" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>4.9828421003149437E-2</v>
       </c>
       <c r="U43" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-4.4418573411543538E-2</v>
       </c>
       <c r="V43" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>1.4151164425284746E-2</v>
       </c>
       <c r="W43" s="12"/>
@@ -4246,10 +4387,22 @@
         <f t="shared" si="17"/>
         <v>-3.2697547683923744E-2</v>
       </c>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
+      <c r="K44" s="17">
+        <f t="shared" si="18"/>
+        <v>1.1764705882352899E-2</v>
+      </c>
+      <c r="L44" s="17">
+        <f t="shared" si="19"/>
+        <v>9.9009900990099098E-2</v>
+      </c>
+      <c r="M44" s="17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="17">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
       <c r="O44" s="12"/>
       <c r="P44" s="16" t="s">
         <v>70</v>
@@ -4259,23 +4412,23 @@
         <v>-2.6635784597567991E-2</v>
       </c>
       <c r="R44" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.27186198691255203</v>
       </c>
       <c r="S44" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.22303921568627438</v>
       </c>
       <c r="T44" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>5.0100200400801542E-2</v>
       </c>
       <c r="U44" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-6.9338422391857391E-2</v>
       </c>
       <c r="V44" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-1.1619958988380197E-2</v>
       </c>
       <c r="W44" s="12"/>
@@ -4315,10 +4468,22 @@
         <f t="shared" si="17"/>
         <v>8.2530773646278366E-2</v>
       </c>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
+      <c r="K45" s="19">
+        <f t="shared" si="18"/>
+        <v>0.13682052638539877</v>
+      </c>
+      <c r="L45" s="19">
+        <f t="shared" si="19"/>
+        <v>0.16494785631517961</v>
+      </c>
+      <c r="M45" s="19">
+        <f t="shared" si="20"/>
+        <v>0.12246326102169358</v>
+      </c>
+      <c r="N45" s="19">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
       <c r="O45" s="1"/>
       <c r="P45" s="18" t="s">
         <v>70</v>
@@ -4328,23 +4493,23 @@
         <v>-2.4267384761603061E-2</v>
       </c>
       <c r="R45" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>-0.28556121952011426</v>
       </c>
       <c r="S45" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>0.413038538447555</v>
       </c>
       <c r="T45" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>3.6198440138297094E-2</v>
       </c>
       <c r="U45" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>2.9145198336333555E-2</v>
       </c>
       <c r="V45" s="20">
-        <f t="shared" si="20"/>
+        <f t="shared" si="24"/>
         <v>6.7497059444461271E-2</v>
       </c>
     </row>
@@ -4353,67 +4518,79 @@
         <v>89</v>
       </c>
       <c r="C46" s="15" t="e">
-        <f t="shared" ref="C46:J46" si="21">C21/C19</f>
+        <f t="shared" ref="C46:J46" si="25">C21/C19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D46" s="15" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E46" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.66494312306101344</v>
       </c>
       <c r="F46" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.66566745328145926</v>
       </c>
       <c r="G46" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.70480095225499284</v>
       </c>
       <c r="H46" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.66958285052143685</v>
       </c>
       <c r="I46" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.68397480755773266</v>
       </c>
       <c r="J46" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0.68656100866081426</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
+      <c r="K46" s="15">
+        <f t="shared" ref="K46:N46" si="26">K21/K19</f>
+        <v>0.72264557035658195</v>
+      </c>
+      <c r="L46" s="15">
+        <f t="shared" si="26"/>
+        <v>0.67956433083005918</v>
+      </c>
+      <c r="M46" s="15">
+        <f t="shared" si="26"/>
+        <v>0.6989609310058188</v>
+      </c>
+      <c r="N46" s="15" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P46" s="15">
-        <f t="shared" ref="P46:U46" si="22">P21/P19</f>
+        <f t="shared" ref="P46:U46" si="27">P21/P19</f>
         <v>0.61555520354823379</v>
       </c>
       <c r="Q46" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.59308743790382801</v>
       </c>
       <c r="R46" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.65019996364297394</v>
       </c>
       <c r="S46" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.66696148588887993</v>
       </c>
       <c r="T46" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.64650195542864242</v>
       </c>
       <c r="U46" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>0.66830533522333135</v>
       </c>
       <c r="V46" s="15">
-        <f t="shared" ref="V46" si="23">V21/V19</f>
+        <f t="shared" ref="V46" si="28">V21/V19</f>
         <v>0.68553468003955353</v>
       </c>
     </row>
@@ -4422,67 +4599,79 @@
         <v>90</v>
       </c>
       <c r="C47" s="15" t="e">
-        <f t="shared" ref="C47:J47" si="24">C26/C19</f>
+        <f t="shared" ref="C47:J47" si="29">C26/C19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D47" s="15" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E47" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.16427094105480866</v>
       </c>
       <c r="F47" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>6.8754384845972363E-2</v>
       </c>
       <c r="G47" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.1378785874884276</v>
       </c>
       <c r="H47" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.10365005793742763</v>
       </c>
       <c r="I47" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.18180545836249118</v>
       </c>
       <c r="J47" s="15">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>9.1321510634537209E-2</v>
       </c>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
+      <c r="K47" s="15">
+        <f t="shared" ref="K47:N47" si="30">K26/K19</f>
+        <v>0.15915304519806878</v>
+      </c>
+      <c r="L47" s="15">
+        <f t="shared" si="30"/>
+        <v>0.1221962500621674</v>
+      </c>
+      <c r="M47" s="15">
+        <f t="shared" si="30"/>
+        <v>0.19588528678304246</v>
+      </c>
+      <c r="N47" s="15" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P47" s="15">
-        <f t="shared" ref="P47:U47" si="25">P26/P19</f>
+        <f t="shared" ref="P47:U47" si="31">P26/P19</f>
         <v>8.8990971012197009E-2</v>
       </c>
       <c r="Q47" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>5.1462709828241249E-2</v>
       </c>
       <c r="R47" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>-9.9072895837120315E-3</v>
       </c>
       <c r="S47" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.12839109109913968</v>
       </c>
       <c r="T47" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.10928673412378177</v>
       </c>
       <c r="U47" s="15">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.11406339536146201</v>
       </c>
       <c r="V47" s="15">
-        <f t="shared" ref="V47" si="26">V26/V19</f>
+        <f t="shared" ref="V47" si="32">V26/V19</f>
         <v>0.13167113999152416</v>
       </c>
     </row>
@@ -4491,67 +4680,79 @@
         <v>91</v>
       </c>
       <c r="C48" s="15" t="e">
-        <f t="shared" ref="C48:J48" si="27">C32/C19</f>
+        <f t="shared" ref="C48:J48" si="33">C32/C19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D48" s="15" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E48" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.1430196483971044</v>
       </c>
       <c r="F48" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>5.7848077045730001E-2</v>
       </c>
       <c r="G48" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.1114931887316494</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>8.5689455388180819E-2</v>
       </c>
       <c r="I48" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>0.13874504315372047</v>
       </c>
       <c r="J48" s="15">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>7.6003063689389028E-2</v>
       </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
+      <c r="K48" s="15">
+        <f t="shared" ref="K48:N48" si="34">K32/K19</f>
+        <v>0.12820661974288877</v>
+      </c>
+      <c r="L48" s="15">
+        <f t="shared" si="34"/>
+        <v>0.10319789128164321</v>
+      </c>
+      <c r="M48" s="15">
+        <f t="shared" si="34"/>
+        <v>0.15029093931837079</v>
+      </c>
+      <c r="N48" s="15" t="e">
+        <f t="shared" si="34"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P48" s="15">
-        <f t="shared" ref="P48:U48" si="28">P32/P19</f>
+        <f t="shared" ref="P48:U48" si="35">P32/P19</f>
         <v>6.8255979724378205E-2</v>
       </c>
       <c r="Q48" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>6.2388389233416733E-2</v>
       </c>
       <c r="R48" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>-2.7517724050172675E-2</v>
       </c>
       <c r="S48" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>9.6502371954651459E-2</v>
       </c>
       <c r="T48" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>8.1119250108634966E-2</v>
       </c>
       <c r="U48" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="35"/>
         <v>9.7460566396235973E-2</v>
       </c>
       <c r="V48" s="15">
-        <f t="shared" ref="V48" si="29">V32/V19</f>
+        <f t="shared" ref="V48" si="36">V32/V19</f>
         <v>0.10494420115835562</v>
       </c>
       <c r="Y48" s="21"/>
@@ -4561,67 +4762,79 @@
         <v>92</v>
       </c>
       <c r="C49" s="15" t="e">
-        <f t="shared" ref="C49:J49" si="30">C31/C32</f>
+        <f t="shared" ref="C49:J49" si="37">C31/C32</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D49" s="15" t="e">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E49" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.19233550253073037</v>
       </c>
       <c r="F49" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.22932745314222694</v>
       </c>
       <c r="G49" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.28469750889679679</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.27180527383367126</v>
       </c>
       <c r="I49" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.29018157363819791</v>
       </c>
       <c r="J49" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>0.25813953488372093</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
+      <c r="K49" s="15">
+        <f t="shared" ref="K49:N49" si="38">K31/K32</f>
+        <v>0.26134301270417415</v>
+      </c>
+      <c r="L49" s="15">
+        <f t="shared" si="38"/>
+        <v>0.17012048192771084</v>
+      </c>
+      <c r="M49" s="15">
+        <f t="shared" si="38"/>
+        <v>0.28263274336283178</v>
+      </c>
+      <c r="N49" s="15" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="P49" s="15">
-        <f t="shared" ref="P49:U49" si="31">P31/P32</f>
+        <f t="shared" ref="P49:U49" si="39">P31/P32</f>
         <v>0.35182176839173851</v>
       </c>
       <c r="Q49" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>-0.15066354410616689</v>
       </c>
       <c r="R49" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>-0.38232865400495486</v>
       </c>
       <c r="S49" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0.2574570904849191</v>
       </c>
       <c r="T49" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0.32370384541802161</v>
       </c>
       <c r="U49" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0.20284697508896823</v>
       </c>
       <c r="V49" s="15">
-        <f t="shared" ref="V49" si="32">V31/V32</f>
+        <f t="shared" ref="V49" si="40">V31/V32</f>
         <v>0.27971463184816286</v>
       </c>
     </row>
@@ -4779,23 +4992,23 @@
         <v>100</v>
       </c>
       <c r="P60" s="22">
-        <f t="shared" ref="P60:T60" si="33">SUM(P54:P59)</f>
+        <f t="shared" ref="P60:T60" si="41">SUM(P54:P59)</f>
         <v>3594.7999999999997</v>
       </c>
       <c r="Q60" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>3375.2000000000007</v>
       </c>
       <c r="R60" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>4208</v>
       </c>
       <c r="S60" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>4217.3</v>
       </c>
       <c r="T60" s="22">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>3324.0999999999995</v>
       </c>
       <c r="U60" s="22">
@@ -4946,23 +5159,23 @@
         <v>107</v>
       </c>
       <c r="P67" s="22">
-        <f t="shared" ref="P67:T67" si="34">SUM(P61:P66)</f>
+        <f t="shared" ref="P67:T67" si="42">SUM(P61:P66)</f>
         <v>2348</v>
       </c>
       <c r="Q67" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>3904.7</v>
       </c>
       <c r="R67" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>3679.5</v>
       </c>
       <c r="S67" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>3507.4</v>
       </c>
       <c r="T67" s="22">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>3465.4</v>
       </c>
       <c r="U67" s="22">
@@ -4975,23 +5188,23 @@
         <v>108</v>
       </c>
       <c r="P69" s="22">
-        <f t="shared" ref="P69:T69" si="35">P60+P67</f>
+        <f t="shared" ref="P69:T69" si="43">P60+P67</f>
         <v>5942.7999999999993</v>
       </c>
       <c r="Q69" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>7279.9000000000005</v>
       </c>
       <c r="R69" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>7887.5</v>
       </c>
       <c r="S69" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>7724.7000000000007</v>
       </c>
       <c r="T69" s="22">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>6789.5</v>
       </c>
       <c r="U69" s="22">
@@ -5119,11 +5332,11 @@
         <v>114</v>
       </c>
       <c r="P76" s="22">
-        <f t="shared" ref="P76:Q76" si="36">SUM(P71:P75)</f>
+        <f t="shared" ref="P76:Q76" si="44">SUM(P71:P75)</f>
         <v>1200.0999999999999</v>
       </c>
       <c r="Q76" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>2092</v>
       </c>
       <c r="R76" s="22">
@@ -5131,15 +5344,15 @@
         <v>1584.8</v>
       </c>
       <c r="S76" s="22">
-        <f t="shared" ref="S76:U76" si="37">SUM(S71:S75)</f>
+        <f t="shared" ref="S76:U76" si="45">SUM(S71:S75)</f>
         <v>2255.6999999999998</v>
       </c>
       <c r="T76" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>1493.5</v>
       </c>
       <c r="U76" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>1467.2</v>
       </c>
     </row>
@@ -5287,11 +5500,11 @@
         <v>121</v>
       </c>
       <c r="P83" s="22">
-        <f t="shared" ref="P83:T83" si="38">SUM(P77:P82)</f>
+        <f t="shared" ref="P83:T83" si="46">SUM(P77:P82)</f>
         <v>1455.5</v>
       </c>
       <c r="Q83" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>2494.7999999999997</v>
       </c>
       <c r="R83" s="22">
@@ -5299,11 +5512,11 @@
         <v>3698.3</v>
       </c>
       <c r="S83" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>2933.0000000000005</v>
       </c>
       <c r="T83" s="22">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>2865.5</v>
       </c>
       <c r="U83" s="22">
@@ -5316,11 +5529,11 @@
         <v>122</v>
       </c>
       <c r="P85" s="22">
-        <f t="shared" ref="P85:T85" si="39">P76+P83</f>
+        <f t="shared" ref="P85:T85" si="47">P76+P83</f>
         <v>2655.6</v>
       </c>
       <c r="Q85" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>4586.7999999999993</v>
       </c>
       <c r="R85" s="22">
@@ -5328,11 +5541,11 @@
         <v>5283.1</v>
       </c>
       <c r="S85" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>5188.7000000000007</v>
       </c>
       <c r="T85" s="22">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>4359</v>
       </c>
       <c r="U85" s="22">
@@ -5483,23 +5696,23 @@
         <v>129</v>
       </c>
       <c r="P93" s="22">
-        <f t="shared" ref="P93:T93" si="40">SUM(P87:P92)</f>
+        <f t="shared" ref="P93:T93" si="48">SUM(P87:P92)</f>
         <v>3287.2000000000003</v>
       </c>
       <c r="Q93" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2693.1000000000013</v>
       </c>
       <c r="R93" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2604.3999999999987</v>
       </c>
       <c r="S93" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2536</v>
       </c>
       <c r="T93" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2430.4999999999991</v>
       </c>
       <c r="U93" s="22">
@@ -5525,11 +5738,11 @@
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="22">
-        <f t="shared" ref="P95:S95" si="41">P93+P85</f>
+        <f t="shared" ref="P95:S95" si="49">P93+P85</f>
         <v>5942.8</v>
       </c>
       <c r="Q95" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>7279.9000000000005</v>
       </c>
       <c r="R95" s="22">
@@ -5537,7 +5750,7 @@
         <v>7887.4999999999991</v>
       </c>
       <c r="S95" s="22">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>7724.7000000000007</v>
       </c>
       <c r="T95" s="22">
@@ -5562,27 +5775,27 @@
         <v>85</v>
       </c>
       <c r="P100" s="3">
-        <f t="shared" ref="P100:U100" si="42">P32</f>
+        <f t="shared" ref="P100:U100" si="50">P32</f>
         <v>430.89999999999964</v>
       </c>
       <c r="Q100" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>384.30000000000041</v>
       </c>
       <c r="R100" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>-121.09999999999991</v>
       </c>
       <c r="S100" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>600.10000000000014</v>
       </c>
       <c r="T100" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>522.70000000000027</v>
       </c>
       <c r="U100" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>646.29999999999916</v>
       </c>
     </row>
@@ -5918,7 +6131,7 @@
         <v>146</v>
       </c>
       <c r="P116" s="22">
-        <f t="shared" ref="P116:T116" si="43">P100+SUM(P101:P107)+SUM(P109:P115)</f>
+        <f t="shared" ref="P116:T116" si="51">P100+SUM(P101:P107)+SUM(P109:P115)</f>
         <v>783.79999999999973</v>
       </c>
       <c r="Q116" s="22">
@@ -5926,15 +6139,15 @@
         <v>754.60000000000036</v>
       </c>
       <c r="R116" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>380.90000000000003</v>
       </c>
       <c r="S116" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>715.90000000000032</v>
       </c>
       <c r="T116" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>411.00000000000017</v>
       </c>
       <c r="U116" s="22">
@@ -6063,23 +6276,23 @@
         <v>152</v>
       </c>
       <c r="P122" s="22">
-        <f t="shared" ref="P122:T122" si="44">SUM(P117:P121)</f>
+        <f t="shared" ref="P122:T122" si="52">SUM(P117:P121)</f>
         <v>-879.3</v>
       </c>
       <c r="Q122" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>702.1</v>
       </c>
       <c r="R122" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>195.00000000000006</v>
       </c>
       <c r="S122" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>-717.9</v>
       </c>
       <c r="T122" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>471.50000000000006</v>
       </c>
       <c r="U122" s="22">
@@ -6290,15 +6503,15 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
       <c r="P131" s="22">
-        <f t="shared" ref="P131:R131" si="45">SUM(P123:P130)</f>
+        <f t="shared" ref="P131:R131" si="53">SUM(P123:P130)</f>
         <v>-605.69999999999993</v>
       </c>
       <c r="Q131" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>-438.19999999999993</v>
       </c>
       <c r="R131" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>356.80000000000013</v>
       </c>
       <c r="S131" s="22">
@@ -6306,11 +6519,11 @@
         <v>-665.7</v>
       </c>
       <c r="T131" s="22">
-        <f t="shared" ref="T131:U131" si="46">SUM(T123:T130)</f>
+        <f t="shared" ref="T131:U131" si="54">SUM(T123:T130)</f>
         <v>-1208.8000000000002</v>
       </c>
       <c r="U131" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>-665.6</v>
       </c>
     </row>
@@ -6342,23 +6555,23 @@
         <v>163</v>
       </c>
       <c r="P133" s="22">
-        <f t="shared" ref="P133:T133" si="47">P116+P122+P131+P132</f>
+        <f t="shared" ref="P133:T133" si="55">P116+P122+P131+P132</f>
         <v>-729.00000000000011</v>
       </c>
       <c r="Q133" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>1003.3000000000003</v>
       </c>
       <c r="R133" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>958.20000000000027</v>
       </c>
       <c r="S133" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>-715.99999999999966</v>
       </c>
       <c r="T133" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>-335.09999999999997</v>
       </c>
       <c r="U133" s="22">
@@ -8037,7 +8250,7 @@
       </c>
       <c r="I50" s="3">
         <f>Main!H4</f>
-        <v>19691.234465760001</v>
+        <v>20461.91295813</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
@@ -8066,7 +8279,7 @@
       </c>
       <c r="I51" s="3">
         <f>Main!H7</f>
-        <v>19874.634465760002</v>
+        <v>21474.41295813</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
@@ -8095,11 +8308,11 @@
       </c>
       <c r="I52" s="24">
         <f>I50/Model!U32</f>
-        <v>30.467638040786053</v>
+        <v>31.660085035014742</v>
       </c>
       <c r="K52" s="24">
         <f t="shared" ref="K52:K63" si="11">AVERAGE(G52:I52,D52)</f>
-        <v>20.249565192720329</v>
+        <v>20.547676941277501</v>
       </c>
       <c r="L52" s="24">
         <f>MEDIAN(G52:I52,D52:E52)</f>
@@ -8135,11 +8348,11 @@
       </c>
       <c r="I53" s="17">
         <f>I52/Main!H2</f>
-        <v>9.3827414513384E-2</v>
+        <v>9.3666119449172344E-2</v>
       </c>
       <c r="K53" s="17">
         <f t="shared" si="11"/>
-        <v>0.12922818329317609</v>
+        <v>0.12918785952712319</v>
       </c>
       <c r="L53" s="17">
         <f t="shared" ref="L53:L63" si="12">MEDIAN(G53:I53,D53:E53)</f>
@@ -8174,11 +8387,11 @@
       </c>
       <c r="I54" s="24">
         <f>I52/(Model!U32/Model!T32-1)</f>
-        <v>128.84655666601154</v>
+        <v>133.88937255503535</v>
       </c>
       <c r="K54" s="24">
         <f t="shared" si="11"/>
-        <v>5.4831582280375146</v>
+        <v>7.1640968577121198</v>
       </c>
       <c r="L54" s="24">
         <f t="shared" si="12"/>
@@ -8214,11 +8427,11 @@
       </c>
       <c r="I55" s="24">
         <f>I50/Model!U93</f>
-        <v>8.0362545262865748</v>
+        <v>8.3507786630739069</v>
       </c>
       <c r="K55" s="24">
         <f t="shared" si="11"/>
-        <v>4.2924527773846668</v>
+        <v>4.3710838115814994</v>
       </c>
       <c r="L55" s="24">
         <f t="shared" si="12"/>
@@ -8254,11 +8467,11 @@
       </c>
       <c r="I56" s="24">
         <f>I50/(Model!U93-Model!U65-Model!U64)</f>
-        <v>13.246710034147318</v>
+        <v>13.765161761271434</v>
       </c>
       <c r="K56" s="24">
         <f t="shared" si="11"/>
-        <v>6.9920097437777224</v>
+        <v>7.1216226755587515</v>
       </c>
       <c r="L56" s="24">
         <f t="shared" si="12"/>
@@ -8294,11 +8507,11 @@
       </c>
       <c r="I57" s="24">
         <f>I50/Model!U116</f>
-        <v>18.408184038291125</v>
+        <v>19.128646310301971</v>
       </c>
       <c r="K57" s="24">
         <f t="shared" si="11"/>
-        <v>15.013588420868956</v>
+        <v>15.193703988871667</v>
       </c>
       <c r="L57" s="24">
         <f t="shared" si="12"/>
@@ -8334,11 +8547,11 @@
       </c>
       <c r="I58" s="24">
         <f>I50/Model!U19</f>
-        <v>2.9693932602105138</v>
+        <v>3.0856098196655308</v>
       </c>
       <c r="K58" s="24">
         <f t="shared" si="11"/>
-        <v>1.7383385772092224</v>
+        <v>1.7673927170729766</v>
       </c>
       <c r="L58" s="24">
         <f t="shared" si="12"/>
@@ -8381,11 +8594,11 @@
       </c>
       <c r="I60" s="24">
         <f>I51/(Model!U26+Model!U101)</f>
-        <v>20.169103375035537</v>
+        <v>21.792584694672232</v>
       </c>
       <c r="K60" s="24">
         <f t="shared" si="11"/>
-        <v>11.935224418861814</v>
+        <v>12.341094748770988</v>
       </c>
       <c r="L60" s="24">
         <f t="shared" si="12"/>
@@ -8421,11 +8634,11 @@
       </c>
       <c r="I61" s="24">
         <f>Ratios!I51/Model!U26</f>
-        <v>26.275296755367563</v>
+        <v>28.390286829891622</v>
       </c>
       <c r="K61" s="24">
         <f t="shared" si="11"/>
-        <v>16.070012262523854</v>
+        <v>16.598759781154868</v>
       </c>
       <c r="L61" s="24">
         <f t="shared" si="12"/>
@@ -8461,11 +8674,11 @@
       </c>
       <c r="I62" s="24">
         <f>I51/(Model!U26*(1-Model!U49)+Model!U101+Model!U117+SUM(Model!U109:U115))</f>
-        <v>25.409721900654475</v>
+        <v>27.455038842900713</v>
       </c>
       <c r="K62" s="24">
         <f t="shared" si="11"/>
-        <v>55.126999733524748</v>
+        <v>55.638328969086309</v>
       </c>
       <c r="L62" s="24">
         <f t="shared" si="12"/>
@@ -8501,11 +8714,11 @@
       </c>
       <c r="I63" s="24">
         <f>I51/Model!U19</f>
-        <v>2.9970495620472302</v>
+        <v>3.2382925111032361</v>
       </c>
       <c r="K63" s="24">
         <f t="shared" si="11"/>
-        <v>1.7543377188729323</v>
+        <v>1.8146484561369336</v>
       </c>
       <c r="L63" s="24">
         <f t="shared" si="12"/>
